--- a/Data/22052017_initialIpam/Processed/Summary.xlsx
+++ b/Data/22052017_initialIpam/Processed/Summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rich/Documents/Grad School/Internship/Lab/Data/220517_initialIpam/Processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rich/Documents/GradSchool/Internship/Lab/Data/AcroporaStressTest/Data/22052017_initialIpam/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="13480" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="481">
   <si>
     <t>Picture</t>
   </si>
@@ -1235,9 +1235,6 @@
     <t>Genotypes</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>Fragment  ID</t>
   </si>
   <si>
@@ -1247,9 +1244,6 @@
     <t>Initial Frag Count</t>
   </si>
   <si>
-    <t>Time 1</t>
-  </si>
-  <si>
     <t>Time 2</t>
   </si>
   <si>
@@ -1460,7 +1454,25 @@
     <t>AOI</t>
   </si>
   <si>
-    <t>Frag ID</t>
+    <t>FragID</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Time 1 (02/06/17)</t>
+  </si>
+  <si>
+    <t>Time 6</t>
+  </si>
+  <si>
+    <t>Time 7</t>
+  </si>
+  <si>
+    <t>Time 8</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA341"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="AZ3" sqref="AZ3:BB16"/>
     </sheetView>
   </sheetViews>
@@ -2023,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O2" t="s">
         <v>187</v>
       </c>
       <c r="Q2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
@@ -7847,47 +7859,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>400</v>
       </c>
       <c r="B1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" t="s">
         <v>404</v>
       </c>
-      <c r="C1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" t="s">
         <v>405</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>421</v>
+      </c>
+      <c r="K1" t="s">
         <v>406</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" t="s">
-        <v>408</v>
-      </c>
-      <c r="L1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O1" t="s">
+        <v>478</v>
+      </c>
+      <c r="P1" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R1" t="s">
+        <v>421</v>
+      </c>
+      <c r="S1" t="s">
+        <v>480</v>
+      </c>
+      <c r="T1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1721</v>
       </c>
@@ -7895,22 +7941,42 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G2" t="s">
         <v>425</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E2" t="s">
-        <v>426</v>
-      </c>
-      <c r="G2" t="s">
-        <v>427</v>
-      </c>
       <c r="I2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" t="s">
+        <v>424</v>
+      </c>
+      <c r="M2" t="s">
+        <v>425</v>
+      </c>
+      <c r="O2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" t="s">
+        <v>424</v>
+      </c>
+      <c r="S2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1722</v>
       </c>
@@ -7918,19 +7984,42 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F3" t="s">
+        <v>409</v>
       </c>
       <c r="G3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" t="s">
+        <v>424</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" t="s">
+        <v>425</v>
+      </c>
+      <c r="S3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1723</v>
       </c>
@@ -7938,19 +8027,42 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" t="s">
         <v>425</v>
       </c>
-      <c r="G4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="2"/>
+      <c r="K4" t="s">
+        <v>423</v>
+      </c>
+      <c r="M4" t="s">
+        <v>424</v>
+      </c>
+      <c r="O4" t="s">
+        <v>425</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s">
+        <v>423</v>
+      </c>
+      <c r="S4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1725</v>
       </c>
@@ -7958,19 +8070,42 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" t="s">
         <v>425</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>423</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" t="s">
+        <v>424</v>
+      </c>
+      <c r="M5" t="s">
+        <v>425</v>
+      </c>
+      <c r="O5" t="s">
+        <v>423</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s">
+        <v>424</v>
+      </c>
+      <c r="S5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1726</v>
       </c>
@@ -7978,19 +8113,42 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" t="s">
         <v>425</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>423</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O6" t="s">
+        <v>423</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s">
+        <v>424</v>
+      </c>
+      <c r="S6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1727</v>
       </c>
@@ -7998,19 +8156,42 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I7" t="s">
         <v>425</v>
       </c>
-      <c r="G7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+      <c r="K7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M7" t="s">
+        <v>424</v>
+      </c>
+      <c r="O7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s">
+        <v>423</v>
+      </c>
+      <c r="S7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1728</v>
       </c>
@@ -8018,19 +8199,42 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" t="s">
+        <v>417</v>
+      </c>
+      <c r="G8" t="s">
         <v>425</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E8" t="s">
-        <v>426</v>
-      </c>
-      <c r="G8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>423</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" t="s">
+        <v>424</v>
+      </c>
+      <c r="M8" t="s">
+        <v>425</v>
+      </c>
+      <c r="O8" t="s">
+        <v>423</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s">
+        <v>424</v>
+      </c>
+      <c r="S8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1729</v>
       </c>
@@ -8038,19 +8242,42 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F9" t="s">
+        <v>410</v>
       </c>
       <c r="G9" t="s">
+        <v>423</v>
+      </c>
+      <c r="I9" t="s">
+        <v>424</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>423</v>
+      </c>
+      <c r="O9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s">
+        <v>425</v>
+      </c>
+      <c r="S9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1730</v>
       </c>
@@ -8060,15 +8287,18 @@
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1731</v>
       </c>
@@ -8076,19 +8306,42 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" t="s">
+        <v>424</v>
+      </c>
+      <c r="I11" t="s">
         <v>425</v>
       </c>
-      <c r="G11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="2"/>
+      <c r="K11" t="s">
+        <v>423</v>
+      </c>
+      <c r="M11" t="s">
+        <v>424</v>
+      </c>
+      <c r="O11" t="s">
+        <v>425</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s">
+        <v>423</v>
+      </c>
+      <c r="S11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1732</v>
       </c>
@@ -8096,19 +8349,42 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" t="s">
+        <v>424</v>
+      </c>
+      <c r="I12" t="s">
         <v>425</v>
       </c>
-      <c r="G12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="2"/>
+      <c r="K12" t="s">
+        <v>423</v>
+      </c>
+      <c r="M12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O12" t="s">
+        <v>425</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s">
+        <v>423</v>
+      </c>
+      <c r="S12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1733</v>
       </c>
@@ -8116,19 +8392,42 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" t="s">
+        <v>416</v>
+      </c>
+      <c r="G13" t="s">
         <v>425</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" t="s">
-        <v>426</v>
-      </c>
-      <c r="G13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>423</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" t="s">
+        <v>425</v>
+      </c>
+      <c r="O13" t="s">
+        <v>423</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s">
+        <v>424</v>
+      </c>
+      <c r="S13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1734</v>
       </c>
@@ -8136,19 +8435,42 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E14" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G14" t="s">
+        <v>424</v>
+      </c>
+      <c r="I14" t="s">
         <v>425</v>
       </c>
-      <c r="G14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J14" s="2"/>
+      <c r="K14" t="s">
+        <v>423</v>
+      </c>
+      <c r="M14" t="s">
+        <v>424</v>
+      </c>
+      <c r="O14" t="s">
+        <v>425</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s">
+        <v>423</v>
+      </c>
+      <c r="S14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1735</v>
       </c>
@@ -8156,19 +8478,42 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E15" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F15" t="s">
+        <v>413</v>
       </c>
       <c r="G15" t="s">
+        <v>423</v>
+      </c>
+      <c r="I15" t="s">
+        <v>424</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>423</v>
+      </c>
+      <c r="O15" t="s">
+        <v>424</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s">
+        <v>425</v>
+      </c>
+      <c r="S15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1736</v>
       </c>
@@ -8176,19 +8521,42 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E16" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F16" t="s">
+        <v>411</v>
       </c>
       <c r="G16" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>423</v>
+      </c>
+      <c r="O16" t="s">
+        <v>424</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s">
+        <v>425</v>
+      </c>
+      <c r="S16" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1737</v>
       </c>
@@ -8196,19 +8564,42 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E17" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F17" t="s">
+        <v>412</v>
       </c>
       <c r="G17" t="s">
+        <v>423</v>
+      </c>
+      <c r="I17" t="s">
+        <v>424</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>423</v>
+      </c>
+      <c r="O17" t="s">
+        <v>424</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s">
+        <v>425</v>
+      </c>
+      <c r="S17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1738</v>
       </c>
@@ -8216,19 +8607,42 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F18" t="s">
+        <v>416</v>
       </c>
       <c r="G18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I18" t="s">
+        <v>424</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>423</v>
+      </c>
+      <c r="O18" t="s">
+        <v>424</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s">
+        <v>425</v>
+      </c>
+      <c r="S18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1739</v>
       </c>
@@ -8236,19 +8650,42 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F19" t="s">
+        <v>408</v>
       </c>
       <c r="G19" t="s">
+        <v>423</v>
+      </c>
+      <c r="I19" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>423</v>
+      </c>
+      <c r="O19" t="s">
+        <v>424</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s">
+        <v>425</v>
+      </c>
+      <c r="S19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1741</v>
       </c>
@@ -8256,19 +8693,42 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" t="s">
+        <v>424</v>
+      </c>
+      <c r="I20" t="s">
         <v>425</v>
       </c>
-      <c r="G20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+      <c r="K20" t="s">
+        <v>423</v>
+      </c>
+      <c r="M20" t="s">
+        <v>424</v>
+      </c>
+      <c r="O20" t="s">
+        <v>425</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s">
+        <v>423</v>
+      </c>
+      <c r="S20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1743</v>
       </c>
@@ -8276,19 +8736,42 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E21" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" t="s">
+        <v>410</v>
+      </c>
+      <c r="G21" t="s">
         <v>425</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E21" t="s">
-        <v>426</v>
-      </c>
-      <c r="G21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>423</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" t="s">
+        <v>424</v>
+      </c>
+      <c r="M21" t="s">
+        <v>425</v>
+      </c>
+      <c r="O21" t="s">
+        <v>423</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s">
+        <v>424</v>
+      </c>
+      <c r="S21" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1745</v>
       </c>
@@ -8296,19 +8779,42 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F22" t="s">
+        <v>409</v>
       </c>
       <c r="G22" t="s">
+        <v>423</v>
+      </c>
+      <c r="I22" t="s">
+        <v>424</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>423</v>
+      </c>
+      <c r="O22" t="s">
+        <v>424</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s">
+        <v>425</v>
+      </c>
+      <c r="S22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1747</v>
       </c>
@@ -8316,19 +8822,42 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>423</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E23" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E23" t="s">
-        <v>426</v>
-      </c>
-      <c r="G23" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>423</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" t="s">
+        <v>424</v>
+      </c>
+      <c r="M23" t="s">
+        <v>425</v>
+      </c>
+      <c r="O23" t="s">
+        <v>423</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s">
+        <v>424</v>
+      </c>
+      <c r="S23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1748</v>
       </c>
@@ -8336,19 +8865,42 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F24" t="s">
+        <v>412</v>
+      </c>
+      <c r="G24" t="s">
+        <v>424</v>
+      </c>
+      <c r="I24" t="s">
         <v>425</v>
       </c>
-      <c r="G24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+      <c r="K24" t="s">
+        <v>423</v>
+      </c>
+      <c r="M24" t="s">
+        <v>424</v>
+      </c>
+      <c r="O24" t="s">
+        <v>425</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s">
+        <v>423</v>
+      </c>
+      <c r="S24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1750</v>
       </c>
@@ -8356,19 +8908,42 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" t="s">
+        <v>424</v>
+      </c>
+      <c r="I25" t="s">
         <v>425</v>
       </c>
-      <c r="G25" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+      <c r="K25" t="s">
+        <v>423</v>
+      </c>
+      <c r="M25" t="s">
+        <v>424</v>
+      </c>
+      <c r="O25" t="s">
+        <v>425</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s">
+        <v>423</v>
+      </c>
+      <c r="S25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1751</v>
       </c>
@@ -8376,19 +8951,42 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E26" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F26" t="s">
+        <v>418</v>
       </c>
       <c r="G26" t="s">
+        <v>423</v>
+      </c>
+      <c r="I26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="K26" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>423</v>
+      </c>
+      <c r="O26" t="s">
+        <v>424</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s">
+        <v>425</v>
+      </c>
+      <c r="S26" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1752</v>
       </c>
@@ -8396,19 +8994,42 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E27" t="s">
+        <v>424</v>
+      </c>
+      <c r="F27" t="s">
+        <v>475</v>
+      </c>
+      <c r="G27" t="s">
         <v>425</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E27" t="s">
-        <v>426</v>
-      </c>
-      <c r="G27" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>423</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" t="s">
+        <v>424</v>
+      </c>
+      <c r="M27" t="s">
+        <v>425</v>
+      </c>
+      <c r="O27" t="s">
+        <v>423</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s">
+        <v>424</v>
+      </c>
+      <c r="S27" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1753</v>
       </c>
@@ -8416,19 +9037,42 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s">
-        <v>427</v>
+        <v>425</v>
+      </c>
+      <c r="F28" t="s">
+        <v>476</v>
       </c>
       <c r="G28" t="s">
+        <v>423</v>
+      </c>
+      <c r="I28" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>423</v>
+      </c>
+      <c r="O28" t="s">
+        <v>424</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s">
+        <v>425</v>
+      </c>
+      <c r="S28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1755</v>
       </c>
@@ -8436,25 +9080,43 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>423</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E29" t="s">
+        <v>424</v>
+      </c>
+      <c r="F29" t="s">
+        <v>417</v>
+      </c>
+      <c r="G29" t="s">
         <v>425</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" t="s">
-        <v>426</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" t="s">
-        <v>427</v>
-      </c>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>423</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" t="s">
+        <v>424</v>
+      </c>
+      <c r="M29" t="s">
+        <v>425</v>
+      </c>
+      <c r="O29" t="s">
+        <v>423</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s">
+        <v>424</v>
+      </c>
+      <c r="S29" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1757</v>
       </c>
@@ -8462,19 +9124,42 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E30" t="s">
+        <v>424</v>
+      </c>
+      <c r="F30" t="s">
+        <v>416</v>
+      </c>
+      <c r="G30" t="s">
         <v>425</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E30" t="s">
-        <v>426</v>
-      </c>
-      <c r="G30" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>423</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" t="s">
+        <v>424</v>
+      </c>
+      <c r="M30" t="s">
+        <v>425</v>
+      </c>
+      <c r="O30" t="s">
+        <v>423</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s">
+        <v>424</v>
+      </c>
+      <c r="S30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1758</v>
       </c>
@@ -8482,19 +9167,42 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E31" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" t="s">
+        <v>418</v>
+      </c>
+      <c r="G31" t="s">
+        <v>424</v>
+      </c>
+      <c r="I31" t="s">
         <v>425</v>
       </c>
-      <c r="G31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J31" s="2"/>
+      <c r="K31" t="s">
+        <v>423</v>
+      </c>
+      <c r="M31" t="s">
+        <v>424</v>
+      </c>
+      <c r="O31" t="s">
+        <v>425</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s">
+        <v>423</v>
+      </c>
+      <c r="S31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1759</v>
       </c>
@@ -8502,16 +9210,39 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F32" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" t="s">
+        <v>424</v>
+      </c>
+      <c r="I32" t="s">
         <v>425</v>
       </c>
-      <c r="G32" t="s">
-        <v>426</v>
+      <c r="J32" s="2"/>
+      <c r="K32" t="s">
+        <v>423</v>
+      </c>
+      <c r="M32" t="s">
+        <v>424</v>
+      </c>
+      <c r="O32" t="s">
+        <v>425</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s">
+        <v>423</v>
+      </c>
+      <c r="S32" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -8527,7 +9258,7 @@
   <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8537,16 +9268,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -8567,7 +9298,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -8591,7 +9322,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -8615,7 +9346,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -8639,7 +9370,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -8663,7 +9394,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -8687,7 +9418,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -8711,7 +9442,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -8735,7 +9466,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -8759,7 +9490,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -8783,7 +9514,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -8807,7 +9538,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -8831,7 +9562,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -8855,7 +9586,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -8879,7 +9610,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -8903,7 +9634,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -8927,7 +9658,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -8951,7 +9682,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -8975,7 +9706,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -8999,7 +9730,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -9023,7 +9754,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -9047,7 +9778,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -9071,7 +9802,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -9095,7 +9826,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -9119,7 +9850,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -9143,7 +9874,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -9167,7 +9898,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -9191,7 +9922,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -9215,7 +9946,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -9239,7 +9970,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -9263,7 +9994,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -9287,7 +10018,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -9311,7 +10042,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -9335,7 +10066,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -9359,7 +10090,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -9383,7 +10114,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -9407,7 +10138,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -9431,7 +10162,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -9455,7 +10186,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -9479,7 +10210,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -9503,7 +10234,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -9527,7 +10258,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -9551,7 +10282,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -9575,7 +10306,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -9599,7 +10330,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -9623,7 +10354,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -9647,7 +10378,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -9671,7 +10402,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -9689,7 +10420,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -9707,7 +10438,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -9725,7 +10456,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -9743,7 +10474,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -9761,7 +10492,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -9779,7 +10510,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -9797,7 +10528,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -9815,7 +10546,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -9833,7 +10564,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -9851,7 +10582,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -9869,7 +10600,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -9887,7 +10618,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -9905,7 +10636,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -9923,7 +10654,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -9941,7 +10672,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -9959,7 +10690,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -9977,7 +10708,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -9995,7 +10726,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -10013,7 +10744,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -10031,7 +10762,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -10049,7 +10780,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -10067,7 +10798,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -10085,7 +10816,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -10103,7 +10834,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -10121,7 +10852,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -10139,7 +10870,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -10157,7 +10888,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -10175,7 +10906,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -10193,7 +10924,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -10211,7 +10942,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -10229,7 +10960,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -10247,7 +10978,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -10265,7 +10996,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -10283,7 +11014,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -10301,7 +11032,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -10319,7 +11050,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -10337,7 +11068,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -10355,7 +11086,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -10373,7 +11104,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -10391,7 +11122,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -10409,7 +11140,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -10427,7 +11158,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -10445,7 +11176,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -10463,7 +11194,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -10481,7 +11212,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -10499,7 +11230,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -10517,7 +11248,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -10535,7 +11266,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -10553,7 +11284,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -10571,7 +11302,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -10589,7 +11320,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -10607,7 +11338,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -10625,7 +11356,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -10643,7 +11374,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -10661,7 +11392,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -10679,7 +11410,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -10697,7 +11428,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -10715,7 +11446,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -10733,7 +11464,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -10751,7 +11482,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -10769,7 +11500,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -10787,7 +11518,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -10805,7 +11536,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -10823,7 +11554,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -10841,7 +11572,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -10859,7 +11590,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -10877,7 +11608,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -10895,7 +11626,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -10913,7 +11644,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -10931,7 +11662,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -10949,7 +11680,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -10967,7 +11698,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -10985,7 +11716,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -11003,7 +11734,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -11021,7 +11752,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -11039,7 +11770,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -11057,7 +11788,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -11075,7 +11806,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -11093,7 +11824,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -11111,7 +11842,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -11129,7 +11860,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -11147,7 +11878,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -11165,7 +11896,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -11183,7 +11914,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -11201,7 +11932,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -11219,7 +11950,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -11237,7 +11968,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -11255,7 +11986,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -11273,7 +12004,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -11291,7 +12022,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -11309,7 +12040,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -11327,7 +12058,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -11345,7 +12076,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -11363,7 +12094,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -11381,7 +12112,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -11399,7 +12130,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -11417,7 +12148,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -11435,7 +12166,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -11453,7 +12184,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -11471,7 +12202,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -11489,7 +12220,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -11507,7 +12238,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -11525,7 +12256,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -11543,7 +12274,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -11561,7 +12292,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -11579,7 +12310,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -11597,7 +12328,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -11615,7 +12346,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -11633,7 +12364,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -11651,7 +12382,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -11669,7 +12400,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -11687,7 +12418,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -11705,7 +12436,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -11723,7 +12454,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -11741,7 +12472,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -11759,7 +12490,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -11777,7 +12508,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -11795,7 +12526,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -11813,7 +12544,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -11831,7 +12562,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -11849,7 +12580,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -11867,7 +12598,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -11885,7 +12616,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -11903,7 +12634,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -11921,7 +12652,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -11939,7 +12670,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -11957,7 +12688,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -11975,7 +12706,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -11993,7 +12724,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -12011,7 +12742,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -12029,7 +12760,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -12047,7 +12778,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -12065,7 +12796,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -12083,7 +12814,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -12101,7 +12832,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -12119,7 +12850,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -12137,7 +12868,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -12155,7 +12886,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -12173,7 +12904,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -12191,7 +12922,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -12209,7 +12940,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -12227,7 +12958,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -12245,7 +12976,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -12263,7 +12994,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -12281,7 +13012,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -12299,7 +13030,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -12317,7 +13048,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -12335,7 +13066,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -12353,7 +13084,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -12371,7 +13102,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -12389,7 +13120,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -12407,7 +13138,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -12425,7 +13156,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -12443,7 +13174,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -12461,7 +13192,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -12479,7 +13210,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -12497,7 +13228,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -12515,7 +13246,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -12533,7 +13264,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -12551,7 +13282,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -12569,7 +13300,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -12587,7 +13318,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -12605,7 +13336,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -12623,7 +13354,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -12641,7 +13372,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -12659,7 +13390,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -12677,7 +13408,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -12695,7 +13426,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -12713,7 +13444,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -12731,7 +13462,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -12749,7 +13480,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -12767,7 +13498,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -12785,7 +13516,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -12803,7 +13534,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -12821,7 +13552,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -12839,7 +13570,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -12857,7 +13588,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -12875,7 +13606,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -12893,7 +13624,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -12911,7 +13642,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -12929,7 +13660,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -12947,7 +13678,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -12965,7 +13696,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -12983,7 +13714,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -13001,7 +13732,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -13019,7 +13750,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -13037,7 +13768,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -13055,7 +13786,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -13073,7 +13804,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -13091,7 +13822,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -13109,7 +13840,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -13127,7 +13858,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -13145,7 +13876,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -13163,7 +13894,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -13181,7 +13912,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -13199,7 +13930,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -13217,7 +13948,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -13235,7 +13966,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -13253,7 +13984,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -13271,7 +14002,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -13289,7 +14020,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -13307,7 +14038,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -13325,7 +14056,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -13343,7 +14074,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -13361,7 +14092,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -13379,7 +14110,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -13397,7 +14128,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -13415,7 +14146,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -13433,7 +14164,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -13451,7 +14182,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -13469,7 +14200,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -13487,7 +14218,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -13505,7 +14236,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -13523,7 +14254,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -13541,7 +14272,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -13559,7 +14290,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -13577,7 +14308,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -13595,7 +14326,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -13613,7 +14344,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -13631,7 +14362,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -13649,7 +14380,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -13667,7 +14398,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -13685,7 +14416,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -13703,7 +14434,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -13721,7 +14452,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -13739,7 +14470,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -13757,7 +14488,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -13775,7 +14506,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -13793,7 +14524,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -13811,7 +14542,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -13829,7 +14560,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -13847,7 +14578,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -13865,7 +14596,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -13883,7 +14614,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -13901,7 +14632,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -13919,7 +14650,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -13937,7 +14668,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -13955,7 +14686,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -13973,7 +14704,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -13991,7 +14722,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -14009,7 +14740,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -14027,7 +14758,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -14045,7 +14776,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -14063,7 +14794,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -14081,7 +14812,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -14099,7 +14830,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -14117,7 +14848,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -14135,7 +14866,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -14153,7 +14884,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -14171,7 +14902,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -14189,7 +14920,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -14207,7 +14938,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -14225,7 +14956,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -14243,7 +14974,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -14261,7 +14992,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -14279,7 +15010,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -14297,7 +15028,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -14315,7 +15046,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -14333,7 +15064,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -14351,7 +15082,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -14369,7 +15100,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -14387,7 +15118,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -14405,7 +15136,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -14423,7 +15154,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -14441,7 +15172,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -14459,7 +15190,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -14477,7 +15208,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -14495,7 +15226,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -14513,7 +15244,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -14531,7 +15262,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -14549,7 +15280,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -14567,7 +15298,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -14585,7 +15316,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -14603,7 +15334,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -14621,7 +15352,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -14639,7 +15370,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -14657,7 +15388,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -14675,7 +15406,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -14693,7 +15424,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -14711,7 +15442,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -14729,7 +15460,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -14747,7 +15478,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -14765,7 +15496,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -14783,7 +15514,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -14801,7 +15532,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -14819,7 +15550,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -14837,7 +15568,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -14855,7 +15586,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -14873,7 +15604,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -14891,7 +15622,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -14909,7 +15640,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -14927,7 +15658,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -14945,7 +15676,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E341">
         <v>8</v>
@@ -14963,8 +15694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14974,16 +15705,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -14998,7 +15729,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15016,7 +15747,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -15034,7 +15765,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -15052,7 +15783,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -15070,7 +15801,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -15088,7 +15819,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -15106,7 +15837,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -15124,7 +15855,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -15142,7 +15873,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -15160,7 +15891,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -15178,7 +15909,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -15196,7 +15927,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -15214,7 +15945,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -15232,7 +15963,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -15250,7 +15981,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -15268,7 +15999,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -15286,7 +16017,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -15304,7 +16035,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -15322,7 +16053,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -15340,7 +16071,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -15358,7 +16089,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -15376,7 +16107,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -15394,7 +16125,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -15412,7 +16143,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -15430,7 +16161,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -15448,7 +16179,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -15466,7 +16197,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -15484,7 +16215,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -15502,7 +16233,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -15520,7 +16251,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -15538,7 +16269,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -15556,7 +16287,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -15574,7 +16305,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -15592,7 +16323,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -15610,7 +16341,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -15628,7 +16359,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -15646,7 +16377,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -15664,7 +16395,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -15682,7 +16413,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -15700,7 +16431,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -15718,7 +16449,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -15736,7 +16467,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -15754,7 +16485,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -15772,7 +16503,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -15790,7 +16521,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -15808,7 +16539,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -15826,7 +16557,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -15844,7 +16575,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -15862,7 +16593,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -15880,7 +16611,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -15898,7 +16629,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -15916,7 +16647,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -15934,7 +16665,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -15952,7 +16683,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -15970,7 +16701,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -15988,7 +16719,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -16006,7 +16737,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -16024,7 +16755,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -16042,7 +16773,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -16060,7 +16791,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -16078,7 +16809,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -16096,7 +16827,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -16114,7 +16845,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -16132,7 +16863,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -16150,7 +16881,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -16168,7 +16899,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -16186,7 +16917,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -16204,7 +16935,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -16222,7 +16953,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -16240,7 +16971,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -16258,7 +16989,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -16276,7 +17007,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -16294,7 +17025,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -16312,7 +17043,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -16330,7 +17061,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -16348,7 +17079,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -16366,7 +17097,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -16384,7 +17115,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -16402,7 +17133,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -16420,7 +17151,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -16438,7 +17169,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -16456,7 +17187,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -16474,7 +17205,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -16492,7 +17223,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -16510,7 +17241,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -16528,7 +17259,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -16546,7 +17277,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -16564,7 +17295,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -16582,7 +17313,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -16600,7 +17331,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -16618,7 +17349,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -16636,7 +17367,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -16654,7 +17385,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -16672,7 +17403,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -16690,7 +17421,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -16708,7 +17439,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -16726,7 +17457,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -16744,7 +17475,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -16762,7 +17493,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -16780,7 +17511,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -16798,7 +17529,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -16816,7 +17547,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -16834,7 +17565,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -16852,7 +17583,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -16870,7 +17601,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -16888,7 +17619,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -16906,7 +17637,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -16924,7 +17655,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -16942,7 +17673,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -16960,7 +17691,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -16978,7 +17709,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -16996,7 +17727,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -17014,7 +17745,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -17032,7 +17763,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -17050,7 +17781,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -17068,7 +17799,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -17086,7 +17817,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -17104,7 +17835,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -17122,7 +17853,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -17140,7 +17871,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -17158,7 +17889,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -17176,7 +17907,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -17194,7 +17925,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -17212,7 +17943,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -17230,7 +17961,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -17248,7 +17979,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -17266,7 +17997,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -17284,7 +18015,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -17302,7 +18033,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -17320,7 +18051,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -17338,7 +18069,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -17356,7 +18087,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -17374,7 +18105,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -17392,7 +18123,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -17410,7 +18141,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -17428,7 +18159,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -17446,7 +18177,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -17464,7 +18195,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -17482,7 +18213,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -17500,7 +18231,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -17518,7 +18249,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -17536,7 +18267,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -17554,7 +18285,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -17572,7 +18303,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -17590,7 +18321,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -17608,7 +18339,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -17626,7 +18357,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -17644,7 +18375,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -17662,7 +18393,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -17680,7 +18411,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -17698,7 +18429,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -17716,7 +18447,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -17734,7 +18465,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -17752,7 +18483,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -17770,7 +18501,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -17788,7 +18519,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -17806,7 +18537,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -17824,7 +18555,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -17842,7 +18573,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -17860,7 +18591,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -17878,7 +18609,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -17896,7 +18627,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -17914,7 +18645,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -17932,7 +18663,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -17950,7 +18681,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -17968,7 +18699,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -17986,7 +18717,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -18004,7 +18735,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -18022,7 +18753,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -18040,7 +18771,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -18058,7 +18789,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -18076,7 +18807,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -18094,7 +18825,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -18112,7 +18843,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -18130,7 +18861,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -18148,7 +18879,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -18166,7 +18897,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -18184,7 +18915,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -18202,7 +18933,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -18220,7 +18951,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -18238,7 +18969,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -18256,7 +18987,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -18274,7 +19005,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -18292,7 +19023,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -18310,7 +19041,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -18328,7 +19059,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -18346,7 +19077,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -18364,7 +19095,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -18382,7 +19113,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -18400,7 +19131,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -18418,7 +19149,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -18436,7 +19167,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -18454,7 +19185,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -18472,7 +19203,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -18490,7 +19221,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -18508,7 +19239,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -18526,7 +19257,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -18544,7 +19275,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -18562,7 +19293,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -18580,7 +19311,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -18598,7 +19329,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -18616,7 +19347,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -18634,7 +19365,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -18652,7 +19383,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -18670,7 +19401,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -18688,7 +19419,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -18706,7 +19437,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -18724,7 +19455,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -18742,7 +19473,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -18760,7 +19491,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -18778,7 +19509,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -18796,7 +19527,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -18814,7 +19545,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -18832,7 +19563,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -18850,7 +19581,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -18868,7 +19599,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -18886,7 +19617,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -18904,7 +19635,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -18922,7 +19653,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -18940,7 +19671,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -18958,7 +19689,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -18976,7 +19707,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -18994,7 +19725,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -19012,7 +19743,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -19030,7 +19761,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -19048,7 +19779,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -19066,7 +19797,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -19084,7 +19815,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -19102,7 +19833,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -19120,7 +19851,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -19138,7 +19869,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -19156,7 +19887,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -19174,7 +19905,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -19192,7 +19923,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -19210,7 +19941,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -19228,7 +19959,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -19246,7 +19977,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -19264,7 +19995,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -19282,7 +20013,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -19300,7 +20031,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -19318,7 +20049,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -19336,7 +20067,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -19354,7 +20085,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -19372,7 +20103,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -19390,7 +20121,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -19408,7 +20139,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -19426,7 +20157,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -19444,7 +20175,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -19462,7 +20193,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -19480,7 +20211,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -19498,7 +20229,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -19516,7 +20247,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -19534,7 +20265,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -19552,7 +20283,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -19570,7 +20301,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -19588,7 +20319,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -19606,7 +20337,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -19624,7 +20355,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -19642,7 +20373,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -19660,7 +20391,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -19678,7 +20409,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -19696,7 +20427,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -19714,7 +20445,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -19732,7 +20463,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -19750,7 +20481,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -19768,7 +20499,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -19786,7 +20517,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -19804,7 +20535,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -19822,7 +20553,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -19840,7 +20571,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -19858,7 +20589,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -19876,7 +20607,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -19894,7 +20625,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -19912,7 +20643,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -19930,7 +20661,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -19948,7 +20679,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -19966,7 +20697,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -19984,7 +20715,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -20002,7 +20733,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -20020,7 +20751,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -20038,7 +20769,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -20056,7 +20787,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -20074,7 +20805,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -20092,7 +20823,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -20110,7 +20841,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -20128,7 +20859,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -20146,7 +20877,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -20164,7 +20895,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -20182,7 +20913,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -20200,7 +20931,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -20218,7 +20949,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -20236,7 +20967,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -20254,7 +20985,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -20272,7 +21003,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -20290,7 +21021,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -20308,7 +21039,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -20326,7 +21057,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -20344,7 +21075,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -20362,7 +21093,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -20380,7 +21111,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -20398,7 +21129,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -20416,7 +21147,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -20434,7 +21165,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -20452,7 +21183,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -20470,7 +21201,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -20488,7 +21219,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -20506,7 +21237,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -20524,7 +21255,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -20542,7 +21273,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -20560,7 +21291,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -20578,7 +21309,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -20596,7 +21327,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -20614,7 +21345,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -20632,7 +21363,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -20650,7 +21381,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -20668,7 +21399,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -20686,7 +21417,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -20704,7 +21435,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -20722,7 +21453,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -20740,7 +21471,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -20758,7 +21489,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -20776,7 +21507,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -20794,7 +21525,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -20812,7 +21543,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -20830,7 +21561,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -20848,7 +21579,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -20866,7 +21597,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -20884,7 +21615,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -20902,7 +21633,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -20920,7 +21651,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -20938,7 +21669,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -20956,7 +21687,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -20974,7 +21705,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -20992,7 +21723,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -21010,7 +21741,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -21028,7 +21759,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -21046,7 +21777,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -21064,7 +21795,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -21082,7 +21813,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -21100,7 +21831,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E341">
         <v>8</v>

--- a/Data/22052017_initialIpam/Processed/Summary.xlsx
+++ b/Data/22052017_initialIpam/Processed/Summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="481">
   <si>
     <t>Picture</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Initial Frag Count</t>
   </si>
   <si>
-    <t>Time 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time 3 </t>
   </si>
   <si>
@@ -1473,6 +1470,9 @@
   </si>
   <si>
     <t>Time 8</t>
+  </si>
+  <si>
+    <t>Time 2 (09/06/17)</t>
   </si>
 </sst>
 </file>
@@ -1529,13 +1529,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7859,10 +7858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7879,58 +7878,58 @@
         <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K1" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" t="s">
+        <v>406</v>
+      </c>
+      <c r="N1" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" t="s">
         <v>477</v>
       </c>
-      <c r="F1" t="s">
-        <v>421</v>
-      </c>
-      <c r="G1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I1" t="s">
-        <v>405</v>
-      </c>
-      <c r="J1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K1" t="s">
-        <v>406</v>
-      </c>
-      <c r="L1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M1" t="s">
-        <v>407</v>
-      </c>
-      <c r="N1" t="s">
-        <v>421</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q1" t="s">
         <v>478</v>
       </c>
-      <c r="P1" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>420</v>
+      </c>
+      <c r="S1" t="s">
         <v>479</v>
       </c>
-      <c r="R1" t="s">
-        <v>421</v>
-      </c>
-      <c r="S1" t="s">
-        <v>480</v>
-      </c>
       <c r="T1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -7941,39 +7940,47 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" t="s">
         <v>424</v>
       </c>
-      <c r="F2" t="s">
-        <v>418</v>
-      </c>
-      <c r="G2" t="s">
-        <v>425</v>
+      <c r="H2" t="s">
+        <v>475</v>
       </c>
       <c r="I2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J2" s="2"/>
-      <c r="K2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M2" t="s">
-        <v>425</v>
-      </c>
-      <c r="O2" t="s">
-        <v>423</v>
+      <c r="K2" t="str">
+        <f>IF(LEFT(I2,2)="T1","T2- TOP RIGHT",IF(LEFT(I2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I2,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(LEFT(K2,2)="T1","T2- TOP RIGHT",IF(LEFT(K2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K2,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(LEFT(M2,2)="T1","T2- TOP RIGHT",IF(LEFT(M2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(M2,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P2" s="2"/>
-      <c r="Q2" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" t="s">
-        <v>425</v>
+      <c r="Q2" t="str">
+        <f>IF(LEFT(O2,2)="T1","T2- TOP RIGHT",IF(LEFT(O2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(O2,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S2" t="str">
+        <f>IF(LEFT(Q2,2)="T1","T2- TOP RIGHT",IF(LEFT(Q2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(Q2,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -7984,39 +7991,47 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E3" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E3" t="s">
-        <v>425</v>
-      </c>
       <c r="F3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I3" t="s">
         <v>423</v>
       </c>
-      <c r="I3" t="s">
-        <v>424</v>
-      </c>
       <c r="J3" s="2"/>
-      <c r="K3" t="s">
-        <v>425</v>
-      </c>
-      <c r="M3" t="s">
-        <v>423</v>
-      </c>
-      <c r="O3" t="s">
-        <v>424</v>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K32" si="0">IF(LEFT(I3,2)="T1","T2- TOP RIGHT",IF(LEFT(I3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I3,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M32" si="1">IF(LEFT(K3,2)="T1","T2- TOP RIGHT",IF(LEFT(K3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K3,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:S32" si="2">IF(LEFT(M3,2)="T1","T2- TOP RIGHT",IF(LEFT(M3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(M3,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P3" s="2"/>
-      <c r="Q3" t="s">
-        <v>425</v>
-      </c>
-      <c r="S3" t="s">
-        <v>423</v>
+      <c r="Q3" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -8027,39 +8042,44 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G4" t="s">
         <v>423</v>
       </c>
-      <c r="F4" t="s">
-        <v>417</v>
-      </c>
-      <c r="G4" t="s">
-        <v>424</v>
-      </c>
       <c r="I4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" t="s">
-        <v>423</v>
-      </c>
-      <c r="M4" t="s">
-        <v>424</v>
-      </c>
-      <c r="O4" t="s">
-        <v>425</v>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P4" s="2"/>
-      <c r="Q4" t="s">
-        <v>423</v>
-      </c>
-      <c r="S4" t="s">
-        <v>424</v>
+      <c r="Q4" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -8070,39 +8090,44 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" t="s">
         <v>423</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" t="s">
         <v>424</v>
       </c>
-      <c r="F5" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" t="s">
-        <v>425</v>
-      </c>
       <c r="I5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" t="s">
-        <v>424</v>
-      </c>
-      <c r="M5" t="s">
-        <v>425</v>
-      </c>
-      <c r="O5" t="s">
-        <v>423</v>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P5" s="2"/>
-      <c r="Q5" t="s">
-        <v>424</v>
-      </c>
-      <c r="S5" t="s">
-        <v>425</v>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -8113,39 +8138,44 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E6" t="s">
         <v>423</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" t="s">
         <v>424</v>
       </c>
-      <c r="F6" t="s">
-        <v>420</v>
-      </c>
-      <c r="G6" t="s">
-        <v>425</v>
-      </c>
       <c r="I6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" t="s">
-        <v>424</v>
-      </c>
-      <c r="M6" t="s">
-        <v>425</v>
-      </c>
-      <c r="O6" t="s">
-        <v>423</v>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" t="s">
-        <v>424</v>
-      </c>
-      <c r="S6" t="s">
-        <v>425</v>
+      <c r="Q6" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -8156,39 +8186,47 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="s">
         <v>423</v>
       </c>
-      <c r="F7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>408</v>
+      </c>
+      <c r="I7" t="s">
         <v>424</v>
       </c>
-      <c r="I7" t="s">
-        <v>425</v>
-      </c>
       <c r="J7" s="2"/>
-      <c r="K7" t="s">
-        <v>423</v>
-      </c>
-      <c r="M7" t="s">
-        <v>424</v>
-      </c>
-      <c r="O7" t="s">
-        <v>425</v>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" t="s">
-        <v>423</v>
-      </c>
-      <c r="S7" t="s">
-        <v>424</v>
+      <c r="Q7" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -8199,39 +8237,47 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" t="s">
         <v>423</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>416</v>
+      </c>
+      <c r="G8" t="s">
         <v>424</v>
       </c>
-      <c r="F8" t="s">
-        <v>417</v>
-      </c>
-      <c r="G8" t="s">
-        <v>425</v>
+      <c r="H8" t="s">
+        <v>412</v>
       </c>
       <c r="I8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" t="s">
-        <v>424</v>
-      </c>
-      <c r="M8" t="s">
-        <v>425</v>
-      </c>
-      <c r="O8" t="s">
-        <v>423</v>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" t="s">
-        <v>424</v>
-      </c>
-      <c r="S8" t="s">
-        <v>425</v>
+      <c r="Q8" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -8242,39 +8288,44 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" t="s">
         <v>424</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" t="s">
-        <v>425</v>
-      </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" t="s">
-        <v>425</v>
-      </c>
-      <c r="M9" t="s">
-        <v>423</v>
-      </c>
-      <c r="O9" t="s">
-        <v>424</v>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" t="s">
-        <v>425</v>
-      </c>
-      <c r="S9" t="s">
-        <v>423</v>
+      <c r="Q9" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -8288,15 +8339,28 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="S10" s="4"/>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -8306,39 +8370,47 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" t="s">
         <v>423</v>
       </c>
-      <c r="F11" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>414</v>
+      </c>
+      <c r="I11" t="s">
         <v>424</v>
       </c>
-      <c r="I11" t="s">
-        <v>425</v>
-      </c>
       <c r="J11" s="2"/>
-      <c r="K11" t="s">
-        <v>423</v>
-      </c>
-      <c r="M11" t="s">
-        <v>424</v>
-      </c>
-      <c r="O11" t="s">
-        <v>425</v>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" t="s">
-        <v>423</v>
-      </c>
-      <c r="S11" t="s">
-        <v>424</v>
+      <c r="Q11" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -8349,39 +8421,47 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G12" t="s">
         <v>423</v>
       </c>
-      <c r="F12" t="s">
-        <v>409</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" t="s">
         <v>424</v>
       </c>
-      <c r="I12" t="s">
-        <v>425</v>
-      </c>
       <c r="J12" s="2"/>
-      <c r="K12" t="s">
-        <v>423</v>
-      </c>
-      <c r="M12" t="s">
-        <v>424</v>
-      </c>
-      <c r="O12" t="s">
-        <v>425</v>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" t="s">
-        <v>423</v>
-      </c>
-      <c r="S12" t="s">
-        <v>424</v>
+      <c r="Q12" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -8392,39 +8472,44 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" t="s">
         <v>423</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" t="s">
         <v>424</v>
       </c>
-      <c r="F13" t="s">
-        <v>416</v>
-      </c>
-      <c r="G13" t="s">
-        <v>425</v>
-      </c>
       <c r="I13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" t="s">
-        <v>424</v>
-      </c>
-      <c r="M13" t="s">
-        <v>425</v>
-      </c>
-      <c r="O13" t="s">
-        <v>423</v>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P13" s="2"/>
-      <c r="Q13" t="s">
-        <v>424</v>
-      </c>
-      <c r="S13" t="s">
-        <v>425</v>
+      <c r="Q13" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -8435,39 +8520,47 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" t="s">
+        <v>412</v>
+      </c>
+      <c r="G14" t="s">
         <v>423</v>
       </c>
-      <c r="F14" t="s">
-        <v>413</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I14" t="s">
         <v>424</v>
       </c>
-      <c r="I14" t="s">
-        <v>425</v>
-      </c>
       <c r="J14" s="2"/>
-      <c r="K14" t="s">
-        <v>423</v>
-      </c>
-      <c r="M14" t="s">
-        <v>424</v>
-      </c>
-      <c r="O14" t="s">
-        <v>425</v>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" t="s">
-        <v>423</v>
-      </c>
-      <c r="S14" t="s">
-        <v>424</v>
+      <c r="Q14" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -8478,39 +8571,47 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E15" t="s">
         <v>424</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" t="s">
-        <v>425</v>
-      </c>
       <c r="F15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G15" t="s">
+        <v>422</v>
+      </c>
+      <c r="H15" t="s">
+        <v>408</v>
+      </c>
+      <c r="I15" t="s">
         <v>423</v>
       </c>
-      <c r="I15" t="s">
-        <v>424</v>
-      </c>
       <c r="J15" s="2"/>
-      <c r="K15" t="s">
-        <v>425</v>
-      </c>
-      <c r="M15" t="s">
-        <v>423</v>
-      </c>
-      <c r="O15" t="s">
-        <v>424</v>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" t="s">
-        <v>425</v>
-      </c>
-      <c r="S15" t="s">
-        <v>423</v>
+      <c r="Q15" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -8521,39 +8622,44 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" t="s">
         <v>424</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E16" t="s">
-        <v>425</v>
-      </c>
       <c r="F16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" t="s">
-        <v>425</v>
-      </c>
-      <c r="M16" t="s">
-        <v>423</v>
-      </c>
-      <c r="O16" t="s">
-        <v>424</v>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" t="s">
-        <v>425</v>
-      </c>
-      <c r="S16" t="s">
-        <v>423</v>
+      <c r="Q16" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -8564,39 +8670,47 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" t="s">
         <v>424</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" t="s">
         <v>411</v>
       </c>
-      <c r="E17" t="s">
-        <v>425</v>
-      </c>
-      <c r="F17" t="s">
-        <v>412</v>
-      </c>
       <c r="G17" t="s">
+        <v>422</v>
+      </c>
+      <c r="H17" t="s">
+        <v>418</v>
+      </c>
+      <c r="I17" t="s">
         <v>423</v>
       </c>
-      <c r="I17" t="s">
-        <v>424</v>
-      </c>
       <c r="J17" s="2"/>
-      <c r="K17" t="s">
-        <v>425</v>
-      </c>
-      <c r="M17" t="s">
-        <v>423</v>
-      </c>
-      <c r="O17" t="s">
-        <v>424</v>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P17" s="2"/>
-      <c r="Q17" t="s">
-        <v>425</v>
-      </c>
-      <c r="S17" t="s">
-        <v>423</v>
+      <c r="Q17" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -8607,39 +8721,47 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>423</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E18" t="s">
         <v>424</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E18" t="s">
-        <v>425</v>
-      </c>
       <c r="F18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G18" t="s">
+        <v>422</v>
+      </c>
+      <c r="H18" t="s">
+        <v>418</v>
+      </c>
+      <c r="I18" t="s">
         <v>423</v>
       </c>
-      <c r="I18" t="s">
-        <v>424</v>
-      </c>
       <c r="J18" s="2"/>
-      <c r="K18" t="s">
-        <v>425</v>
-      </c>
-      <c r="M18" t="s">
-        <v>423</v>
-      </c>
-      <c r="O18" t="s">
-        <v>424</v>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P18" s="2"/>
-      <c r="Q18" t="s">
-        <v>425</v>
-      </c>
-      <c r="S18" t="s">
-        <v>423</v>
+      <c r="Q18" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -8650,39 +8772,44 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" t="s">
         <v>424</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E19" t="s">
-        <v>425</v>
-      </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I19" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" t="s">
-        <v>423</v>
-      </c>
-      <c r="O19" t="s">
-        <v>424</v>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P19" s="2"/>
-      <c r="Q19" t="s">
-        <v>425</v>
-      </c>
-      <c r="S19" t="s">
-        <v>423</v>
+      <c r="Q19" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -8693,39 +8820,44 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E20" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" t="s">
         <v>423</v>
       </c>
-      <c r="F20" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" t="s">
-        <v>424</v>
-      </c>
       <c r="I20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" t="s">
-        <v>423</v>
-      </c>
-      <c r="M20" t="s">
-        <v>424</v>
-      </c>
-      <c r="O20" t="s">
-        <v>425</v>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P20" s="2"/>
-      <c r="Q20" t="s">
-        <v>423</v>
-      </c>
-      <c r="S20" t="s">
-        <v>424</v>
+      <c r="Q20" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -8736,39 +8868,47 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" t="s">
         <v>423</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" t="s">
         <v>424</v>
       </c>
-      <c r="F21" t="s">
-        <v>410</v>
-      </c>
-      <c r="G21" t="s">
-        <v>425</v>
+      <c r="H21" t="s">
+        <v>475</v>
       </c>
       <c r="I21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" t="s">
-        <v>424</v>
-      </c>
-      <c r="M21" t="s">
-        <v>425</v>
-      </c>
-      <c r="O21" t="s">
-        <v>423</v>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P21" s="2"/>
-      <c r="Q21" t="s">
-        <v>424</v>
-      </c>
-      <c r="S21" t="s">
-        <v>425</v>
+      <c r="Q21" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -8779,39 +8919,47 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E22" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E22" t="s">
-        <v>425</v>
-      </c>
       <c r="F22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" t="s">
+        <v>422</v>
+      </c>
+      <c r="H22" t="s">
+        <v>407</v>
+      </c>
+      <c r="I22" t="s">
         <v>423</v>
       </c>
-      <c r="I22" t="s">
-        <v>424</v>
-      </c>
       <c r="J22" s="2"/>
-      <c r="K22" t="s">
-        <v>425</v>
-      </c>
-      <c r="M22" t="s">
-        <v>423</v>
-      </c>
-      <c r="O22" t="s">
-        <v>424</v>
+      <c r="K22" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P22" s="2"/>
-      <c r="Q22" t="s">
-        <v>425</v>
-      </c>
-      <c r="S22" t="s">
-        <v>423</v>
+      <c r="Q22" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -8822,39 +8970,47 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" t="s">
         <v>423</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>414</v>
+      </c>
+      <c r="G23" t="s">
         <v>424</v>
       </c>
-      <c r="F23" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" t="s">
-        <v>425</v>
+      <c r="H23" t="s">
+        <v>417</v>
       </c>
       <c r="I23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" t="s">
-        <v>424</v>
-      </c>
-      <c r="M23" t="s">
-        <v>425</v>
-      </c>
-      <c r="O23" t="s">
-        <v>423</v>
+      <c r="K23" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" t="s">
-        <v>424</v>
-      </c>
-      <c r="S23" t="s">
-        <v>425</v>
+      <c r="Q23" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -8865,39 +9021,47 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" t="s">
         <v>423</v>
       </c>
-      <c r="F24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>409</v>
+      </c>
+      <c r="I24" t="s">
         <v>424</v>
       </c>
-      <c r="I24" t="s">
-        <v>425</v>
-      </c>
       <c r="J24" s="2"/>
-      <c r="K24" t="s">
-        <v>423</v>
-      </c>
-      <c r="M24" t="s">
-        <v>424</v>
-      </c>
-      <c r="O24" t="s">
-        <v>425</v>
+      <c r="K24" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" t="s">
-        <v>423</v>
-      </c>
-      <c r="S24" t="s">
-        <v>424</v>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -8908,39 +9072,44 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E25" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" t="s">
+        <v>409</v>
+      </c>
+      <c r="G25" t="s">
         <v>423</v>
       </c>
-      <c r="F25" t="s">
-        <v>410</v>
-      </c>
-      <c r="G25" t="s">
-        <v>424</v>
-      </c>
       <c r="I25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" t="s">
-        <v>423</v>
-      </c>
-      <c r="M25" t="s">
-        <v>424</v>
-      </c>
-      <c r="O25" t="s">
-        <v>425</v>
+      <c r="K25" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" t="s">
-        <v>423</v>
-      </c>
-      <c r="S25" t="s">
-        <v>424</v>
+      <c r="Q25" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -8951,39 +9120,44 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E26" t="s">
         <v>424</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E26" t="s">
-        <v>425</v>
-      </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I26" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" t="s">
-        <v>425</v>
-      </c>
-      <c r="M26" t="s">
-        <v>423</v>
-      </c>
-      <c r="O26" t="s">
-        <v>424</v>
+      <c r="K26" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" t="s">
-        <v>425</v>
-      </c>
-      <c r="S26" t="s">
-        <v>423</v>
+      <c r="Q26" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -8994,39 +9168,44 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E27" t="s">
         <v>423</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" t="s">
         <v>424</v>
       </c>
-      <c r="F27" t="s">
-        <v>475</v>
-      </c>
-      <c r="G27" t="s">
-        <v>425</v>
-      </c>
       <c r="I27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" t="s">
-        <v>424</v>
-      </c>
-      <c r="M27" t="s">
-        <v>425</v>
-      </c>
-      <c r="O27" t="s">
-        <v>423</v>
+      <c r="K27" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" t="s">
-        <v>424</v>
-      </c>
-      <c r="S27" t="s">
-        <v>425</v>
+      <c r="Q27" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -9037,39 +9216,47 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" t="s">
         <v>424</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E28" t="s">
-        <v>425</v>
-      </c>
       <c r="F28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G28" t="s">
+        <v>422</v>
+      </c>
+      <c r="H28" t="s">
+        <v>417</v>
+      </c>
+      <c r="I28" t="s">
         <v>423</v>
       </c>
-      <c r="I28" t="s">
-        <v>424</v>
-      </c>
       <c r="J28" s="2"/>
-      <c r="K28" t="s">
-        <v>425</v>
-      </c>
-      <c r="M28" t="s">
-        <v>423</v>
-      </c>
-      <c r="O28" t="s">
-        <v>424</v>
+      <c r="K28" t="str">
+        <f t="shared" si="0"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" t="s">
-        <v>425</v>
-      </c>
-      <c r="S28" t="s">
-        <v>423</v>
+      <c r="Q28" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -9080,40 +9267,44 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>422</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E29" t="s">
         <v>423</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>416</v>
+      </c>
+      <c r="G29" t="s">
         <v>424</v>
       </c>
-      <c r="F29" t="s">
-        <v>417</v>
-      </c>
-      <c r="G29" t="s">
-        <v>425</v>
-      </c>
-      <c r="H29" s="5"/>
       <c r="I29" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" t="s">
-        <v>424</v>
-      </c>
-      <c r="M29" t="s">
-        <v>425</v>
-      </c>
-      <c r="O29" t="s">
-        <v>423</v>
+      <c r="K29" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" t="s">
-        <v>424</v>
-      </c>
-      <c r="S29" t="s">
-        <v>425</v>
+      <c r="Q29" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -9124,39 +9315,47 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E30" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>415</v>
+      </c>
+      <c r="G30" t="s">
+        <v>424</v>
+      </c>
+      <c r="H30" t="s">
         <v>414</v>
       </c>
-      <c r="E30" t="s">
-        <v>424</v>
-      </c>
-      <c r="F30" t="s">
-        <v>416</v>
-      </c>
-      <c r="G30" t="s">
-        <v>425</v>
-      </c>
       <c r="I30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" t="s">
-        <v>424</v>
-      </c>
-      <c r="M30" t="s">
-        <v>425</v>
-      </c>
-      <c r="O30" t="s">
-        <v>423</v>
+      <c r="K30" t="str">
+        <f t="shared" si="0"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>T3- BOTTOM RIGHT</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" t="s">
-        <v>424</v>
-      </c>
-      <c r="S30" t="s">
-        <v>425</v>
+      <c r="Q30" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -9167,39 +9366,47 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E31" t="s">
+        <v>422</v>
+      </c>
+      <c r="F31" t="s">
+        <v>417</v>
+      </c>
+      <c r="G31" t="s">
         <v>423</v>
       </c>
-      <c r="F31" t="s">
-        <v>418</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>410</v>
+      </c>
+      <c r="I31" t="s">
         <v>424</v>
       </c>
-      <c r="I31" t="s">
-        <v>425</v>
-      </c>
       <c r="J31" s="2"/>
-      <c r="K31" t="s">
-        <v>423</v>
-      </c>
-      <c r="M31" t="s">
-        <v>424</v>
-      </c>
-      <c r="O31" t="s">
-        <v>425</v>
+      <c r="K31" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" t="s">
-        <v>423</v>
-      </c>
-      <c r="S31" t="s">
-        <v>424</v>
+      <c r="Q31" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -9210,39 +9417,53 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E32" t="s">
+        <v>422</v>
+      </c>
+      <c r="F32" t="s">
+        <v>409</v>
+      </c>
+      <c r="G32" t="s">
         <v>423</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>410</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>424</v>
       </c>
-      <c r="I32" t="s">
-        <v>425</v>
-      </c>
       <c r="J32" s="2"/>
-      <c r="K32" t="s">
-        <v>423</v>
-      </c>
-      <c r="M32" t="s">
-        <v>424</v>
-      </c>
-      <c r="O32" t="s">
-        <v>425</v>
+      <c r="K32" t="str">
+        <f t="shared" si="0"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="2"/>
+        <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" t="s">
-        <v>423</v>
-      </c>
-      <c r="S32" t="s">
-        <v>424</v>
+      <c r="Q32" t="str">
+        <f t="shared" si="2"/>
+        <v>T1- TOP LEFT</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="2"/>
+        <v>T2- TOP RIGHT</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <f>IF(LEFT(I36,2)="T1","T2- TOP RIGHT",IF(LEFT(I36,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I36,2)="T3","T1- TOP LEFT",)))</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9268,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -9298,7 +9519,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9322,7 +9543,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9346,7 +9567,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -9370,7 +9591,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -9394,7 +9615,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -9418,7 +9639,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -9442,7 +9663,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -9466,7 +9687,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -9490,7 +9711,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9514,7 +9735,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9538,7 +9759,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -9562,7 +9783,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -9586,7 +9807,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -9610,7 +9831,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -9634,7 +9855,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -9658,7 +9879,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -9682,7 +9903,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9706,7 +9927,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -9730,7 +9951,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -9754,7 +9975,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -9778,7 +9999,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -9802,7 +10023,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -9826,7 +10047,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -9850,7 +10071,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -9874,7 +10095,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -9898,7 +10119,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -9922,7 +10143,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -9946,7 +10167,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -9970,7 +10191,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -9994,7 +10215,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -10018,7 +10239,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10042,7 +10263,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -10066,7 +10287,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -10090,7 +10311,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -10114,7 +10335,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -10138,7 +10359,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10162,7 +10383,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -10186,7 +10407,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -10210,7 +10431,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -10234,7 +10455,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -10258,7 +10479,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -10282,7 +10503,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -10306,7 +10527,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -10330,7 +10551,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -10354,7 +10575,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -10378,7 +10599,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -10402,7 +10623,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -10420,7 +10641,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -10438,7 +10659,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -10456,7 +10677,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -10474,7 +10695,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -10492,7 +10713,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -10510,7 +10731,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -10528,7 +10749,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -10546,7 +10767,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -10564,7 +10785,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -10582,7 +10803,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -10600,7 +10821,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -10618,7 +10839,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -10636,7 +10857,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -10654,7 +10875,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -10672,7 +10893,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -10690,7 +10911,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -10708,7 +10929,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -10726,7 +10947,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -10744,7 +10965,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -10762,7 +10983,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -10780,7 +11001,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -10798,7 +11019,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -10816,7 +11037,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -10834,7 +11055,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -10852,7 +11073,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -10870,7 +11091,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -10888,7 +11109,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -10906,7 +11127,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -10924,7 +11145,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -10942,7 +11163,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -10960,7 +11181,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -10978,7 +11199,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -10996,7 +11217,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -11014,7 +11235,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -11032,7 +11253,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -11050,7 +11271,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -11068,7 +11289,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -11086,7 +11307,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -11104,7 +11325,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -11122,7 +11343,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -11140,7 +11361,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -11158,7 +11379,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -11176,7 +11397,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -11194,7 +11415,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -11212,7 +11433,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -11230,7 +11451,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -11248,7 +11469,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11266,7 +11487,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -11284,7 +11505,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -11302,7 +11523,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -11320,7 +11541,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -11338,7 +11559,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -11356,7 +11577,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -11374,7 +11595,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -11392,7 +11613,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -11410,7 +11631,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -11428,7 +11649,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -11446,7 +11667,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -11464,7 +11685,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -11482,7 +11703,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -11500,7 +11721,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -11518,7 +11739,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -11536,7 +11757,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -11554,7 +11775,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -11572,7 +11793,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -11590,7 +11811,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -11608,7 +11829,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -11626,7 +11847,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -11644,7 +11865,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -11662,7 +11883,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -11680,7 +11901,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -11698,7 +11919,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -11716,7 +11937,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -11734,7 +11955,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -11752,7 +11973,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -11770,7 +11991,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -11788,7 +12009,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -11806,7 +12027,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -11824,7 +12045,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -11842,7 +12063,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -11860,7 +12081,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -11878,7 +12099,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -11896,7 +12117,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -11914,7 +12135,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -11932,7 +12153,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -11950,7 +12171,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -11968,7 +12189,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -11986,7 +12207,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -12004,7 +12225,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -12022,7 +12243,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -12040,7 +12261,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -12058,7 +12279,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -12076,7 +12297,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -12094,7 +12315,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -12112,7 +12333,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -12130,7 +12351,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -12148,7 +12369,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -12166,7 +12387,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -12184,7 +12405,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -12202,7 +12423,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -12220,7 +12441,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -12238,7 +12459,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -12256,7 +12477,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -12274,7 +12495,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -12292,7 +12513,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -12310,7 +12531,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -12328,7 +12549,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -12346,7 +12567,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -12364,7 +12585,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -12382,7 +12603,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -12400,7 +12621,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -12418,7 +12639,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -12436,7 +12657,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -12454,7 +12675,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -12472,7 +12693,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -12490,7 +12711,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -12508,7 +12729,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -12526,7 +12747,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -12544,7 +12765,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -12562,7 +12783,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -12580,7 +12801,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -12598,7 +12819,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -12616,7 +12837,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -12634,7 +12855,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -12652,7 +12873,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -12670,7 +12891,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -12688,7 +12909,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -12706,7 +12927,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -12724,7 +12945,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -12742,7 +12963,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -12760,7 +12981,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -12778,7 +12999,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -12796,7 +13017,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -12814,7 +13035,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -12832,7 +13053,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -12850,7 +13071,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -12868,7 +13089,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -12886,7 +13107,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -12904,7 +13125,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -12922,7 +13143,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -12940,7 +13161,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -12958,7 +13179,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -12976,7 +13197,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -12994,7 +13215,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -13012,7 +13233,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -13030,7 +13251,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -13048,7 +13269,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -13066,7 +13287,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -13084,7 +13305,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -13102,7 +13323,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -13120,7 +13341,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -13138,7 +13359,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -13156,7 +13377,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -13174,7 +13395,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -13192,7 +13413,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -13210,7 +13431,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -13228,7 +13449,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -13246,7 +13467,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -13264,7 +13485,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -13282,7 +13503,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -13300,7 +13521,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -13318,7 +13539,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -13336,7 +13557,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -13354,7 +13575,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -13372,7 +13593,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -13390,7 +13611,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -13408,7 +13629,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -13426,7 +13647,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -13444,7 +13665,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -13462,7 +13683,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -13480,7 +13701,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -13498,7 +13719,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -13516,7 +13737,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -13534,7 +13755,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -13552,7 +13773,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -13570,7 +13791,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -13588,7 +13809,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -13606,7 +13827,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -13624,7 +13845,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -13642,7 +13863,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -13660,7 +13881,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -13678,7 +13899,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -13696,7 +13917,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -13714,7 +13935,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -13732,7 +13953,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -13750,7 +13971,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -13768,7 +13989,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -13786,7 +14007,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -13804,7 +14025,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -13822,7 +14043,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -13840,7 +14061,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -13858,7 +14079,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -13876,7 +14097,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -13894,7 +14115,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -13912,7 +14133,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -13930,7 +14151,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -13948,7 +14169,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -13966,7 +14187,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -13984,7 +14205,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -14002,7 +14223,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -14020,7 +14241,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -14038,7 +14259,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -14056,7 +14277,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -14074,7 +14295,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -14092,7 +14313,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -14110,7 +14331,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -14128,7 +14349,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -14146,7 +14367,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -14164,7 +14385,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -14182,7 +14403,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -14200,7 +14421,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -14218,7 +14439,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -14236,7 +14457,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -14254,7 +14475,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -14272,7 +14493,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -14290,7 +14511,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -14308,7 +14529,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -14326,7 +14547,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -14344,7 +14565,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -14362,7 +14583,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -14380,7 +14601,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -14398,7 +14619,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -14416,7 +14637,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -14434,7 +14655,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -14452,7 +14673,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -14470,7 +14691,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -14488,7 +14709,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -14506,7 +14727,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -14524,7 +14745,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -14542,7 +14763,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -14560,7 +14781,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -14578,7 +14799,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -14596,7 +14817,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -14614,7 +14835,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -14632,7 +14853,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -14650,7 +14871,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -14668,7 +14889,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -14686,7 +14907,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -14704,7 +14925,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -14722,7 +14943,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -14740,7 +14961,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -14758,7 +14979,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -14776,7 +14997,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -14794,7 +15015,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -14812,7 +15033,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -14830,7 +15051,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -14848,7 +15069,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -14866,7 +15087,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -14884,7 +15105,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -14902,7 +15123,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -14920,7 +15141,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -14938,7 +15159,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -14956,7 +15177,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -14974,7 +15195,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -14992,7 +15213,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -15010,7 +15231,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -15028,7 +15249,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -15046,7 +15267,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -15064,7 +15285,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -15082,7 +15303,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -15100,7 +15321,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -15118,7 +15339,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -15136,7 +15357,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -15154,7 +15375,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -15172,7 +15393,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -15190,7 +15411,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -15208,7 +15429,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -15226,7 +15447,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -15244,7 +15465,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -15262,7 +15483,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -15280,7 +15501,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -15298,7 +15519,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -15316,7 +15537,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -15334,7 +15555,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -15352,7 +15573,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -15370,7 +15591,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -15388,7 +15609,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -15406,7 +15627,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -15424,7 +15645,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -15442,7 +15663,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -15460,7 +15681,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -15478,7 +15699,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -15496,7 +15717,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -15514,7 +15735,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -15532,7 +15753,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -15550,7 +15771,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -15568,7 +15789,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -15586,7 +15807,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -15604,7 +15825,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -15622,7 +15843,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -15640,7 +15861,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -15658,7 +15879,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -15676,7 +15897,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E341">
         <v>8</v>
@@ -15705,16 +15926,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -15729,7 +15950,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15747,7 +15968,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -15765,7 +15986,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -15783,7 +16004,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -15801,7 +16022,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -15819,7 +16040,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -15837,7 +16058,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -15855,7 +16076,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -15873,7 +16094,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -15891,7 +16112,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -15909,7 +16130,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -15927,7 +16148,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -15945,7 +16166,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -15963,7 +16184,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -15981,7 +16202,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -15999,7 +16220,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -16017,7 +16238,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -16035,7 +16256,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -16053,7 +16274,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -16071,7 +16292,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -16089,7 +16310,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -16107,7 +16328,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -16125,7 +16346,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -16143,7 +16364,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -16161,7 +16382,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -16179,7 +16400,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -16197,7 +16418,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -16215,7 +16436,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -16233,7 +16454,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -16251,7 +16472,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -16269,7 +16490,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -16287,7 +16508,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -16305,7 +16526,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -16323,7 +16544,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -16341,7 +16562,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -16359,7 +16580,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -16377,7 +16598,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -16395,7 +16616,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -16413,7 +16634,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -16431,7 +16652,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -16449,7 +16670,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -16467,7 +16688,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -16485,7 +16706,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -16503,7 +16724,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -16521,7 +16742,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -16539,7 +16760,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -16557,7 +16778,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -16575,7 +16796,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -16593,7 +16814,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -16611,7 +16832,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -16629,7 +16850,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -16647,7 +16868,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -16665,7 +16886,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -16683,7 +16904,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -16701,7 +16922,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -16719,7 +16940,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -16737,7 +16958,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -16755,7 +16976,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -16773,7 +16994,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -16791,7 +17012,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -16809,7 +17030,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -16827,7 +17048,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -16845,7 +17066,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -16863,7 +17084,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -16881,7 +17102,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -16899,7 +17120,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -16917,7 +17138,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -16935,7 +17156,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -16953,7 +17174,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -16971,7 +17192,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -16989,7 +17210,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -17007,7 +17228,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -17025,7 +17246,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -17043,7 +17264,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -17061,7 +17282,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -17079,7 +17300,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -17097,7 +17318,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -17115,7 +17336,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -17133,7 +17354,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -17151,7 +17372,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -17169,7 +17390,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -17187,7 +17408,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -17205,7 +17426,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -17223,7 +17444,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -17241,7 +17462,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -17259,7 +17480,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -17277,7 +17498,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -17295,7 +17516,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -17313,7 +17534,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -17331,7 +17552,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -17349,7 +17570,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -17367,7 +17588,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -17385,7 +17606,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -17403,7 +17624,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -17421,7 +17642,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -17439,7 +17660,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -17457,7 +17678,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -17475,7 +17696,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -17493,7 +17714,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -17511,7 +17732,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -17529,7 +17750,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -17547,7 +17768,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -17565,7 +17786,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -17583,7 +17804,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -17601,7 +17822,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -17619,7 +17840,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -17637,7 +17858,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -17655,7 +17876,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -17673,7 +17894,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -17691,7 +17912,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -17709,7 +17930,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -17727,7 +17948,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -17745,7 +17966,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -17763,7 +17984,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -17781,7 +18002,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -17799,7 +18020,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -17817,7 +18038,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -17835,7 +18056,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -17853,7 +18074,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -17871,7 +18092,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -17889,7 +18110,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -17907,7 +18128,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -17925,7 +18146,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -17943,7 +18164,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -17961,7 +18182,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -17979,7 +18200,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -17997,7 +18218,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -18015,7 +18236,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -18033,7 +18254,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -18051,7 +18272,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -18069,7 +18290,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -18087,7 +18308,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -18105,7 +18326,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -18123,7 +18344,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -18141,7 +18362,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -18159,7 +18380,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -18177,7 +18398,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -18195,7 +18416,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -18213,7 +18434,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -18231,7 +18452,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -18249,7 +18470,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -18267,7 +18488,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -18285,7 +18506,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -18303,7 +18524,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -18321,7 +18542,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -18339,7 +18560,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -18357,7 +18578,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -18375,7 +18596,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -18393,7 +18614,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -18411,7 +18632,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -18429,7 +18650,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -18447,7 +18668,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -18465,7 +18686,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -18483,7 +18704,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -18501,7 +18722,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -18519,7 +18740,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -18537,7 +18758,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -18555,7 +18776,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -18573,7 +18794,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -18591,7 +18812,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -18609,7 +18830,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -18627,7 +18848,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -18645,7 +18866,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -18663,7 +18884,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -18681,7 +18902,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -18699,7 +18920,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -18717,7 +18938,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -18735,7 +18956,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -18753,7 +18974,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -18771,7 +18992,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -18789,7 +19010,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -18807,7 +19028,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -18825,7 +19046,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -18843,7 +19064,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -18861,7 +19082,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -18879,7 +19100,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -18897,7 +19118,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -18915,7 +19136,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -18933,7 +19154,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -18951,7 +19172,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -18969,7 +19190,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -18987,7 +19208,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -19005,7 +19226,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -19023,7 +19244,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -19041,7 +19262,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -19059,7 +19280,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -19077,7 +19298,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -19095,7 +19316,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -19113,7 +19334,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -19131,7 +19352,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -19149,7 +19370,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -19167,7 +19388,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -19185,7 +19406,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -19203,7 +19424,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -19221,7 +19442,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -19239,7 +19460,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -19257,7 +19478,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -19275,7 +19496,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -19293,7 +19514,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -19311,7 +19532,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -19329,7 +19550,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -19347,7 +19568,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -19365,7 +19586,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -19383,7 +19604,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -19401,7 +19622,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -19419,7 +19640,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -19437,7 +19658,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -19455,7 +19676,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -19473,7 +19694,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -19491,7 +19712,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -19509,7 +19730,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -19527,7 +19748,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -19545,7 +19766,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -19563,7 +19784,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -19581,7 +19802,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -19599,7 +19820,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -19617,7 +19838,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -19635,7 +19856,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -19653,7 +19874,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -19671,7 +19892,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -19689,7 +19910,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -19707,7 +19928,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -19725,7 +19946,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -19743,7 +19964,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -19761,7 +19982,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -19779,7 +20000,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -19797,7 +20018,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -19815,7 +20036,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -19833,7 +20054,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -19851,7 +20072,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -19869,7 +20090,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -19887,7 +20108,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -19905,7 +20126,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -19923,7 +20144,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -19941,7 +20162,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -19959,7 +20180,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -19977,7 +20198,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -19995,7 +20216,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -20013,7 +20234,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -20031,7 +20252,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -20049,7 +20270,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -20067,7 +20288,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -20085,7 +20306,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -20103,7 +20324,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -20121,7 +20342,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -20139,7 +20360,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -20157,7 +20378,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -20175,7 +20396,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -20193,7 +20414,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -20211,7 +20432,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -20229,7 +20450,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -20247,7 +20468,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -20265,7 +20486,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -20283,7 +20504,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -20301,7 +20522,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -20319,7 +20540,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -20337,7 +20558,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -20355,7 +20576,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -20373,7 +20594,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -20391,7 +20612,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -20409,7 +20630,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -20427,7 +20648,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -20445,7 +20666,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -20463,7 +20684,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -20481,7 +20702,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -20499,7 +20720,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -20517,7 +20738,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -20535,7 +20756,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -20553,7 +20774,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -20571,7 +20792,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -20589,7 +20810,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -20607,7 +20828,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -20625,7 +20846,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -20643,7 +20864,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -20661,7 +20882,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -20679,7 +20900,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -20697,7 +20918,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -20715,7 +20936,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -20733,7 +20954,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -20751,7 +20972,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -20769,7 +20990,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -20787,7 +21008,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -20805,7 +21026,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -20823,7 +21044,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -20841,7 +21062,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -20859,7 +21080,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -20877,7 +21098,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -20895,7 +21116,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -20913,7 +21134,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -20931,7 +21152,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -20949,7 +21170,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -20967,7 +21188,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -20985,7 +21206,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -21003,7 +21224,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -21021,7 +21242,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -21039,7 +21260,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -21057,7 +21278,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -21075,7 +21296,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -21093,7 +21314,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -21111,7 +21332,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -21129,7 +21350,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -21147,7 +21368,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -21165,7 +21386,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -21183,7 +21404,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -21201,7 +21422,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -21219,7 +21440,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -21237,7 +21458,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -21255,7 +21476,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -21273,7 +21494,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -21291,7 +21512,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -21309,7 +21530,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -21327,7 +21548,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -21345,7 +21566,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -21363,7 +21584,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -21381,7 +21602,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -21399,7 +21620,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -21417,7 +21638,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -21435,7 +21656,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -21453,7 +21674,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -21471,7 +21692,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -21489,7 +21710,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -21507,7 +21728,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -21525,7 +21746,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -21543,7 +21764,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -21561,7 +21782,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -21579,7 +21800,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -21597,7 +21818,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -21615,7 +21836,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -21633,7 +21854,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -21651,7 +21872,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -21669,7 +21890,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -21687,7 +21908,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -21705,7 +21926,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -21723,7 +21944,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -21741,7 +21962,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -21759,7 +21980,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -21777,7 +21998,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -21795,7 +22016,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -21813,7 +22034,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -21831,7 +22052,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E341">
         <v>8</v>

--- a/Data/22052017_initialIpam/Processed/Summary.xlsx
+++ b/Data/22052017_initialIpam/Processed/Summary.xlsx
@@ -7861,7 +7861,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/22052017_initialIpam/Processed/Summary.xlsx
+++ b/Data/22052017_initialIpam/Processed/Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="17900" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="484">
   <si>
     <t>Picture</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Initial Frag Count</t>
   </si>
   <si>
-    <t xml:space="preserve">Time 3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Time 4 </t>
   </si>
   <si>
@@ -1473,6 +1470,18 @@
   </si>
   <si>
     <t>Time 2 (09/06/17)</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>1744J</t>
+  </si>
+  <si>
+    <t>Time 3  16/06/2017</t>
+  </si>
+  <si>
+    <t>Unaccounted for</t>
   </si>
 </sst>
 </file>
@@ -7861,7 +7870,10 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7878,58 +7890,58 @@
         <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K1" t="s">
+        <v>404</v>
+      </c>
+      <c r="L1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M1" t="s">
+        <v>405</v>
+      </c>
+      <c r="N1" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1" t="s">
         <v>476</v>
       </c>
-      <c r="F1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K1" t="s">
-        <v>405</v>
-      </c>
-      <c r="L1" t="s">
-        <v>420</v>
-      </c>
-      <c r="M1" t="s">
-        <v>406</v>
-      </c>
-      <c r="N1" t="s">
-        <v>420</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q1" t="s">
         <v>477</v>
       </c>
-      <c r="P1" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>419</v>
+      </c>
+      <c r="S1" t="s">
         <v>478</v>
       </c>
-      <c r="R1" t="s">
-        <v>420</v>
-      </c>
-      <c r="S1" t="s">
-        <v>479</v>
-      </c>
       <c r="T1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -7940,27 +7952,29 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" t="s">
         <v>422</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" t="s">
         <v>423</v>
       </c>
-      <c r="F2" t="s">
-        <v>417</v>
-      </c>
-      <c r="G2" t="s">
-        <v>424</v>
-      </c>
       <c r="H2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I2" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="J2" t="s">
+        <v>413</v>
+      </c>
       <c r="K2" t="str">
         <f>IF(LEFT(I2,2)="T1","T2- TOP RIGHT",IF(LEFT(I2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
@@ -7991,27 +8005,26 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E3" t="s">
         <v>423</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E3" t="s">
-        <v>424</v>
-      </c>
       <c r="F3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" t="s">
         <v>422</v>
       </c>
-      <c r="H3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I3" t="s">
-        <v>423</v>
-      </c>
-      <c r="J3" s="2"/>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K32" si="0">IF(LEFT(I3,2)="T1","T2- TOP RIGHT",IF(LEFT(I3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
@@ -8042,24 +8055,23 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" t="s">
         <v>422</v>
       </c>
-      <c r="F4" t="s">
-        <v>416</v>
-      </c>
-      <c r="G4" t="s">
-        <v>423</v>
-      </c>
       <c r="I4" t="s">
-        <v>423</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>422</v>
+      </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -8090,24 +8102,23 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" t="s">
         <v>423</v>
       </c>
-      <c r="F5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" t="s">
-        <v>424</v>
-      </c>
       <c r="I5" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>423</v>
+      </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8138,24 +8149,23 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E6" t="s">
         <v>422</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G6" t="s">
         <v>423</v>
       </c>
-      <c r="F6" t="s">
-        <v>419</v>
-      </c>
-      <c r="G6" t="s">
-        <v>424</v>
-      </c>
       <c r="I6" t="s">
-        <v>424</v>
-      </c>
-      <c r="J6" s="2"/>
+        <v>423</v>
+      </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8186,27 +8196,26 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G7" t="s">
         <v>422</v>
       </c>
-      <c r="F7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>407</v>
+      </c>
+      <c r="I7" t="s">
         <v>423</v>
       </c>
-      <c r="H7" t="s">
-        <v>408</v>
-      </c>
-      <c r="I7" t="s">
-        <v>424</v>
-      </c>
-      <c r="J7" s="2"/>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8237,27 +8246,29 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G8" t="s">
         <v>423</v>
       </c>
-      <c r="F8" t="s">
-        <v>416</v>
-      </c>
-      <c r="G8" t="s">
-        <v>424</v>
-      </c>
       <c r="H8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I8" t="s">
-        <v>422</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="J8" t="s">
+        <v>413</v>
+      </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -8288,24 +8299,26 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E9" t="s">
         <v>423</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E9" t="s">
-        <v>424</v>
-      </c>
       <c r="F9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I9" t="s">
-        <v>422</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="J9" t="s">
+        <v>406</v>
+      </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -8339,7 +8352,6 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="J10" s="3"/>
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8370,27 +8382,26 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" t="s">
         <v>422</v>
       </c>
-      <c r="F11" t="s">
-        <v>415</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>413</v>
+      </c>
+      <c r="I11" t="s">
         <v>423</v>
       </c>
-      <c r="H11" t="s">
-        <v>414</v>
-      </c>
-      <c r="I11" t="s">
-        <v>424</v>
-      </c>
-      <c r="J11" s="2"/>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8421,27 +8432,26 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F12" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" t="s">
         <v>422</v>
       </c>
-      <c r="F12" t="s">
-        <v>408</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I12" t="s">
         <v>423</v>
       </c>
-      <c r="H12" t="s">
-        <v>411</v>
-      </c>
-      <c r="I12" t="s">
-        <v>424</v>
-      </c>
-      <c r="J12" s="2"/>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8472,24 +8482,23 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E13" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>414</v>
+      </c>
+      <c r="G13" t="s">
         <v>423</v>
       </c>
-      <c r="F13" t="s">
-        <v>415</v>
-      </c>
-      <c r="G13" t="s">
-        <v>424</v>
-      </c>
       <c r="I13" t="s">
-        <v>424</v>
-      </c>
-      <c r="J13" s="2"/>
+        <v>423</v>
+      </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8520,27 +8529,26 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E14" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" t="s">
+        <v>411</v>
+      </c>
+      <c r="G14" t="s">
         <v>422</v>
       </c>
-      <c r="F14" t="s">
-        <v>412</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I14" t="s">
         <v>423</v>
       </c>
-      <c r="H14" t="s">
-        <v>419</v>
-      </c>
-      <c r="I14" t="s">
-        <v>424</v>
-      </c>
-      <c r="J14" s="2"/>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -8571,27 +8579,26 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" t="s">
         <v>423</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E15" t="s">
-        <v>424</v>
-      </c>
       <c r="F15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G15" t="s">
+        <v>421</v>
+      </c>
+      <c r="H15" t="s">
+        <v>407</v>
+      </c>
+      <c r="I15" t="s">
         <v>422</v>
       </c>
-      <c r="H15" t="s">
-        <v>408</v>
-      </c>
-      <c r="I15" t="s">
-        <v>423</v>
-      </c>
-      <c r="J15" s="2"/>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -8622,24 +8629,26 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
         <v>423</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E16" t="s">
-        <v>424</v>
-      </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I16" t="s">
-        <v>422</v>
-      </c>
-      <c r="J16" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="J16" t="s">
+        <v>413</v>
+      </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -8670,27 +8679,26 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17" t="s">
         <v>423</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" t="s">
         <v>410</v>
       </c>
-      <c r="E17" t="s">
-        <v>424</v>
-      </c>
-      <c r="F17" t="s">
-        <v>411</v>
-      </c>
       <c r="G17" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" t="s">
         <v>422</v>
       </c>
-      <c r="H17" t="s">
-        <v>418</v>
-      </c>
-      <c r="I17" t="s">
-        <v>423</v>
-      </c>
-      <c r="J17" s="2"/>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -8721,27 +8729,26 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" t="s">
         <v>423</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E18" t="s">
-        <v>424</v>
-      </c>
       <c r="F18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G18" t="s">
+        <v>421</v>
+      </c>
+      <c r="H18" t="s">
+        <v>417</v>
+      </c>
+      <c r="I18" t="s">
         <v>422</v>
       </c>
-      <c r="H18" t="s">
-        <v>418</v>
-      </c>
-      <c r="I18" t="s">
-        <v>423</v>
-      </c>
-      <c r="J18" s="2"/>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -8772,24 +8779,26 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E19" t="s">
         <v>423</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E19" t="s">
-        <v>424</v>
-      </c>
       <c r="F19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I19" t="s">
-        <v>422</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="J19" t="s">
+        <v>408</v>
+      </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -8820,24 +8829,23 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
+        <v>421</v>
+      </c>
+      <c r="F20" t="s">
+        <v>417</v>
+      </c>
+      <c r="G20" t="s">
         <v>422</v>
       </c>
-      <c r="F20" t="s">
-        <v>418</v>
-      </c>
-      <c r="G20" t="s">
-        <v>423</v>
-      </c>
       <c r="I20" t="s">
-        <v>423</v>
-      </c>
-      <c r="J20" s="2"/>
+        <v>422</v>
+      </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -8868,27 +8876,26 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E21" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" t="s">
         <v>423</v>
       </c>
-      <c r="F21" t="s">
-        <v>409</v>
-      </c>
-      <c r="G21" t="s">
-        <v>424</v>
-      </c>
       <c r="H21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I21" t="s">
-        <v>422</v>
-      </c>
-      <c r="J21" s="2"/>
+        <v>421</v>
+      </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -8919,27 +8926,26 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E22" t="s">
         <v>423</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E22" t="s">
-        <v>424</v>
-      </c>
       <c r="F22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G22" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" t="s">
+        <v>406</v>
+      </c>
+      <c r="I22" t="s">
         <v>422</v>
       </c>
-      <c r="H22" t="s">
-        <v>407</v>
-      </c>
-      <c r="I22" t="s">
-        <v>423</v>
-      </c>
-      <c r="J22" s="2"/>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -8970,27 +8976,26 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" t="s">
         <v>422</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G23" t="s">
         <v>423</v>
       </c>
-      <c r="F23" t="s">
-        <v>414</v>
-      </c>
-      <c r="G23" t="s">
-        <v>424</v>
-      </c>
       <c r="H23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I23" t="s">
-        <v>422</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>421</v>
+      </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -9021,27 +9026,26 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" t="s">
+        <v>410</v>
+      </c>
+      <c r="G24" t="s">
         <v>422</v>
       </c>
-      <c r="F24" t="s">
-        <v>411</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" t="s">
         <v>423</v>
       </c>
-      <c r="H24" t="s">
-        <v>409</v>
-      </c>
-      <c r="I24" t="s">
-        <v>424</v>
-      </c>
-      <c r="J24" s="2"/>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -9072,24 +9076,23 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E25" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" t="s">
         <v>422</v>
       </c>
-      <c r="F25" t="s">
-        <v>409</v>
-      </c>
-      <c r="G25" t="s">
-        <v>423</v>
-      </c>
       <c r="I25" t="s">
-        <v>423</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>422</v>
+      </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -9120,24 +9123,23 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E26" t="s">
         <v>423</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E26" t="s">
-        <v>424</v>
-      </c>
       <c r="F26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I26" t="s">
-        <v>422</v>
-      </c>
-      <c r="J26" s="2"/>
+        <v>421</v>
+      </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -9168,24 +9170,23 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E27" t="s">
         <v>422</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" t="s">
         <v>423</v>
       </c>
-      <c r="F27" t="s">
-        <v>474</v>
-      </c>
-      <c r="G27" t="s">
-        <v>424</v>
-      </c>
       <c r="I27" t="s">
-        <v>424</v>
-      </c>
-      <c r="J27" s="2"/>
+        <v>423</v>
+      </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -9216,27 +9217,26 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
+        <v>422</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E28" t="s">
-        <v>424</v>
-      </c>
       <c r="F28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G28" t="s">
+        <v>421</v>
+      </c>
+      <c r="H28" t="s">
+        <v>416</v>
+      </c>
+      <c r="I28" t="s">
         <v>422</v>
       </c>
-      <c r="H28" t="s">
-        <v>417</v>
-      </c>
-      <c r="I28" t="s">
-        <v>423</v>
-      </c>
-      <c r="J28" s="2"/>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
@@ -9267,24 +9267,23 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E29" t="s">
         <v>422</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>415</v>
+      </c>
+      <c r="G29" t="s">
         <v>423</v>
       </c>
-      <c r="F29" t="s">
-        <v>416</v>
-      </c>
-      <c r="G29" t="s">
-        <v>424</v>
-      </c>
       <c r="I29" t="s">
-        <v>424</v>
-      </c>
-      <c r="J29" s="2"/>
+        <v>423</v>
+      </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -9315,27 +9314,29 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E30" t="s">
         <v>422</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" t="s">
+        <v>423</v>
+      </c>
+      <c r="H30" t="s">
         <v>413</v>
       </c>
-      <c r="E30" t="s">
-        <v>423</v>
-      </c>
-      <c r="F30" t="s">
-        <v>415</v>
-      </c>
-      <c r="G30" t="s">
-        <v>424</v>
-      </c>
-      <c r="H30" t="s">
-        <v>414</v>
-      </c>
       <c r="I30" t="s">
-        <v>422</v>
-      </c>
-      <c r="J30" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="J30" t="s">
+        <v>480</v>
+      </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
@@ -9366,27 +9367,26 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E31" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" t="s">
+        <v>416</v>
+      </c>
+      <c r="G31" t="s">
         <v>422</v>
       </c>
-      <c r="F31" t="s">
-        <v>417</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>409</v>
+      </c>
+      <c r="I31" t="s">
         <v>423</v>
       </c>
-      <c r="H31" t="s">
-        <v>410</v>
-      </c>
-      <c r="I31" t="s">
-        <v>424</v>
-      </c>
-      <c r="J31" s="2"/>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
@@ -9417,25 +9417,25 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E32" t="s">
+        <v>421</v>
+      </c>
+      <c r="F32" t="s">
+        <v>408</v>
+      </c>
+      <c r="G32" t="s">
         <v>422</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>409</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>423</v>
-      </c>
-      <c r="H32" t="s">
-        <v>410</v>
-      </c>
-      <c r="I32" t="s">
-        <v>424</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="str">
@@ -9460,10 +9460,31 @@
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K36">
-        <f>IF(LEFT(I36,2)="T1","T2- TOP RIGHT",IF(LEFT(I36,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I36,2)="T3","T1- TOP LEFT",)))</f>
-        <v>0</v>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>481</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35:J36" si="3">RIGHT(I35)</f>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>H</v>
+      </c>
+      <c r="K36" t="e">
+        <f>IF(LEFT(#REF!,2)="T1","T2- TOP RIGHT",IF(LEFT(#REF!,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(#REF!,2)="T3","T1- TOP LEFT",)))</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -9489,16 +9510,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -9519,7 +9540,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9543,7 +9564,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9567,7 +9588,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -9591,7 +9612,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -9615,7 +9636,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -9639,7 +9660,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -9663,7 +9684,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -9687,7 +9708,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -9711,7 +9732,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9735,7 +9756,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9759,7 +9780,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -9783,7 +9804,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -9807,7 +9828,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -9831,7 +9852,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -9855,7 +9876,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -9879,7 +9900,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -9903,7 +9924,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9927,7 +9948,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -9951,7 +9972,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -9975,7 +9996,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -9999,7 +10020,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -10023,7 +10044,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -10047,7 +10068,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10071,7 +10092,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -10095,7 +10116,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -10119,7 +10140,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -10143,7 +10164,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -10167,7 +10188,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -10191,7 +10212,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -10215,7 +10236,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -10239,7 +10260,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10263,7 +10284,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -10287,7 +10308,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -10311,7 +10332,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -10335,7 +10356,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -10359,7 +10380,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10383,7 +10404,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -10407,7 +10428,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -10431,7 +10452,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -10455,7 +10476,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -10479,7 +10500,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -10503,7 +10524,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -10527,7 +10548,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -10551,7 +10572,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -10575,7 +10596,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -10599,7 +10620,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -10623,7 +10644,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -10641,7 +10662,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -10659,7 +10680,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -10677,7 +10698,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -10695,7 +10716,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -10713,7 +10734,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -10731,7 +10752,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -10749,7 +10770,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -10767,7 +10788,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -10785,7 +10806,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -10803,7 +10824,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -10821,7 +10842,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -10839,7 +10860,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -10857,7 +10878,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -10875,7 +10896,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -10893,7 +10914,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -10911,7 +10932,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -10929,7 +10950,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -10947,7 +10968,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -10965,7 +10986,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -10983,7 +11004,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -11001,7 +11022,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -11019,7 +11040,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -11037,7 +11058,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -11055,7 +11076,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -11073,7 +11094,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -11091,7 +11112,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -11109,7 +11130,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -11127,7 +11148,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -11145,7 +11166,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -11163,7 +11184,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -11181,7 +11202,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -11199,7 +11220,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -11217,7 +11238,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -11235,7 +11256,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -11253,7 +11274,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -11271,7 +11292,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -11289,7 +11310,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -11307,7 +11328,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -11325,7 +11346,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -11343,7 +11364,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -11361,7 +11382,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -11379,7 +11400,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -11397,7 +11418,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -11415,7 +11436,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -11433,7 +11454,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -11451,7 +11472,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -11469,7 +11490,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11487,7 +11508,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -11505,7 +11526,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -11523,7 +11544,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -11541,7 +11562,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -11559,7 +11580,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -11577,7 +11598,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -11595,7 +11616,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -11613,7 +11634,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -11631,7 +11652,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -11649,7 +11670,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -11667,7 +11688,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -11685,7 +11706,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -11703,7 +11724,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -11721,7 +11742,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -11739,7 +11760,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -11757,7 +11778,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -11775,7 +11796,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -11793,7 +11814,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -11811,7 +11832,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -11829,7 +11850,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -11847,7 +11868,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -11865,7 +11886,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -11883,7 +11904,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -11901,7 +11922,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -11919,7 +11940,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -11937,7 +11958,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -11955,7 +11976,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -11973,7 +11994,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -11991,7 +12012,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -12009,7 +12030,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -12027,7 +12048,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -12045,7 +12066,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -12063,7 +12084,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -12081,7 +12102,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -12099,7 +12120,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -12117,7 +12138,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -12135,7 +12156,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -12153,7 +12174,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -12171,7 +12192,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -12189,7 +12210,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -12207,7 +12228,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -12225,7 +12246,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -12243,7 +12264,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -12261,7 +12282,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -12279,7 +12300,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -12297,7 +12318,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -12315,7 +12336,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -12333,7 +12354,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -12351,7 +12372,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -12369,7 +12390,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -12387,7 +12408,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -12405,7 +12426,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -12423,7 +12444,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -12441,7 +12462,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -12459,7 +12480,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -12477,7 +12498,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -12495,7 +12516,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -12513,7 +12534,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -12531,7 +12552,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -12549,7 +12570,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -12567,7 +12588,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -12585,7 +12606,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -12603,7 +12624,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -12621,7 +12642,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -12639,7 +12660,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -12657,7 +12678,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -12675,7 +12696,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -12693,7 +12714,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -12711,7 +12732,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -12729,7 +12750,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -12747,7 +12768,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -12765,7 +12786,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -12783,7 +12804,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -12801,7 +12822,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -12819,7 +12840,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -12837,7 +12858,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -12855,7 +12876,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -12873,7 +12894,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -12891,7 +12912,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -12909,7 +12930,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -12927,7 +12948,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -12945,7 +12966,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -12963,7 +12984,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -12981,7 +13002,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -12999,7 +13020,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -13017,7 +13038,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -13035,7 +13056,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -13053,7 +13074,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -13071,7 +13092,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -13089,7 +13110,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -13107,7 +13128,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -13125,7 +13146,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -13143,7 +13164,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -13161,7 +13182,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -13179,7 +13200,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -13197,7 +13218,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -13215,7 +13236,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -13233,7 +13254,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -13251,7 +13272,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -13269,7 +13290,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -13287,7 +13308,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -13305,7 +13326,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -13323,7 +13344,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -13341,7 +13362,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -13359,7 +13380,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -13377,7 +13398,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -13395,7 +13416,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -13413,7 +13434,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -13431,7 +13452,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -13449,7 +13470,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -13467,7 +13488,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -13485,7 +13506,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -13503,7 +13524,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -13521,7 +13542,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -13539,7 +13560,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -13557,7 +13578,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -13575,7 +13596,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -13593,7 +13614,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -13611,7 +13632,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -13629,7 +13650,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -13647,7 +13668,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -13665,7 +13686,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -13683,7 +13704,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -13701,7 +13722,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -13719,7 +13740,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -13737,7 +13758,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -13755,7 +13776,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -13773,7 +13794,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -13791,7 +13812,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -13809,7 +13830,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -13827,7 +13848,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -13845,7 +13866,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -13863,7 +13884,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -13881,7 +13902,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -13899,7 +13920,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -13917,7 +13938,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -13935,7 +13956,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -13953,7 +13974,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -13971,7 +13992,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -13989,7 +14010,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -14007,7 +14028,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -14025,7 +14046,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -14043,7 +14064,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -14061,7 +14082,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -14079,7 +14100,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -14097,7 +14118,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -14115,7 +14136,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -14133,7 +14154,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -14151,7 +14172,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -14169,7 +14190,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -14187,7 +14208,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -14205,7 +14226,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -14223,7 +14244,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -14241,7 +14262,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -14259,7 +14280,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -14277,7 +14298,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -14295,7 +14316,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -14313,7 +14334,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -14331,7 +14352,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -14349,7 +14370,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -14367,7 +14388,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -14385,7 +14406,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -14403,7 +14424,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -14421,7 +14442,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -14439,7 +14460,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -14457,7 +14478,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -14475,7 +14496,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -14493,7 +14514,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -14511,7 +14532,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -14529,7 +14550,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -14547,7 +14568,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -14565,7 +14586,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -14583,7 +14604,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -14601,7 +14622,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -14619,7 +14640,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -14637,7 +14658,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -14655,7 +14676,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -14673,7 +14694,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -14691,7 +14712,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -14709,7 +14730,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -14727,7 +14748,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -14745,7 +14766,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -14763,7 +14784,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -14781,7 +14802,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -14799,7 +14820,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -14817,7 +14838,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -14835,7 +14856,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -14853,7 +14874,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -14871,7 +14892,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -14889,7 +14910,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -14907,7 +14928,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -14925,7 +14946,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -14943,7 +14964,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -14961,7 +14982,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -14979,7 +15000,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -14997,7 +15018,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -15015,7 +15036,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -15033,7 +15054,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -15051,7 +15072,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -15069,7 +15090,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -15087,7 +15108,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -15105,7 +15126,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -15123,7 +15144,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -15141,7 +15162,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -15159,7 +15180,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -15177,7 +15198,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -15195,7 +15216,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -15213,7 +15234,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -15231,7 +15252,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -15249,7 +15270,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -15267,7 +15288,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -15285,7 +15306,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -15303,7 +15324,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -15321,7 +15342,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -15339,7 +15360,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -15357,7 +15378,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -15375,7 +15396,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -15393,7 +15414,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -15411,7 +15432,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -15429,7 +15450,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -15447,7 +15468,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -15465,7 +15486,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -15483,7 +15504,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -15501,7 +15522,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -15519,7 +15540,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -15537,7 +15558,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -15555,7 +15576,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -15573,7 +15594,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -15591,7 +15612,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -15609,7 +15630,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -15627,7 +15648,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -15645,7 +15666,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -15663,7 +15684,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -15681,7 +15702,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -15699,7 +15720,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -15717,7 +15738,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -15735,7 +15756,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -15753,7 +15774,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -15771,7 +15792,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -15789,7 +15810,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -15807,7 +15828,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -15825,7 +15846,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -15843,7 +15864,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -15861,7 +15882,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -15879,7 +15900,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -15897,7 +15918,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E341">
         <v>8</v>
@@ -15926,16 +15947,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -15950,7 +15971,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15968,7 +15989,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -15986,7 +16007,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -16004,7 +16025,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -16022,7 +16043,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -16040,7 +16061,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -16058,7 +16079,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -16076,7 +16097,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -16094,7 +16115,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16112,7 +16133,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -16130,7 +16151,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -16148,7 +16169,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -16166,7 +16187,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -16184,7 +16205,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -16202,7 +16223,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -16220,7 +16241,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -16238,7 +16259,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -16256,7 +16277,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -16274,7 +16295,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -16292,7 +16313,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -16310,7 +16331,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -16328,7 +16349,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -16346,7 +16367,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -16364,7 +16385,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -16382,7 +16403,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -16400,7 +16421,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -16418,7 +16439,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -16436,7 +16457,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -16454,7 +16475,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -16472,7 +16493,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -16490,7 +16511,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -16508,7 +16529,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -16526,7 +16547,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -16544,7 +16565,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -16562,7 +16583,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -16580,7 +16601,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -16598,7 +16619,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -16616,7 +16637,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -16634,7 +16655,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -16652,7 +16673,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -16670,7 +16691,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -16688,7 +16709,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -16706,7 +16727,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -16724,7 +16745,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -16742,7 +16763,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -16760,7 +16781,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -16778,7 +16799,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -16796,7 +16817,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -16814,7 +16835,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -16832,7 +16853,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -16850,7 +16871,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -16868,7 +16889,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -16886,7 +16907,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -16904,7 +16925,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -16922,7 +16943,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -16940,7 +16961,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -16958,7 +16979,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -16976,7 +16997,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -16994,7 +17015,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -17012,7 +17033,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -17030,7 +17051,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -17048,7 +17069,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -17066,7 +17087,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -17084,7 +17105,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -17102,7 +17123,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -17120,7 +17141,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -17138,7 +17159,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -17156,7 +17177,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -17174,7 +17195,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -17192,7 +17213,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -17210,7 +17231,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -17228,7 +17249,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -17246,7 +17267,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -17264,7 +17285,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -17282,7 +17303,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -17300,7 +17321,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -17318,7 +17339,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -17336,7 +17357,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -17354,7 +17375,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -17372,7 +17393,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -17390,7 +17411,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -17408,7 +17429,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -17426,7 +17447,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -17444,7 +17465,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -17462,7 +17483,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -17480,7 +17501,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -17498,7 +17519,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -17516,7 +17537,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -17534,7 +17555,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -17552,7 +17573,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -17570,7 +17591,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -17588,7 +17609,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -17606,7 +17627,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -17624,7 +17645,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -17642,7 +17663,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -17660,7 +17681,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -17678,7 +17699,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -17696,7 +17717,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -17714,7 +17735,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -17732,7 +17753,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -17750,7 +17771,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -17768,7 +17789,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -17786,7 +17807,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -17804,7 +17825,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -17822,7 +17843,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -17840,7 +17861,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -17858,7 +17879,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -17876,7 +17897,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -17894,7 +17915,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -17912,7 +17933,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -17930,7 +17951,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -17948,7 +17969,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -17966,7 +17987,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -17984,7 +18005,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -18002,7 +18023,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -18020,7 +18041,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -18038,7 +18059,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -18056,7 +18077,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -18074,7 +18095,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -18092,7 +18113,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -18110,7 +18131,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -18128,7 +18149,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -18146,7 +18167,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -18164,7 +18185,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -18182,7 +18203,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -18200,7 +18221,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -18218,7 +18239,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -18236,7 +18257,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -18254,7 +18275,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -18272,7 +18293,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -18290,7 +18311,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -18308,7 +18329,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -18326,7 +18347,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -18344,7 +18365,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -18362,7 +18383,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -18380,7 +18401,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -18398,7 +18419,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -18416,7 +18437,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -18434,7 +18455,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -18452,7 +18473,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -18470,7 +18491,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -18488,7 +18509,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -18506,7 +18527,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -18524,7 +18545,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -18542,7 +18563,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -18560,7 +18581,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -18578,7 +18599,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -18596,7 +18617,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -18614,7 +18635,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -18632,7 +18653,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -18650,7 +18671,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -18668,7 +18689,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -18686,7 +18707,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -18704,7 +18725,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -18722,7 +18743,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -18740,7 +18761,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -18758,7 +18779,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -18776,7 +18797,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -18794,7 +18815,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -18812,7 +18833,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -18830,7 +18851,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -18848,7 +18869,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -18866,7 +18887,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -18884,7 +18905,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -18902,7 +18923,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -18920,7 +18941,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -18938,7 +18959,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -18956,7 +18977,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -18974,7 +18995,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -18992,7 +19013,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -19010,7 +19031,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -19028,7 +19049,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -19046,7 +19067,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -19064,7 +19085,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -19082,7 +19103,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -19100,7 +19121,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -19118,7 +19139,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -19136,7 +19157,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -19154,7 +19175,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -19172,7 +19193,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -19190,7 +19211,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -19208,7 +19229,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -19226,7 +19247,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -19244,7 +19265,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -19262,7 +19283,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -19280,7 +19301,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -19298,7 +19319,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -19316,7 +19337,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -19334,7 +19355,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -19352,7 +19373,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -19370,7 +19391,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -19388,7 +19409,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -19406,7 +19427,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -19424,7 +19445,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -19442,7 +19463,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -19460,7 +19481,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -19478,7 +19499,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -19496,7 +19517,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -19514,7 +19535,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -19532,7 +19553,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -19550,7 +19571,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -19568,7 +19589,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -19586,7 +19607,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -19604,7 +19625,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -19622,7 +19643,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -19640,7 +19661,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -19658,7 +19679,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -19676,7 +19697,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -19694,7 +19715,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -19712,7 +19733,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -19730,7 +19751,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -19748,7 +19769,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -19766,7 +19787,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -19784,7 +19805,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -19802,7 +19823,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -19820,7 +19841,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -19838,7 +19859,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -19856,7 +19877,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -19874,7 +19895,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -19892,7 +19913,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -19910,7 +19931,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -19928,7 +19949,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -19946,7 +19967,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -19964,7 +19985,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -19982,7 +20003,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -20000,7 +20021,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -20018,7 +20039,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -20036,7 +20057,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -20054,7 +20075,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -20072,7 +20093,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -20090,7 +20111,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -20108,7 +20129,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -20126,7 +20147,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -20144,7 +20165,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -20162,7 +20183,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -20180,7 +20201,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -20198,7 +20219,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -20216,7 +20237,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -20234,7 +20255,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -20252,7 +20273,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -20270,7 +20291,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -20288,7 +20309,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -20306,7 +20327,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -20324,7 +20345,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -20342,7 +20363,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -20360,7 +20381,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -20378,7 +20399,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -20396,7 +20417,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -20414,7 +20435,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -20432,7 +20453,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -20450,7 +20471,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -20468,7 +20489,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -20486,7 +20507,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -20504,7 +20525,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -20522,7 +20543,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -20540,7 +20561,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -20558,7 +20579,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -20576,7 +20597,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -20594,7 +20615,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -20612,7 +20633,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -20630,7 +20651,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -20648,7 +20669,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -20666,7 +20687,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -20684,7 +20705,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -20702,7 +20723,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -20720,7 +20741,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -20738,7 +20759,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -20756,7 +20777,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -20774,7 +20795,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -20792,7 +20813,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -20810,7 +20831,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -20828,7 +20849,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -20846,7 +20867,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -20864,7 +20885,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -20882,7 +20903,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -20900,7 +20921,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -20918,7 +20939,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -20936,7 +20957,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -20954,7 +20975,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -20972,7 +20993,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -20990,7 +21011,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -21008,7 +21029,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -21026,7 +21047,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -21044,7 +21065,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -21062,7 +21083,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -21080,7 +21101,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -21098,7 +21119,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -21116,7 +21137,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -21134,7 +21155,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -21152,7 +21173,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -21170,7 +21191,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -21188,7 +21209,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -21206,7 +21227,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -21224,7 +21245,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -21242,7 +21263,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -21260,7 +21281,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -21278,7 +21299,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -21296,7 +21317,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -21314,7 +21335,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -21332,7 +21353,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -21350,7 +21371,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -21368,7 +21389,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -21386,7 +21407,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -21404,7 +21425,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -21422,7 +21443,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -21440,7 +21461,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -21458,7 +21479,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -21476,7 +21497,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -21494,7 +21515,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -21512,7 +21533,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -21530,7 +21551,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -21548,7 +21569,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -21566,7 +21587,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -21584,7 +21605,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -21602,7 +21623,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -21620,7 +21641,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -21638,7 +21659,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -21656,7 +21677,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -21674,7 +21695,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -21692,7 +21713,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -21710,7 +21731,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -21728,7 +21749,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -21746,7 +21767,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -21764,7 +21785,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -21782,7 +21803,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -21800,7 +21821,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -21818,7 +21839,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -21836,7 +21857,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -21854,7 +21875,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -21872,7 +21893,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -21890,7 +21911,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -21908,7 +21929,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -21926,7 +21947,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -21944,7 +21965,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -21962,7 +21983,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -21980,7 +22001,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -21998,7 +22019,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -22016,7 +22037,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -22034,7 +22055,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -22052,7 +22073,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E341">
         <v>8</v>

--- a/Data/22052017_initialIpam/Processed/Summary.xlsx
+++ b/Data/22052017_initialIpam/Processed/Summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="491">
   <si>
     <t>Picture</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Initial Frag Count</t>
   </si>
   <si>
-    <t xml:space="preserve">Time 4 </t>
-  </si>
-  <si>
     <t>Time 5</t>
   </si>
   <si>
@@ -1482,6 +1479,30 @@
   </si>
   <si>
     <t>Unaccounted for</t>
+  </si>
+  <si>
+    <t>ON 20/6/2017 @ 10:10</t>
+  </si>
+  <si>
+    <t>FROM T1</t>
+  </si>
+  <si>
+    <t>LABELED AS A</t>
+  </si>
+  <si>
+    <t>Time 4  21/06/2017 @ 11:30</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Skipped due to low fragments</t>
+  </si>
+  <si>
+    <t>During T4 11:30 21/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T4 11:30 21/06</t>
   </si>
 </sst>
 </file>
@@ -7867,13 +7888,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7882,7 +7903,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -7890,61 +7911,67 @@
         <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I1" t="s">
+        <v>481</v>
+      </c>
+      <c r="J1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" t="s">
+        <v>486</v>
+      </c>
+      <c r="L1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N1" t="s">
+        <v>404</v>
+      </c>
+      <c r="O1" t="s">
+        <v>418</v>
+      </c>
+      <c r="P1" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q1" t="s">
         <v>475</v>
       </c>
-      <c r="F1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I1" t="s">
-        <v>482</v>
-      </c>
-      <c r="J1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K1" t="s">
-        <v>404</v>
-      </c>
-      <c r="L1" t="s">
-        <v>419</v>
-      </c>
-      <c r="M1" t="s">
-        <v>405</v>
-      </c>
-      <c r="N1" t="s">
-        <v>419</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>418</v>
+      </c>
+      <c r="S1" t="s">
         <v>476</v>
       </c>
-      <c r="P1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
+        <v>418</v>
+      </c>
+      <c r="U1" t="s">
         <v>477</v>
       </c>
-      <c r="R1" t="s">
-        <v>419</v>
-      </c>
-      <c r="S1" t="s">
-        <v>478</v>
-      </c>
-      <c r="T1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1721</v>
       </c>
@@ -7952,52 +7979,64 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" t="s">
         <v>422</v>
       </c>
-      <c r="F2" t="s">
-        <v>416</v>
-      </c>
-      <c r="G2" t="s">
-        <v>423</v>
-      </c>
       <c r="H2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K2" t="str">
         <f>IF(LEFT(I2,2)="T1","T2- TOP RIGHT",IF(LEFT(I2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M2" t="str">
+      <c r="L2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M2" t="s">
+        <v>483</v>
+      </c>
+      <c r="N2" t="str">
         <f>IF(LEFT(K2,2)="T1","T2- TOP RIGHT",IF(LEFT(K2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O2" t="str">
-        <f>IF(LEFT(M2,2)="T1","T2- TOP RIGHT",IF(LEFT(M2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(M2,2)="T3","T1- TOP LEFT",)))</f>
+      <c r="O2" t="s">
+        <v>411</v>
+      </c>
+      <c r="P2" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(LEFT(N2,2)="T1","T2- TOP RIGHT",IF(LEFT(N2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="str">
-        <f>IF(LEFT(O2,2)="T1","T2- TOP RIGHT",IF(LEFT(O2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(O2,2)="T3","T1- TOP LEFT",)))</f>
-        <v>T2- TOP RIGHT</v>
-      </c>
+      <c r="R2" s="2"/>
       <c r="S2" t="str">
         <f>IF(LEFT(Q2,2)="T1","T2- TOP RIGHT",IF(LEFT(Q2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(Q2,2)="T3","T1- TOP LEFT",)))</f>
+        <v>T2- TOP RIGHT</v>
+      </c>
+      <c r="U2" t="str">
+        <f>IF(LEFT(S2,2)="T1","T2- TOP RIGHT",IF(LEFT(S2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(S2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1722</v>
       </c>
@@ -8005,49 +8044,52 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E3" t="s">
-        <v>423</v>
-      </c>
       <c r="F3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I3" t="s">
         <v>421</v>
-      </c>
-      <c r="H3" t="s">
-        <v>406</v>
-      </c>
-      <c r="I3" t="s">
-        <v>422</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K32" si="0">IF(LEFT(I3,2)="T1","T2- TOP RIGHT",IF(LEFT(I3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M32" si="1">IF(LEFT(K3,2)="T1","T2- TOP RIGHT",IF(LEFT(K3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K3,2)="T3","T1- TOP LEFT",)))</f>
+      <c r="L3" t="s">
+        <v>415</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N32" si="1">IF(LEFT(K3,2)="T1","T2- TOP RIGHT",IF(LEFT(K3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:S32" si="2">IF(LEFT(M3,2)="T1","T2- TOP RIGHT",IF(LEFT(M3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(M3,2)="T3","T1- TOP LEFT",)))</f>
+      <c r="Q3" t="str">
+        <f>IF(LEFT(N3,2)="T1","T2- TOP RIGHT",IF(LEFT(N3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="str">
-        <f t="shared" si="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:U32" si="2">IF(LEFT(Q3,2)="T1","T2- TOP RIGHT",IF(LEFT(Q3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(Q3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S3" t="str">
+      <c r="U3" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1723</v>
       </c>
@@ -8055,46 +8097,52 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" t="s">
         <v>421</v>
       </c>
-      <c r="F4" t="s">
-        <v>415</v>
-      </c>
-      <c r="G4" t="s">
-        <v>422</v>
-      </c>
       <c r="I4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M4" t="str">
+      <c r="L4" t="s">
+        <v>416</v>
+      </c>
+      <c r="M4" t="s">
+        <v>484</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O4" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q4" t="str">
+        <f>IF(LEFT(N4,2)="T1","T2- TOP RIGHT",IF(LEFT(N4,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N4,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="str">
+      <c r="R4" s="2"/>
+      <c r="S4" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S4" t="str">
+      <c r="U4" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1725</v>
       </c>
@@ -8102,46 +8150,49 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" t="s">
         <v>422</v>
       </c>
-      <c r="F5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" t="s">
-        <v>423</v>
-      </c>
       <c r="I5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M5" t="str">
+      <c r="L5" t="s">
+        <v>488</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O5" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q5" t="str">
+        <f>IF(LEFT(N5,2)="T1","T2- TOP RIGHT",IF(LEFT(N5,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N5,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="str">
+      <c r="R5" s="2"/>
+      <c r="S5" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S5" t="str">
+      <c r="U5" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1726</v>
       </c>
@@ -8149,46 +8200,49 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" t="s">
         <v>422</v>
       </c>
-      <c r="F6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G6" t="s">
-        <v>423</v>
-      </c>
       <c r="I6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M6" t="str">
+      <c r="L6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N6" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q6" t="str">
+        <f>IF(LEFT(N6,2)="T1","T2- TOP RIGHT",IF(LEFT(N6,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N6,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="str">
+      <c r="R6" s="2"/>
+      <c r="S6" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S6" t="str">
+      <c r="U6" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1727</v>
       </c>
@@ -8196,49 +8250,52 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G7" t="s">
         <v>421</v>
       </c>
-      <c r="F7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>406</v>
+      </c>
+      <c r="I7" t="s">
         <v>422</v>
-      </c>
-      <c r="H7" t="s">
-        <v>407</v>
-      </c>
-      <c r="I7" t="s">
-        <v>423</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M7" t="str">
+      <c r="L7" t="s">
+        <v>405</v>
+      </c>
+      <c r="N7" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O7" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q7" t="str">
+        <f>IF(LEFT(N7,2)="T1","T2- TOP RIGHT",IF(LEFT(N7,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N7,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="str">
+      <c r="R7" s="2"/>
+      <c r="S7" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S7" t="str">
+      <c r="U7" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1728</v>
       </c>
@@ -8246,52 +8303,55 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" t="s">
         <v>421</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>414</v>
+      </c>
+      <c r="G8" t="s">
         <v>422</v>
       </c>
-      <c r="F8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G8" t="s">
-        <v>423</v>
-      </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M8" t="str">
+      <c r="L8" t="s">
+        <v>405</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q8" t="str">
+        <f>IF(LEFT(N8,2)="T1","T2- TOP RIGHT",IF(LEFT(N8,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N8,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="str">
+      <c r="R8" s="2"/>
+      <c r="S8" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S8" t="str">
+      <c r="U8" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1729</v>
       </c>
@@ -8299,49 +8359,52 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E9" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E9" t="s">
-        <v>423</v>
-      </c>
       <c r="F9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M9" t="str">
+      <c r="L9" t="s">
+        <v>406</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O9" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q9" t="str">
+        <f>IF(LEFT(N9,2)="T1","T2- TOP RIGHT",IF(LEFT(N9,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N9,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="str">
+      <c r="R9" s="2"/>
+      <c r="S9" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S9" t="str">
+      <c r="U9" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1730</v>
       </c>
@@ -8356,25 +8419,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
+      <c r="Q10">
+        <f>IF(LEFT(N10,2)="T1","T2- TOP RIGHT",IF(LEFT(N10,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N10,2)="T3","T1- TOP LEFT",)))</f>
         <v>0</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="R10" s="3"/>
       <c r="S10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1731</v>
       </c>
@@ -8382,49 +8445,52 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E11" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" t="s">
         <v>421</v>
       </c>
-      <c r="F11" t="s">
-        <v>414</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>412</v>
+      </c>
+      <c r="I11" t="s">
         <v>422</v>
-      </c>
-      <c r="H11" t="s">
-        <v>413</v>
-      </c>
-      <c r="I11" t="s">
-        <v>423</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M11" t="str">
+      <c r="L11" t="s">
+        <v>411</v>
+      </c>
+      <c r="N11" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O11" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q11" t="str">
+        <f>IF(LEFT(N11,2)="T1","T2- TOP RIGHT",IF(LEFT(N11,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N11,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="str">
+      <c r="R11" s="2"/>
+      <c r="S11" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S11" t="str">
+      <c r="U11" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1732</v>
       </c>
@@ -8432,49 +8498,52 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" t="s">
+        <v>420</v>
+      </c>
+      <c r="F12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" t="s">
         <v>421</v>
       </c>
-      <c r="F12" t="s">
-        <v>407</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>409</v>
+      </c>
+      <c r="I12" t="s">
         <v>422</v>
-      </c>
-      <c r="H12" t="s">
-        <v>410</v>
-      </c>
-      <c r="I12" t="s">
-        <v>423</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M12" t="str">
+      <c r="L12" t="s">
+        <v>417</v>
+      </c>
+      <c r="N12" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O12" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q12" t="str">
+        <f>IF(LEFT(N12,2)="T1","T2- TOP RIGHT",IF(LEFT(N12,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N12,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="str">
+      <c r="R12" s="2"/>
+      <c r="S12" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S12" t="str">
+      <c r="U12" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1733</v>
       </c>
@@ -8482,46 +8551,49 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E13" t="s">
         <v>421</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>413</v>
+      </c>
+      <c r="G13" t="s">
         <v>422</v>
       </c>
-      <c r="F13" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13" t="s">
-        <v>423</v>
-      </c>
       <c r="I13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M13" t="str">
+      <c r="L13" t="s">
+        <v>479</v>
+      </c>
+      <c r="N13" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O13" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q13" t="str">
+        <f>IF(LEFT(N13,2)="T1","T2- TOP RIGHT",IF(LEFT(N13,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N13,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="str">
+      <c r="R13" s="2"/>
+      <c r="S13" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S13" t="str">
+      <c r="U13" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1734</v>
       </c>
@@ -8529,49 +8601,52 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" t="s">
         <v>421</v>
       </c>
-      <c r="F14" t="s">
-        <v>411</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>417</v>
+      </c>
+      <c r="I14" t="s">
         <v>422</v>
-      </c>
-      <c r="H14" t="s">
-        <v>418</v>
-      </c>
-      <c r="I14" t="s">
-        <v>423</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M14" t="str">
+      <c r="L14" t="s">
+        <v>415</v>
+      </c>
+      <c r="N14" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O14" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q14" t="str">
+        <f>IF(LEFT(N14,2)="T1","T2- TOP RIGHT",IF(LEFT(N14,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N14,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="str">
+      <c r="R14" s="2"/>
+      <c r="S14" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S14" t="str">
+      <c r="U14" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1735</v>
       </c>
@@ -8579,49 +8654,52 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E15" t="s">
         <v>422</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E15" t="s">
-        <v>423</v>
-      </c>
       <c r="F15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H15" t="s">
+        <v>406</v>
+      </c>
+      <c r="I15" t="s">
         <v>421</v>
-      </c>
-      <c r="H15" t="s">
-        <v>407</v>
-      </c>
-      <c r="I15" t="s">
-        <v>422</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M15" t="str">
+      <c r="L15" t="s">
+        <v>408</v>
+      </c>
+      <c r="N15" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O15" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q15" t="str">
+        <f>IF(LEFT(N15,2)="T1","T2- TOP RIGHT",IF(LEFT(N15,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N15,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="str">
+      <c r="R15" s="2"/>
+      <c r="S15" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S15" t="str">
+      <c r="U15" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1736</v>
       </c>
@@ -8629,49 +8707,52 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E16" t="s">
-        <v>423</v>
-      </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M16" t="str">
+      <c r="L16" t="s">
+        <v>416</v>
+      </c>
+      <c r="N16" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O16" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q16" t="str">
+        <f>IF(LEFT(N16,2)="T1","T2- TOP RIGHT",IF(LEFT(N16,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N16,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="str">
+      <c r="R16" s="2"/>
+      <c r="S16" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S16" t="str">
+      <c r="U16" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1737</v>
       </c>
@@ -8679,49 +8760,52 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E17" t="s">
         <v>422</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" t="s">
         <v>409</v>
       </c>
-      <c r="E17" t="s">
-        <v>423</v>
-      </c>
-      <c r="F17" t="s">
-        <v>410</v>
-      </c>
       <c r="G17" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" t="s">
         <v>421</v>
-      </c>
-      <c r="H17" t="s">
-        <v>417</v>
-      </c>
-      <c r="I17" t="s">
-        <v>422</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M17" t="str">
+      <c r="L17" t="s">
+        <v>412</v>
+      </c>
+      <c r="N17" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q17" t="str">
+        <f>IF(LEFT(N17,2)="T1","T2- TOP RIGHT",IF(LEFT(N17,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N17,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="str">
+      <c r="R17" s="2"/>
+      <c r="S17" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S17" t="str">
+      <c r="U17" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1738</v>
       </c>
@@ -8729,49 +8813,61 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E18" t="s">
         <v>422</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E18" t="s">
-        <v>423</v>
-      </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H18" t="s">
+        <v>416</v>
+      </c>
+      <c r="I18" t="s">
         <v>421</v>
-      </c>
-      <c r="H18" t="s">
-        <v>417</v>
-      </c>
-      <c r="I18" t="s">
-        <v>422</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M18" t="str">
+      <c r="L18" t="s">
+        <v>407</v>
+      </c>
+      <c r="M18" t="s">
+        <v>483</v>
+      </c>
+      <c r="N18" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O18" t="str">
-        <f t="shared" si="2"/>
+      <c r="O18" t="s">
+        <v>416</v>
+      </c>
+      <c r="P18" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(LEFT(N18,2)="T1","T2- TOP RIGHT",IF(LEFT(N18,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N18,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="str">
+      <c r="R18" s="2"/>
+      <c r="S18" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S18" t="str">
+      <c r="U18" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1739</v>
       </c>
@@ -8779,49 +8875,52 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" t="s">
         <v>422</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E19" t="s">
-        <v>423</v>
-      </c>
       <c r="F19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M19" t="str">
+      <c r="L19" t="s">
+        <v>417</v>
+      </c>
+      <c r="N19" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O19" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q19" t="str">
+        <f>IF(LEFT(N19,2)="T1","T2- TOP RIGHT",IF(LEFT(N19,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N19,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="str">
+      <c r="R19" s="2"/>
+      <c r="S19" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S19" t="str">
+      <c r="U19" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1741</v>
       </c>
@@ -8829,46 +8928,49 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" t="s">
+        <v>416</v>
+      </c>
+      <c r="G20" t="s">
         <v>421</v>
       </c>
-      <c r="F20" t="s">
-        <v>417</v>
-      </c>
-      <c r="G20" t="s">
-        <v>422</v>
-      </c>
       <c r="I20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M20" t="str">
+      <c r="L20" t="s">
+        <v>414</v>
+      </c>
+      <c r="N20" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O20" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q20" t="str">
+        <f>IF(LEFT(N20,2)="T1","T2- TOP RIGHT",IF(LEFT(N20,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N20,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="str">
+      <c r="R20" s="2"/>
+      <c r="S20" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S20" t="str">
+      <c r="U20" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1743</v>
       </c>
@@ -8876,49 +8978,52 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E21" t="s">
         <v>421</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" t="s">
         <v>422</v>
       </c>
-      <c r="F21" t="s">
-        <v>408</v>
-      </c>
-      <c r="G21" t="s">
-        <v>423</v>
-      </c>
       <c r="H21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M21" t="str">
+      <c r="L21" t="s">
+        <v>406</v>
+      </c>
+      <c r="N21" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O21" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q21" t="str">
+        <f>IF(LEFT(N21,2)="T1","T2- TOP RIGHT",IF(LEFT(N21,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N21,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="str">
+      <c r="R21" s="2"/>
+      <c r="S21" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S21" t="str">
+      <c r="U21" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1745</v>
       </c>
@@ -8926,49 +9031,52 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" t="s">
         <v>422</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="E22" t="s">
-        <v>423</v>
-      </c>
       <c r="F22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G22" t="s">
+        <v>420</v>
+      </c>
+      <c r="H22" t="s">
+        <v>405</v>
+      </c>
+      <c r="I22" t="s">
         <v>421</v>
-      </c>
-      <c r="H22" t="s">
-        <v>406</v>
-      </c>
-      <c r="I22" t="s">
-        <v>422</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M22" t="str">
+      <c r="L22" t="s">
+        <v>413</v>
+      </c>
+      <c r="N22" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q22" t="str">
+        <f>IF(LEFT(N22,2)="T1","T2- TOP RIGHT",IF(LEFT(N22,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N22,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="str">
+      <c r="R22" s="2"/>
+      <c r="S22" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S22" t="str">
+      <c r="U22" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1747</v>
       </c>
@@ -8976,49 +9084,52 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" t="s">
         <v>421</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G23" t="s">
         <v>422</v>
       </c>
-      <c r="F23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G23" t="s">
-        <v>423</v>
-      </c>
       <c r="H23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M23" t="str">
+      <c r="L23" t="s">
+        <v>417</v>
+      </c>
+      <c r="N23" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O23" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q23" t="str">
+        <f>IF(LEFT(N23,2)="T1","T2- TOP RIGHT",IF(LEFT(N23,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N23,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="str">
+      <c r="R23" s="2"/>
+      <c r="S23" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S23" t="str">
+      <c r="U23" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1748</v>
       </c>
@@ -9026,49 +9137,52 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F24" t="s">
+        <v>409</v>
+      </c>
+      <c r="G24" t="s">
         <v>421</v>
       </c>
-      <c r="F24" t="s">
-        <v>410</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>407</v>
+      </c>
+      <c r="I24" t="s">
         <v>422</v>
-      </c>
-      <c r="H24" t="s">
-        <v>408</v>
-      </c>
-      <c r="I24" t="s">
-        <v>423</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M24" t="str">
+      <c r="L24" t="s">
+        <v>415</v>
+      </c>
+      <c r="N24" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O24" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q24" t="str">
+        <f>IF(LEFT(N24,2)="T1","T2- TOP RIGHT",IF(LEFT(N24,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N24,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="str">
+      <c r="R24" s="2"/>
+      <c r="S24" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S24" t="str">
+      <c r="U24" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1750</v>
       </c>
@@ -9076,46 +9190,49 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E25" t="s">
+        <v>420</v>
+      </c>
+      <c r="F25" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" t="s">
         <v>421</v>
       </c>
-      <c r="F25" t="s">
-        <v>408</v>
-      </c>
-      <c r="G25" t="s">
-        <v>422</v>
-      </c>
       <c r="I25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M25" t="str">
+      <c r="L25" t="s">
+        <v>416</v>
+      </c>
+      <c r="N25" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O25" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q25" t="str">
+        <f>IF(LEFT(N25,2)="T1","T2- TOP RIGHT",IF(LEFT(N25,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N25,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="str">
+      <c r="R25" s="2"/>
+      <c r="S25" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S25" t="str">
+      <c r="U25" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1751</v>
       </c>
@@ -9123,46 +9240,49 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E26" t="s">
         <v>422</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E26" t="s">
-        <v>423</v>
-      </c>
       <c r="F26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M26" t="str">
+      <c r="L26" t="s">
+        <v>413</v>
+      </c>
+      <c r="N26" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O26" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q26" t="str">
+        <f>IF(LEFT(N26,2)="T1","T2- TOP RIGHT",IF(LEFT(N26,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N26,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="str">
+      <c r="R26" s="2"/>
+      <c r="S26" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S26" t="str">
+      <c r="U26" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1752</v>
       </c>
@@ -9170,46 +9290,52 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E27" t="s">
         <v>421</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>472</v>
+      </c>
+      <c r="G27" t="s">
         <v>422</v>
       </c>
-      <c r="F27" t="s">
-        <v>473</v>
-      </c>
-      <c r="G27" t="s">
-        <v>423</v>
-      </c>
       <c r="I27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M27" t="str">
+      <c r="L27" t="s">
+        <v>412</v>
+      </c>
+      <c r="M27" t="s">
+        <v>485</v>
+      </c>
+      <c r="N27" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O27" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q27" t="str">
+        <f>IF(LEFT(N27,2)="T1","T2- TOP RIGHT",IF(LEFT(N27,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N27,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="str">
+      <c r="R27" s="2"/>
+      <c r="S27" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S27" t="str">
+      <c r="U27" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1753</v>
       </c>
@@ -9217,49 +9343,52 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" t="s">
         <v>422</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" t="s">
-        <v>423</v>
-      </c>
       <c r="F28" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G28" t="s">
+        <v>420</v>
+      </c>
+      <c r="H28" t="s">
+        <v>415</v>
+      </c>
+      <c r="I28" t="s">
         <v>421</v>
-      </c>
-      <c r="H28" t="s">
-        <v>416</v>
-      </c>
-      <c r="I28" t="s">
-        <v>422</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="M28" t="str">
+      <c r="L28" t="s">
+        <v>412</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="O28" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q28" t="str">
+        <f>IF(LEFT(N28,2)="T1","T2- TOP RIGHT",IF(LEFT(N28,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N28,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="str">
+      <c r="R28" s="2"/>
+      <c r="S28" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="S28" t="str">
+      <c r="U28" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1755</v>
       </c>
@@ -9267,46 +9396,49 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>420</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E29" t="s">
         <v>421</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>414</v>
+      </c>
+      <c r="G29" t="s">
         <v>422</v>
       </c>
-      <c r="F29" t="s">
-        <v>415</v>
-      </c>
-      <c r="G29" t="s">
-        <v>423</v>
-      </c>
       <c r="I29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M29" t="str">
+      <c r="L29" t="s">
+        <v>405</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O29" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q29" t="str">
+        <f>IF(LEFT(N29,2)="T1","T2- TOP RIGHT",IF(LEFT(N29,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N29,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="str">
+      <c r="R29" s="2"/>
+      <c r="S29" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S29" t="str">
+      <c r="U29" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1757</v>
       </c>
@@ -9314,52 +9446,55 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>420</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" t="s">
         <v>421</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>413</v>
+      </c>
+      <c r="G30" t="s">
+        <v>422</v>
+      </c>
+      <c r="H30" t="s">
         <v>412</v>
       </c>
-      <c r="E30" t="s">
-        <v>422</v>
-      </c>
-      <c r="F30" t="s">
-        <v>414</v>
-      </c>
-      <c r="G30" t="s">
-        <v>423</v>
-      </c>
-      <c r="H30" t="s">
-        <v>413</v>
-      </c>
       <c r="I30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="M30" t="str">
+      <c r="L30" t="s">
+        <v>414</v>
+      </c>
+      <c r="N30" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="O30" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q30" t="str">
+        <f>IF(LEFT(N30,2)="T1","T2- TOP RIGHT",IF(LEFT(N30,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N30,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="str">
+      <c r="R30" s="2"/>
+      <c r="S30" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="S30" t="str">
+      <c r="U30" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1758</v>
       </c>
@@ -9367,49 +9502,52 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E31" t="s">
+        <v>420</v>
+      </c>
+      <c r="F31" t="s">
+        <v>415</v>
+      </c>
+      <c r="G31" t="s">
         <v>421</v>
       </c>
-      <c r="F31" t="s">
-        <v>416</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>408</v>
+      </c>
+      <c r="I31" t="s">
         <v>422</v>
-      </c>
-      <c r="H31" t="s">
-        <v>409</v>
-      </c>
-      <c r="I31" t="s">
-        <v>423</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M31" t="str">
+      <c r="L31" t="s">
+        <v>479</v>
+      </c>
+      <c r="N31" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O31" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q31" t="str">
+        <f>IF(LEFT(N31,2)="T1","T2- TOP RIGHT",IF(LEFT(N31,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N31,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="str">
+      <c r="R31" s="2"/>
+      <c r="S31" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S31" t="str">
+      <c r="U31" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1759</v>
       </c>
@@ -9417,57 +9555,60 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E32" t="s">
+        <v>420</v>
+      </c>
+      <c r="F32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G32" t="s">
         <v>421</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>408</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>422</v>
-      </c>
-      <c r="H32" t="s">
-        <v>409</v>
-      </c>
-      <c r="I32" t="s">
-        <v>423</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="M32" t="str">
+      <c r="L32" t="s">
+        <v>415</v>
+      </c>
+      <c r="N32" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="O32" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q32" t="str">
+        <f>IF(LEFT(N32,2)="T1","T2- TOP RIGHT",IF(LEFT(N32,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N32,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="str">
+      <c r="R32" s="2"/>
+      <c r="S32" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="S32" t="str">
+      <c r="U32" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ref="J35:J36" si="3">RIGHT(I35)</f>
@@ -9510,16 +9651,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -9540,7 +9681,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9564,7 +9705,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9588,7 +9729,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -9612,7 +9753,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -9636,7 +9777,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -9660,7 +9801,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -9684,7 +9825,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -9708,7 +9849,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -9732,7 +9873,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9756,7 +9897,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9780,7 +9921,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -9804,7 +9945,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -9828,7 +9969,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -9852,7 +9993,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -9876,7 +10017,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -9900,7 +10041,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -9924,7 +10065,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9948,7 +10089,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -9972,7 +10113,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -9996,7 +10137,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -10020,7 +10161,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -10044,7 +10185,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -10068,7 +10209,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10092,7 +10233,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -10116,7 +10257,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -10140,7 +10281,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -10164,7 +10305,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -10188,7 +10329,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -10212,7 +10353,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -10236,7 +10377,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -10260,7 +10401,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10284,7 +10425,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -10308,7 +10449,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -10332,7 +10473,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -10356,7 +10497,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -10380,7 +10521,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10404,7 +10545,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -10428,7 +10569,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -10452,7 +10593,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -10476,7 +10617,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -10500,7 +10641,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -10524,7 +10665,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -10548,7 +10689,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -10572,7 +10713,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -10596,7 +10737,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -10620,7 +10761,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -10644,7 +10785,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -10662,7 +10803,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -10680,7 +10821,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -10698,7 +10839,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -10716,7 +10857,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -10734,7 +10875,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -10752,7 +10893,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -10770,7 +10911,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -10788,7 +10929,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -10806,7 +10947,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -10824,7 +10965,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -10842,7 +10983,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -10860,7 +11001,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -10878,7 +11019,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -10896,7 +11037,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -10914,7 +11055,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -10932,7 +11073,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -10950,7 +11091,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -10968,7 +11109,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -10986,7 +11127,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -11004,7 +11145,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -11022,7 +11163,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -11040,7 +11181,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -11058,7 +11199,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -11076,7 +11217,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -11094,7 +11235,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -11112,7 +11253,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -11130,7 +11271,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -11148,7 +11289,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -11166,7 +11307,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -11184,7 +11325,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -11202,7 +11343,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -11220,7 +11361,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -11238,7 +11379,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -11256,7 +11397,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -11274,7 +11415,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -11292,7 +11433,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -11310,7 +11451,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -11328,7 +11469,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -11346,7 +11487,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -11364,7 +11505,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -11382,7 +11523,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -11400,7 +11541,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -11418,7 +11559,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -11436,7 +11577,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -11454,7 +11595,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -11472,7 +11613,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -11490,7 +11631,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11508,7 +11649,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -11526,7 +11667,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -11544,7 +11685,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -11562,7 +11703,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -11580,7 +11721,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -11598,7 +11739,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -11616,7 +11757,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -11634,7 +11775,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -11652,7 +11793,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -11670,7 +11811,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -11688,7 +11829,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -11706,7 +11847,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -11724,7 +11865,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -11742,7 +11883,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -11760,7 +11901,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -11778,7 +11919,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -11796,7 +11937,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -11814,7 +11955,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -11832,7 +11973,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -11850,7 +11991,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -11868,7 +12009,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -11886,7 +12027,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -11904,7 +12045,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -11922,7 +12063,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -11940,7 +12081,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -11958,7 +12099,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -11976,7 +12117,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -11994,7 +12135,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -12012,7 +12153,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -12030,7 +12171,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -12048,7 +12189,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -12066,7 +12207,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -12084,7 +12225,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -12102,7 +12243,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -12120,7 +12261,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -12138,7 +12279,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -12156,7 +12297,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -12174,7 +12315,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -12192,7 +12333,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -12210,7 +12351,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -12228,7 +12369,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -12246,7 +12387,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -12264,7 +12405,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -12282,7 +12423,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -12300,7 +12441,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -12318,7 +12459,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -12336,7 +12477,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -12354,7 +12495,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -12372,7 +12513,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -12390,7 +12531,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -12408,7 +12549,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -12426,7 +12567,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -12444,7 +12585,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -12462,7 +12603,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -12480,7 +12621,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -12498,7 +12639,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -12516,7 +12657,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -12534,7 +12675,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -12552,7 +12693,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -12570,7 +12711,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -12588,7 +12729,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -12606,7 +12747,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -12624,7 +12765,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -12642,7 +12783,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -12660,7 +12801,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -12678,7 +12819,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -12696,7 +12837,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -12714,7 +12855,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -12732,7 +12873,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -12750,7 +12891,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -12768,7 +12909,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -12786,7 +12927,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -12804,7 +12945,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -12822,7 +12963,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -12840,7 +12981,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -12858,7 +12999,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -12876,7 +13017,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -12894,7 +13035,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -12912,7 +13053,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -12930,7 +13071,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -12948,7 +13089,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -12966,7 +13107,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -12984,7 +13125,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -13002,7 +13143,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -13020,7 +13161,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -13038,7 +13179,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -13056,7 +13197,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -13074,7 +13215,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -13092,7 +13233,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -13110,7 +13251,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -13128,7 +13269,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -13146,7 +13287,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -13164,7 +13305,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -13182,7 +13323,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -13200,7 +13341,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -13218,7 +13359,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -13236,7 +13377,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -13254,7 +13395,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -13272,7 +13413,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -13290,7 +13431,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -13308,7 +13449,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -13326,7 +13467,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -13344,7 +13485,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -13362,7 +13503,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -13380,7 +13521,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -13398,7 +13539,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -13416,7 +13557,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -13434,7 +13575,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -13452,7 +13593,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -13470,7 +13611,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -13488,7 +13629,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -13506,7 +13647,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -13524,7 +13665,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -13542,7 +13683,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -13560,7 +13701,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -13578,7 +13719,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -13596,7 +13737,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -13614,7 +13755,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -13632,7 +13773,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -13650,7 +13791,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -13668,7 +13809,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -13686,7 +13827,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -13704,7 +13845,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -13722,7 +13863,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -13740,7 +13881,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -13758,7 +13899,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -13776,7 +13917,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -13794,7 +13935,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -13812,7 +13953,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -13830,7 +13971,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -13848,7 +13989,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -13866,7 +14007,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -13884,7 +14025,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -13902,7 +14043,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -13920,7 +14061,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -13938,7 +14079,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -13956,7 +14097,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -13974,7 +14115,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -13992,7 +14133,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -14010,7 +14151,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -14028,7 +14169,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -14046,7 +14187,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -14064,7 +14205,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -14082,7 +14223,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -14100,7 +14241,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -14118,7 +14259,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -14136,7 +14277,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -14154,7 +14295,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -14172,7 +14313,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -14190,7 +14331,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -14208,7 +14349,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -14226,7 +14367,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -14244,7 +14385,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -14262,7 +14403,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -14280,7 +14421,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -14298,7 +14439,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -14316,7 +14457,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -14334,7 +14475,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -14352,7 +14493,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -14370,7 +14511,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -14388,7 +14529,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -14406,7 +14547,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -14424,7 +14565,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -14442,7 +14583,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -14460,7 +14601,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -14478,7 +14619,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -14496,7 +14637,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -14514,7 +14655,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -14532,7 +14673,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -14550,7 +14691,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -14568,7 +14709,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -14586,7 +14727,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -14604,7 +14745,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -14622,7 +14763,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -14640,7 +14781,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -14658,7 +14799,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -14676,7 +14817,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -14694,7 +14835,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -14712,7 +14853,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -14730,7 +14871,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -14748,7 +14889,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -14766,7 +14907,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -14784,7 +14925,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -14802,7 +14943,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -14820,7 +14961,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -14838,7 +14979,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -14856,7 +14997,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -14874,7 +15015,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -14892,7 +15033,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -14910,7 +15051,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -14928,7 +15069,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -14946,7 +15087,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -14964,7 +15105,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -14982,7 +15123,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -15000,7 +15141,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -15018,7 +15159,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -15036,7 +15177,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -15054,7 +15195,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -15072,7 +15213,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -15090,7 +15231,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -15108,7 +15249,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -15126,7 +15267,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -15144,7 +15285,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -15162,7 +15303,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -15180,7 +15321,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -15198,7 +15339,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -15216,7 +15357,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -15234,7 +15375,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -15252,7 +15393,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -15270,7 +15411,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -15288,7 +15429,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -15306,7 +15447,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -15324,7 +15465,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -15342,7 +15483,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -15360,7 +15501,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -15378,7 +15519,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -15396,7 +15537,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -15414,7 +15555,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -15432,7 +15573,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -15450,7 +15591,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -15468,7 +15609,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -15486,7 +15627,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -15504,7 +15645,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -15522,7 +15663,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -15540,7 +15681,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -15558,7 +15699,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -15576,7 +15717,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -15594,7 +15735,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -15612,7 +15753,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -15630,7 +15771,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -15648,7 +15789,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -15666,7 +15807,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -15684,7 +15825,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -15702,7 +15843,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -15720,7 +15861,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -15738,7 +15879,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -15756,7 +15897,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -15774,7 +15915,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -15792,7 +15933,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -15810,7 +15951,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -15828,7 +15969,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -15846,7 +15987,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -15864,7 +16005,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -15882,7 +16023,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -15900,7 +16041,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -15918,7 +16059,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E341">
         <v>8</v>
@@ -15947,16 +16088,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -15971,7 +16112,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -15989,7 +16130,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -16007,7 +16148,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -16025,7 +16166,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -16043,7 +16184,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -16061,7 +16202,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -16079,7 +16220,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -16097,7 +16238,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -16115,7 +16256,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16133,7 +16274,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -16151,7 +16292,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -16169,7 +16310,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -16187,7 +16328,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -16205,7 +16346,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -16223,7 +16364,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -16241,7 +16382,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -16259,7 +16400,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -16277,7 +16418,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -16295,7 +16436,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -16313,7 +16454,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -16331,7 +16472,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -16349,7 +16490,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -16367,7 +16508,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -16385,7 +16526,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -16403,7 +16544,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -16421,7 +16562,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -16439,7 +16580,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -16457,7 +16598,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -16475,7 +16616,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -16493,7 +16634,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -16511,7 +16652,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -16529,7 +16670,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -16547,7 +16688,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -16565,7 +16706,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -16583,7 +16724,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -16601,7 +16742,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -16619,7 +16760,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -16637,7 +16778,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -16655,7 +16796,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -16673,7 +16814,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -16691,7 +16832,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -16709,7 +16850,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -16727,7 +16868,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -16745,7 +16886,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -16763,7 +16904,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -16781,7 +16922,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -16799,7 +16940,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -16817,7 +16958,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -16835,7 +16976,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -16853,7 +16994,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -16871,7 +17012,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -16889,7 +17030,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -16907,7 +17048,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -16925,7 +17066,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -16943,7 +17084,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -16961,7 +17102,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -16979,7 +17120,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -16997,7 +17138,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -17015,7 +17156,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -17033,7 +17174,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -17051,7 +17192,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -17069,7 +17210,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -17087,7 +17228,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -17105,7 +17246,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -17123,7 +17264,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -17141,7 +17282,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -17159,7 +17300,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -17177,7 +17318,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -17195,7 +17336,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -17213,7 +17354,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -17231,7 +17372,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -17249,7 +17390,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -17267,7 +17408,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -17285,7 +17426,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -17303,7 +17444,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -17321,7 +17462,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -17339,7 +17480,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -17357,7 +17498,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -17375,7 +17516,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -17393,7 +17534,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -17411,7 +17552,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -17429,7 +17570,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -17447,7 +17588,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -17465,7 +17606,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -17483,7 +17624,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -17501,7 +17642,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -17519,7 +17660,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -17537,7 +17678,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -17555,7 +17696,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -17573,7 +17714,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -17591,7 +17732,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -17609,7 +17750,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -17627,7 +17768,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -17645,7 +17786,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -17663,7 +17804,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -17681,7 +17822,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -17699,7 +17840,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -17717,7 +17858,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -17735,7 +17876,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -17753,7 +17894,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -17771,7 +17912,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -17789,7 +17930,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -17807,7 +17948,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -17825,7 +17966,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -17843,7 +17984,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -17861,7 +18002,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -17879,7 +18020,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -17897,7 +18038,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -17915,7 +18056,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -17933,7 +18074,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -17951,7 +18092,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -17969,7 +18110,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -17987,7 +18128,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -18005,7 +18146,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -18023,7 +18164,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -18041,7 +18182,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -18059,7 +18200,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -18077,7 +18218,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -18095,7 +18236,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -18113,7 +18254,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -18131,7 +18272,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -18149,7 +18290,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -18167,7 +18308,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -18185,7 +18326,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -18203,7 +18344,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -18221,7 +18362,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -18239,7 +18380,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -18257,7 +18398,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -18275,7 +18416,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -18293,7 +18434,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -18311,7 +18452,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -18329,7 +18470,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -18347,7 +18488,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -18365,7 +18506,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -18383,7 +18524,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -18401,7 +18542,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -18419,7 +18560,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -18437,7 +18578,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -18455,7 +18596,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -18473,7 +18614,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -18491,7 +18632,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -18509,7 +18650,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -18527,7 +18668,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -18545,7 +18686,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -18563,7 +18704,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -18581,7 +18722,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -18599,7 +18740,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -18617,7 +18758,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -18635,7 +18776,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -18653,7 +18794,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -18671,7 +18812,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -18689,7 +18830,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -18707,7 +18848,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -18725,7 +18866,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -18743,7 +18884,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -18761,7 +18902,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -18779,7 +18920,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -18797,7 +18938,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -18815,7 +18956,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -18833,7 +18974,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -18851,7 +18992,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -18869,7 +19010,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -18887,7 +19028,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -18905,7 +19046,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -18923,7 +19064,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -18941,7 +19082,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -18959,7 +19100,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -18977,7 +19118,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -18995,7 +19136,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -19013,7 +19154,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -19031,7 +19172,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -19049,7 +19190,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -19067,7 +19208,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -19085,7 +19226,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -19103,7 +19244,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -19121,7 +19262,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -19139,7 +19280,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -19157,7 +19298,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -19175,7 +19316,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -19193,7 +19334,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -19211,7 +19352,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -19229,7 +19370,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -19247,7 +19388,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -19265,7 +19406,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -19283,7 +19424,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -19301,7 +19442,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -19319,7 +19460,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -19337,7 +19478,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -19355,7 +19496,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -19373,7 +19514,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -19391,7 +19532,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -19409,7 +19550,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -19427,7 +19568,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -19445,7 +19586,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -19463,7 +19604,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -19481,7 +19622,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -19499,7 +19640,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -19517,7 +19658,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -19535,7 +19676,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -19553,7 +19694,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -19571,7 +19712,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -19589,7 +19730,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -19607,7 +19748,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -19625,7 +19766,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -19643,7 +19784,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -19661,7 +19802,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -19679,7 +19820,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -19697,7 +19838,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -19715,7 +19856,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -19733,7 +19874,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -19751,7 +19892,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -19769,7 +19910,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -19787,7 +19928,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -19805,7 +19946,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -19823,7 +19964,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -19841,7 +19982,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -19859,7 +20000,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -19877,7 +20018,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -19895,7 +20036,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -19913,7 +20054,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -19931,7 +20072,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -19949,7 +20090,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -19967,7 +20108,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -19985,7 +20126,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -20003,7 +20144,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -20021,7 +20162,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -20039,7 +20180,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -20057,7 +20198,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -20075,7 +20216,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -20093,7 +20234,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -20111,7 +20252,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -20129,7 +20270,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -20147,7 +20288,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -20165,7 +20306,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -20183,7 +20324,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -20201,7 +20342,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -20219,7 +20360,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -20237,7 +20378,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -20255,7 +20396,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -20273,7 +20414,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -20291,7 +20432,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -20309,7 +20450,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -20327,7 +20468,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -20345,7 +20486,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -20363,7 +20504,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -20381,7 +20522,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -20399,7 +20540,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -20417,7 +20558,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -20435,7 +20576,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -20453,7 +20594,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -20471,7 +20612,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -20489,7 +20630,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -20507,7 +20648,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -20525,7 +20666,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -20543,7 +20684,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -20561,7 +20702,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -20579,7 +20720,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -20597,7 +20738,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -20615,7 +20756,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -20633,7 +20774,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -20651,7 +20792,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -20669,7 +20810,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -20687,7 +20828,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -20705,7 +20846,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -20723,7 +20864,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -20741,7 +20882,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -20759,7 +20900,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -20777,7 +20918,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -20795,7 +20936,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -20813,7 +20954,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -20831,7 +20972,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -20849,7 +20990,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -20867,7 +21008,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -20885,7 +21026,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -20903,7 +21044,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -20921,7 +21062,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -20939,7 +21080,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -20957,7 +21098,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -20975,7 +21116,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -20993,7 +21134,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -21011,7 +21152,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -21029,7 +21170,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -21047,7 +21188,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -21065,7 +21206,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -21083,7 +21224,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -21101,7 +21242,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -21119,7 +21260,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -21137,7 +21278,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -21155,7 +21296,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -21173,7 +21314,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -21191,7 +21332,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -21209,7 +21350,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -21227,7 +21368,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -21245,7 +21386,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -21263,7 +21404,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -21281,7 +21422,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -21299,7 +21440,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -21317,7 +21458,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -21335,7 +21476,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -21353,7 +21494,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -21371,7 +21512,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -21389,7 +21530,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -21407,7 +21548,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -21425,7 +21566,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -21443,7 +21584,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -21461,7 +21602,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -21479,7 +21620,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -21497,7 +21638,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -21515,7 +21656,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -21533,7 +21674,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -21551,7 +21692,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -21569,7 +21710,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -21587,7 +21728,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -21605,7 +21746,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -21623,7 +21764,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -21641,7 +21782,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -21659,7 +21800,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -21677,7 +21818,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -21695,7 +21836,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -21713,7 +21854,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -21731,7 +21872,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -21749,7 +21890,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -21767,7 +21908,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -21785,7 +21926,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -21803,7 +21944,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -21821,7 +21962,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -21839,7 +21980,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -21857,7 +21998,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -21875,7 +22016,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -21893,7 +22034,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -21911,7 +22052,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -21929,7 +22070,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -21947,7 +22088,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -21965,7 +22106,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -21983,7 +22124,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -22001,7 +22142,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -22019,7 +22160,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -22037,7 +22178,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -22055,7 +22196,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -22073,7 +22214,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E341">
         <v>8</v>

--- a/Data/22052017_initialIpam/Processed/Summary.xlsx
+++ b/Data/22052017_initialIpam/Processed/Summary.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="496">
   <si>
     <t>Picture</t>
   </si>
@@ -1244,9 +1244,6 @@
     <t>Initial Frag Count</t>
   </si>
   <si>
-    <t>Time 5</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -1490,9 +1487,6 @@
     <t>LABELED AS A</t>
   </si>
   <si>
-    <t>Time 4  21/06/2017 @ 11:30</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1503,16 +1497,53 @@
   </si>
   <si>
     <t xml:space="preserve"> T4 11:30 21/06</t>
+  </si>
+  <si>
+    <t>Time 4  22/06/2017 @ 11:30</t>
+  </si>
+  <si>
+    <t>Time 5 24/06/2017</t>
+  </si>
+  <si>
+    <t>FROM T3</t>
+  </si>
+  <si>
+    <t>WAIT FOR DECLINE</t>
+  </si>
+  <si>
+    <t>During T5 @ 15:00 24/06/2017</t>
+  </si>
+  <si>
+    <t>25/06/2017 @ 13:40 From T3 No N2 Available</t>
+  </si>
+  <si>
+    <t>25/06/2017 @ 13:40 From T1 No N2 Available</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1556,8 +1587,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1566,7 +1599,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
@@ -2005,7 +2040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA341"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AZ3" sqref="AZ3:BB16"/>
     </sheetView>
   </sheetViews>
@@ -7888,13 +7923,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18:P18"/>
+      <selection pane="bottomRight" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7903,7 +7938,7 @@
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -7911,67 +7946,73 @@
         <v>403</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" t="s">
+        <v>489</v>
+      </c>
+      <c r="L1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N1" t="s">
+        <v>490</v>
+      </c>
+      <c r="O1" t="s">
+        <v>417</v>
+      </c>
+      <c r="P1" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q1" t="s">
         <v>474</v>
       </c>
-      <c r="F1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I1" t="s">
-        <v>481</v>
-      </c>
-      <c r="J1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K1" t="s">
-        <v>486</v>
-      </c>
-      <c r="L1" t="s">
-        <v>418</v>
-      </c>
-      <c r="M1" t="s">
-        <v>487</v>
-      </c>
-      <c r="N1" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" t="s">
-        <v>418</v>
-      </c>
-      <c r="P1" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>417</v>
+      </c>
+      <c r="S1" t="s">
+        <v>485</v>
+      </c>
+      <c r="T1" t="s">
         <v>475</v>
       </c>
-      <c r="R1" t="s">
-        <v>418</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
+        <v>417</v>
+      </c>
+      <c r="V1" t="s">
+        <v>485</v>
+      </c>
+      <c r="W1" t="s">
         <v>476</v>
       </c>
-      <c r="T1" t="s">
-        <v>418</v>
-      </c>
-      <c r="U1" t="s">
-        <v>477</v>
-      </c>
-      <c r="V1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1721</v>
       </c>
@@ -7979,64 +8020,69 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G2" t="s">
         <v>421</v>
       </c>
-      <c r="F2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" t="s">
-        <v>422</v>
-      </c>
       <c r="H2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K2" t="str">
         <f>IF(LEFT(I2,2)="T1","T2- TOP RIGHT",IF(LEFT(I2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N2" t="str">
         <f>IF(LEFT(K2,2)="T1","T2- TOP RIGHT",IF(LEFT(K2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="O2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q2" t="str">
         <f>IF(LEFT(N2,2)="T1","T2- TOP RIGHT",IF(LEFT(N2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" t="str">
+      <c r="R2" t="s">
+        <v>407</v>
+      </c>
+      <c r="S2" t="s">
+        <v>493</v>
+      </c>
+      <c r="T2" t="str">
         <f>IF(LEFT(Q2,2)="T1","T2- TOP RIGHT",IF(LEFT(Q2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(Q2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U2" t="str">
-        <f>IF(LEFT(S2,2)="T1","T2- TOP RIGHT",IF(LEFT(S2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(S2,2)="T3","T1- TOP LEFT",)))</f>
+      <c r="W2" t="str">
+        <f>IF(LEFT(T2,2)="T1","T2- TOP RIGHT",IF(LEFT(T2,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T2,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1722</v>
       </c>
@@ -8044,52 +8090,54 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" t="s">
         <v>421</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E3" t="s">
-        <v>422</v>
-      </c>
       <c r="F3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" t="s">
+        <v>404</v>
+      </c>
+      <c r="I3" t="s">
         <v>420</v>
-      </c>
-      <c r="H3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I3" t="s">
-        <v>421</v>
       </c>
       <c r="K3" t="str">
         <f t="shared" ref="K3:K32" si="0">IF(LEFT(I3,2)="T1","T2- TOP RIGHT",IF(LEFT(I3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(I3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N3" t="str">
         <f t="shared" ref="N3:N32" si="1">IF(LEFT(K3,2)="T1","T2- TOP RIGHT",IF(LEFT(K3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(K3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O3" t="s">
+        <v>407</v>
+      </c>
       <c r="Q3" t="str">
         <f>IF(LEFT(N3,2)="T1","T2- TOP RIGHT",IF(LEFT(N3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" t="str">
-        <f t="shared" ref="S3:U32" si="2">IF(LEFT(Q3,2)="T1","T2- TOP RIGHT",IF(LEFT(Q3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(Q3,2)="T3","T1- TOP LEFT",)))</f>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T32" si="2">IF(LEFT(Q3,2)="T1","T2- TOP RIGHT",IF(LEFT(Q3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(Q3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U3" t="str">
-        <f t="shared" si="2"/>
+      <c r="W3" t="str">
+        <f>IF(LEFT(T3,2)="T1","T2- TOP RIGHT",IF(LEFT(T3,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T3,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1723</v>
       </c>
@@ -8097,52 +8145,57 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" t="s">
         <v>420</v>
       </c>
-      <c r="F4" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" t="s">
-        <v>421</v>
-      </c>
       <c r="I4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K4" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O4" t="s">
+        <v>472</v>
+      </c>
+      <c r="P4" t="s">
+        <v>491</v>
+      </c>
       <c r="Q4" t="str">
         <f>IF(LEFT(N4,2)="T1","T2- TOP RIGHT",IF(LEFT(N4,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N4,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U4" t="str">
-        <f t="shared" si="2"/>
+      <c r="W4" t="str">
+        <f>IF(LEFT(T4,2)="T1","T2- TOP RIGHT",IF(LEFT(T4,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T4,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1725</v>
       </c>
@@ -8150,49 +8203,51 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="s">
         <v>420</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" t="s">
         <v>421</v>
       </c>
-      <c r="F5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G5" t="s">
-        <v>422</v>
-      </c>
       <c r="I5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K5" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="P5" t="s">
+        <v>492</v>
+      </c>
       <c r="Q5" t="str">
         <f>IF(LEFT(N5,2)="T1","T2- TOP RIGHT",IF(LEFT(N5,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N5,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U5" t="str">
-        <f t="shared" si="2"/>
+      <c r="W5" t="str">
+        <f>IF(LEFT(T5,2)="T1","T2- TOP RIGHT",IF(LEFT(T5,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T5,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1726</v>
       </c>
@@ -8200,49 +8255,51 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" t="s">
         <v>420</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" t="s">
         <v>421</v>
       </c>
-      <c r="F6" t="s">
-        <v>417</v>
-      </c>
-      <c r="G6" t="s">
-        <v>422</v>
-      </c>
       <c r="I6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="P6" t="s">
+        <v>492</v>
+      </c>
       <c r="Q6" t="str">
         <f>IF(LEFT(N6,2)="T1","T2- TOP RIGHT",IF(LEFT(N6,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N6,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U6" t="str">
-        <f t="shared" si="2"/>
+      <c r="W6" t="str">
+        <f>IF(LEFT(T6,2)="T1","T2- TOP RIGHT",IF(LEFT(T6,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T6,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1727</v>
       </c>
@@ -8250,52 +8307,54 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G7" t="s">
         <v>420</v>
       </c>
-      <c r="F7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>405</v>
+      </c>
+      <c r="I7" t="s">
         <v>421</v>
-      </c>
-      <c r="H7" t="s">
-        <v>406</v>
-      </c>
-      <c r="I7" t="s">
-        <v>422</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O7" t="s">
+        <v>416</v>
+      </c>
       <c r="Q7" t="str">
         <f>IF(LEFT(N7,2)="T1","T2- TOP RIGHT",IF(LEFT(N7,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N7,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U7" t="str">
-        <f t="shared" si="2"/>
+      <c r="W7" t="str">
+        <f>IF(LEFT(T7,2)="T1","T2- TOP RIGHT",IF(LEFT(T7,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T7,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1728</v>
       </c>
@@ -8303,55 +8362,57 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" t="s">
         <v>421</v>
       </c>
-      <c r="F8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G8" t="s">
-        <v>422</v>
-      </c>
       <c r="H8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O8" t="s">
+        <v>414</v>
+      </c>
       <c r="Q8" t="str">
         <f>IF(LEFT(N8,2)="T1","T2- TOP RIGHT",IF(LEFT(N8,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N8,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R8" s="2"/>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U8" t="str">
-        <f t="shared" si="2"/>
+      <c r="W8" t="str">
+        <f>IF(LEFT(T8,2)="T1","T2- TOP RIGHT",IF(LEFT(T8,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T8,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1729</v>
       </c>
@@ -8359,52 +8420,54 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E9" t="s">
         <v>421</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E9" t="s">
-        <v>422</v>
-      </c>
       <c r="F9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O9" t="s">
+        <v>408</v>
+      </c>
       <c r="Q9" t="str">
         <f>IF(LEFT(N9,2)="T1","T2- TOP RIGHT",IF(LEFT(N9,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N9,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R9" s="2"/>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U9" t="str">
-        <f t="shared" si="2"/>
+      <c r="W9" t="str">
+        <f>IF(LEFT(T9,2)="T1","T2- TOP RIGHT",IF(LEFT(T9,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T9,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1730</v>
       </c>
@@ -8427,17 +8490,16 @@
         <f>IF(LEFT(N10,2)="T1","T2- TOP RIGHT",IF(LEFT(N10,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N10,2)="T3","T1- TOP LEFT",)))</f>
         <v>0</v>
       </c>
-      <c r="R10" s="3"/>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="2"/>
+      <c r="W10">
+        <f>IF(LEFT(T10,2)="T1","T2- TOP RIGHT",IF(LEFT(T10,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T10,2)="T3","T1- TOP LEFT",)))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1731</v>
       </c>
@@ -8445,52 +8507,54 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F11" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" t="s">
         <v>420</v>
       </c>
-      <c r="F11" t="s">
-        <v>413</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>411</v>
+      </c>
+      <c r="I11" t="s">
         <v>421</v>
-      </c>
-      <c r="H11" t="s">
-        <v>412</v>
-      </c>
-      <c r="I11" t="s">
-        <v>422</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O11" t="s">
+        <v>407</v>
+      </c>
       <c r="Q11" t="str">
         <f>IF(LEFT(N11,2)="T1","T2- TOP RIGHT",IF(LEFT(N11,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N11,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R11" s="2"/>
-      <c r="S11" t="str">
+      <c r="T11" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U11" t="str">
-        <f t="shared" si="2"/>
+      <c r="W11" t="str">
+        <f>IF(LEFT(T11,2)="T1","T2- TOP RIGHT",IF(LEFT(T11,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T11,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1732</v>
       </c>
@@ -8498,52 +8562,60 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" t="s">
         <v>420</v>
       </c>
-      <c r="F12" t="s">
-        <v>406</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I12" t="s">
         <v>421</v>
-      </c>
-      <c r="H12" t="s">
-        <v>409</v>
-      </c>
-      <c r="I12" t="s">
-        <v>422</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O12" t="s">
+        <v>415</v>
+      </c>
       <c r="Q12" t="str">
         <f>IF(LEFT(N12,2)="T1","T2- TOP RIGHT",IF(LEFT(N12,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N12,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" t="str">
+      <c r="R12" t="s">
+        <v>413</v>
+      </c>
+      <c r="S12" t="s">
+        <v>494</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U12" t="str">
-        <f t="shared" si="2"/>
+      <c r="W12" t="str">
+        <f>IF(LEFT(T12,2)="T1","T2- TOP RIGHT",IF(LEFT(T12,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T12,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1733</v>
       </c>
@@ -8551,49 +8623,51 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" t="s">
         <v>420</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>412</v>
+      </c>
+      <c r="G13" t="s">
         <v>421</v>
       </c>
-      <c r="F13" t="s">
-        <v>413</v>
-      </c>
-      <c r="G13" t="s">
-        <v>422</v>
-      </c>
       <c r="I13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O13" t="s">
+        <v>478</v>
+      </c>
       <c r="Q13" t="str">
         <f>IF(LEFT(N13,2)="T1","T2- TOP RIGHT",IF(LEFT(N13,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N13,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R13" s="2"/>
-      <c r="S13" t="str">
+      <c r="T13" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U13" t="str">
-        <f t="shared" si="2"/>
+      <c r="W13" t="str">
+        <f>IF(LEFT(T13,2)="T1","T2- TOP RIGHT",IF(LEFT(T13,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T13,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1734</v>
       </c>
@@ -8601,52 +8675,60 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" t="s">
+        <v>419</v>
+      </c>
+      <c r="F14" t="s">
+        <v>409</v>
+      </c>
+      <c r="G14" t="s">
         <v>420</v>
       </c>
-      <c r="F14" t="s">
-        <v>410</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>416</v>
+      </c>
+      <c r="I14" t="s">
         <v>421</v>
-      </c>
-      <c r="H14" t="s">
-        <v>417</v>
-      </c>
-      <c r="I14" t="s">
-        <v>422</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O14" t="s">
+        <v>406</v>
+      </c>
       <c r="Q14" t="str">
         <f>IF(LEFT(N14,2)="T1","T2- TOP RIGHT",IF(LEFT(N14,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N14,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R14" s="2"/>
-      <c r="S14" t="str">
+      <c r="R14" t="s">
+        <v>407</v>
+      </c>
+      <c r="S14" t="s">
+        <v>495</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U14" t="str">
-        <f t="shared" si="2"/>
+      <c r="W14" t="str">
+        <f>IF(LEFT(T14,2)="T1","T2- TOP RIGHT",IF(LEFT(T14,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T14,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1735</v>
       </c>
@@ -8654,52 +8736,54 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E15" t="s">
         <v>421</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E15" t="s">
-        <v>422</v>
-      </c>
       <c r="F15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
+        <v>419</v>
+      </c>
+      <c r="H15" t="s">
+        <v>405</v>
+      </c>
+      <c r="I15" t="s">
         <v>420</v>
-      </c>
-      <c r="H15" t="s">
-        <v>406</v>
-      </c>
-      <c r="I15" t="s">
-        <v>421</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O15" t="s">
+        <v>478</v>
+      </c>
       <c r="Q15" t="str">
         <f>IF(LEFT(N15,2)="T1","T2- TOP RIGHT",IF(LEFT(N15,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N15,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R15" s="2"/>
-      <c r="S15" t="str">
+      <c r="T15" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U15" t="str">
-        <f t="shared" si="2"/>
+      <c r="W15" t="str">
+        <f>IF(LEFT(T15,2)="T1","T2- TOP RIGHT",IF(LEFT(T15,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T15,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1736</v>
       </c>
@@ -8707,52 +8791,54 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E16" t="s">
         <v>421</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" t="s">
-        <v>422</v>
-      </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O16" t="s">
+        <v>406</v>
+      </c>
       <c r="Q16" t="str">
         <f>IF(LEFT(N16,2)="T1","T2- TOP RIGHT",IF(LEFT(N16,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N16,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R16" s="2"/>
-      <c r="S16" t="str">
+      <c r="T16" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U16" t="str">
-        <f t="shared" si="2"/>
+      <c r="W16" t="str">
+        <f>IF(LEFT(T16,2)="T1","T2- TOP RIGHT",IF(LEFT(T16,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T16,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1737</v>
       </c>
@@ -8760,52 +8846,54 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" t="s">
         <v>421</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" t="s">
         <v>408</v>
       </c>
-      <c r="E17" t="s">
-        <v>422</v>
-      </c>
-      <c r="F17" t="s">
-        <v>409</v>
-      </c>
       <c r="G17" t="s">
+        <v>419</v>
+      </c>
+      <c r="H17" t="s">
+        <v>415</v>
+      </c>
+      <c r="I17" t="s">
         <v>420</v>
-      </c>
-      <c r="H17" t="s">
-        <v>416</v>
-      </c>
-      <c r="I17" t="s">
-        <v>421</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O17" t="s">
+        <v>406</v>
+      </c>
       <c r="Q17" t="str">
         <f>IF(LEFT(N17,2)="T1","T2- TOP RIGHT",IF(LEFT(N17,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N17,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" t="str">
+      <c r="T17" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U17" t="str">
-        <f t="shared" si="2"/>
+      <c r="W17" t="str">
+        <f>IF(LEFT(T17,2)="T1","T2- TOP RIGHT",IF(LEFT(T17,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T17,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1738</v>
       </c>
@@ -8813,61 +8901,66 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" t="s">
         <v>421</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E18" t="s">
-        <v>422</v>
-      </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G18" t="s">
+        <v>419</v>
+      </c>
+      <c r="H18" t="s">
+        <v>415</v>
+      </c>
+      <c r="I18" t="s">
         <v>420</v>
-      </c>
-      <c r="H18" t="s">
-        <v>416</v>
-      </c>
-      <c r="I18" t="s">
-        <v>421</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="O18" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P18" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q18" t="str">
         <f>IF(LEFT(N18,2)="T1","T2- TOP RIGHT",IF(LEFT(N18,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N18,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R18" s="2"/>
-      <c r="S18" t="str">
+      <c r="R18" t="s">
+        <v>407</v>
+      </c>
+      <c r="S18" t="s">
+        <v>493</v>
+      </c>
+      <c r="T18" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U18" t="str">
-        <f t="shared" si="2"/>
+      <c r="W18" t="str">
+        <f>IF(LEFT(T18,2)="T1","T2- TOP RIGHT",IF(LEFT(T18,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T18,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1739</v>
       </c>
@@ -8875,52 +8968,54 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E19" t="s">
         <v>421</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E19" t="s">
-        <v>422</v>
-      </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O19" t="s">
+        <v>478</v>
+      </c>
       <c r="Q19" t="str">
         <f>IF(LEFT(N19,2)="T1","T2- TOP RIGHT",IF(LEFT(N19,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N19,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R19" s="2"/>
-      <c r="S19" t="str">
+      <c r="T19" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U19" t="str">
-        <f t="shared" si="2"/>
+      <c r="W19" t="str">
+        <f>IF(LEFT(T19,2)="T1","T2- TOP RIGHT",IF(LEFT(T19,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T19,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1741</v>
       </c>
@@ -8928,49 +9023,51 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" t="s">
+        <v>415</v>
+      </c>
+      <c r="G20" t="s">
         <v>420</v>
       </c>
-      <c r="F20" t="s">
-        <v>416</v>
-      </c>
-      <c r="G20" t="s">
-        <v>421</v>
-      </c>
       <c r="I20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O20" t="s">
+        <v>414</v>
+      </c>
       <c r="Q20" t="str">
         <f>IF(LEFT(N20,2)="T1","T2- TOP RIGHT",IF(LEFT(N20,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N20,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R20" s="2"/>
-      <c r="S20" t="str">
+      <c r="T20" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U20" t="str">
-        <f t="shared" si="2"/>
+      <c r="W20" t="str">
+        <f>IF(LEFT(T20,2)="T1","T2- TOP RIGHT",IF(LEFT(T20,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T20,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1743</v>
       </c>
@@ -8978,52 +9075,54 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E21" t="s">
         <v>420</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>406</v>
+      </c>
+      <c r="G21" t="s">
         <v>421</v>
       </c>
-      <c r="F21" t="s">
-        <v>407</v>
-      </c>
-      <c r="G21" t="s">
-        <v>422</v>
-      </c>
       <c r="H21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O21" t="s">
+        <v>411</v>
+      </c>
       <c r="Q21" t="str">
         <f>IF(LEFT(N21,2)="T1","T2- TOP RIGHT",IF(LEFT(N21,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N21,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" t="str">
+      <c r="T21" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U21" t="str">
-        <f t="shared" si="2"/>
+      <c r="W21" t="str">
+        <f>IF(LEFT(T21,2)="T1","T2- TOP RIGHT",IF(LEFT(T21,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T21,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1745</v>
       </c>
@@ -9031,52 +9130,54 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" t="s">
         <v>421</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E22" t="s">
-        <v>422</v>
-      </c>
       <c r="F22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G22" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" t="s">
+        <v>404</v>
+      </c>
+      <c r="I22" t="s">
         <v>420</v>
-      </c>
-      <c r="H22" t="s">
-        <v>405</v>
-      </c>
-      <c r="I22" t="s">
-        <v>421</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O22" t="s">
+        <v>407</v>
+      </c>
       <c r="Q22" t="str">
         <f>IF(LEFT(N22,2)="T1","T2- TOP RIGHT",IF(LEFT(N22,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N22,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R22" s="2"/>
-      <c r="S22" t="str">
+      <c r="T22" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U22" t="str">
-        <f t="shared" si="2"/>
+      <c r="W22" t="str">
+        <f>IF(LEFT(T22,2)="T1","T2- TOP RIGHT",IF(LEFT(T22,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T22,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1747</v>
       </c>
@@ -9084,52 +9185,54 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" t="s">
         <v>420</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>411</v>
+      </c>
+      <c r="G23" t="s">
         <v>421</v>
       </c>
-      <c r="F23" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" t="s">
-        <v>422</v>
-      </c>
       <c r="H23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O23" t="s">
+        <v>415</v>
+      </c>
       <c r="Q23" t="str">
         <f>IF(LEFT(N23,2)="T1","T2- TOP RIGHT",IF(LEFT(N23,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N23,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R23" s="2"/>
-      <c r="S23" t="str">
+      <c r="T23" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U23" t="str">
-        <f t="shared" si="2"/>
+      <c r="W23" t="str">
+        <f>IF(LEFT(T23,2)="T1","T2- TOP RIGHT",IF(LEFT(T23,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T23,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1748</v>
       </c>
@@ -9137,52 +9240,54 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" t="s">
+        <v>408</v>
+      </c>
+      <c r="G24" t="s">
         <v>420</v>
       </c>
-      <c r="F24" t="s">
-        <v>409</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>406</v>
+      </c>
+      <c r="I24" t="s">
         <v>421</v>
-      </c>
-      <c r="H24" t="s">
-        <v>407</v>
-      </c>
-      <c r="I24" t="s">
-        <v>422</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O24" t="s">
+        <v>410</v>
+      </c>
       <c r="Q24" t="str">
         <f>IF(LEFT(N24,2)="T1","T2- TOP RIGHT",IF(LEFT(N24,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N24,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" t="str">
+      <c r="T24" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U24" t="str">
-        <f t="shared" si="2"/>
+      <c r="W24" t="str">
+        <f>IF(LEFT(T24,2)="T1","T2- TOP RIGHT",IF(LEFT(T24,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T24,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1750</v>
       </c>
@@ -9190,49 +9295,51 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E25" t="s">
+        <v>419</v>
+      </c>
+      <c r="F25" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" t="s">
         <v>420</v>
       </c>
-      <c r="F25" t="s">
-        <v>407</v>
-      </c>
-      <c r="G25" t="s">
-        <v>421</v>
-      </c>
       <c r="I25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O25" t="s">
+        <v>413</v>
+      </c>
       <c r="Q25" t="str">
         <f>IF(LEFT(N25,2)="T1","T2- TOP RIGHT",IF(LEFT(N25,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N25,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" t="str">
+      <c r="T25" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U25" t="str">
-        <f t="shared" si="2"/>
+      <c r="W25" t="str">
+        <f>IF(LEFT(T25,2)="T1","T2- TOP RIGHT",IF(LEFT(T25,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T25,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1751</v>
       </c>
@@ -9240,49 +9347,54 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E26" t="s">
         <v>421</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E26" t="s">
-        <v>422</v>
-      </c>
       <c r="F26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L26" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O26" t="s">
+        <v>406</v>
+      </c>
+      <c r="P26" t="s">
+        <v>483</v>
+      </c>
       <c r="Q26" t="str">
         <f>IF(LEFT(N26,2)="T1","T2- TOP RIGHT",IF(LEFT(N26,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N26,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R26" s="2"/>
-      <c r="S26" t="str">
+      <c r="T26" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U26" t="str">
-        <f t="shared" si="2"/>
+      <c r="W26" t="str">
+        <f>IF(LEFT(T26,2)="T1","T2- TOP RIGHT",IF(LEFT(T26,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T26,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1752</v>
       </c>
@@ -9290,52 +9402,54 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
+        <v>419</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E27" t="s">
         <v>420</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>471</v>
+      </c>
+      <c r="G27" t="s">
         <v>421</v>
       </c>
-      <c r="F27" t="s">
-        <v>472</v>
-      </c>
-      <c r="G27" t="s">
-        <v>422</v>
-      </c>
       <c r="I27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L27" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O27" t="s">
+        <v>404</v>
+      </c>
       <c r="Q27" t="str">
         <f>IF(LEFT(N27,2)="T1","T2- TOP RIGHT",IF(LEFT(N27,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N27,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R27" s="2"/>
-      <c r="S27" t="str">
+      <c r="T27" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U27" t="str">
-        <f t="shared" si="2"/>
+      <c r="W27" t="str">
+        <f>IF(LEFT(T27,2)="T1","T2- TOP RIGHT",IF(LEFT(T27,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T27,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1753</v>
       </c>
@@ -9343,52 +9457,54 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
+        <v>420</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E28" t="s">
         <v>421</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E28" t="s">
-        <v>422</v>
-      </c>
       <c r="F28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H28" t="s">
+        <v>414</v>
+      </c>
+      <c r="I28" t="s">
         <v>420</v>
-      </c>
-      <c r="H28" t="s">
-        <v>415</v>
-      </c>
-      <c r="I28" t="s">
-        <v>421</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
       <c r="L28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
         <v>T1- TOP LEFT</v>
       </c>
+      <c r="O28" t="s">
+        <v>416</v>
+      </c>
       <c r="Q28" t="str">
         <f>IF(LEFT(N28,2)="T1","T2- TOP RIGHT",IF(LEFT(N28,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N28,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="R28" s="2"/>
-      <c r="S28" t="str">
+      <c r="T28" t="str">
         <f t="shared" si="2"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="U28" t="str">
-        <f t="shared" si="2"/>
+      <c r="W28" t="str">
+        <f>IF(LEFT(T28,2)="T1","T2- TOP RIGHT",IF(LEFT(T28,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T28,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1755</v>
       </c>
@@ -9396,49 +9512,51 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" t="s">
         <v>420</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" t="s">
         <v>421</v>
       </c>
-      <c r="F29" t="s">
-        <v>414</v>
-      </c>
-      <c r="G29" t="s">
-        <v>422</v>
-      </c>
       <c r="I29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O29" t="s">
+        <v>412</v>
+      </c>
       <c r="Q29" t="str">
         <f>IF(LEFT(N29,2)="T1","T2- TOP RIGHT",IF(LEFT(N29,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N29,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" t="str">
+      <c r="T29" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U29" t="str">
-        <f t="shared" si="2"/>
+      <c r="W29" t="str">
+        <f>IF(LEFT(T29,2)="T1","T2- TOP RIGHT",IF(LEFT(T29,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T29,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1757</v>
       </c>
@@ -9446,55 +9564,57 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E30" t="s">
         <v>420</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" t="s">
+        <v>421</v>
+      </c>
+      <c r="H30" t="s">
         <v>411</v>
       </c>
-      <c r="E30" t="s">
-        <v>421</v>
-      </c>
-      <c r="F30" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" t="s">
-        <v>422</v>
-      </c>
-      <c r="H30" t="s">
-        <v>412</v>
-      </c>
       <c r="I30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
         <v>T2- TOP RIGHT</v>
       </c>
       <c r="L30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
         <v>T3- BOTTOM RIGHT</v>
       </c>
+      <c r="O30" t="s">
+        <v>416</v>
+      </c>
       <c r="Q30" t="str">
         <f>IF(LEFT(N30,2)="T1","T2- TOP RIGHT",IF(LEFT(N30,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N30,2)="T3","T1- TOP LEFT",)))</f>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" t="str">
+      <c r="T30" t="str">
         <f t="shared" si="2"/>
         <v>T2- TOP RIGHT</v>
       </c>
-      <c r="U30" t="str">
-        <f t="shared" si="2"/>
+      <c r="W30" t="str">
+        <f>IF(LEFT(T30,2)="T1","T2- TOP RIGHT",IF(LEFT(T30,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T30,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1758</v>
       </c>
@@ -9502,52 +9622,54 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E31" t="s">
+        <v>419</v>
+      </c>
+      <c r="F31" t="s">
+        <v>414</v>
+      </c>
+      <c r="G31" t="s">
         <v>420</v>
       </c>
-      <c r="F31" t="s">
-        <v>415</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>407</v>
+      </c>
+      <c r="I31" t="s">
         <v>421</v>
-      </c>
-      <c r="H31" t="s">
-        <v>408</v>
-      </c>
-      <c r="I31" t="s">
-        <v>422</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O31" t="s">
+        <v>405</v>
+      </c>
       <c r="Q31" t="str">
         <f>IF(LEFT(N31,2)="T1","T2- TOP RIGHT",IF(LEFT(N31,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N31,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R31" s="2"/>
-      <c r="S31" t="str">
+      <c r="T31" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U31" t="str">
-        <f t="shared" si="2"/>
+      <c r="W31" t="str">
+        <f>IF(LEFT(T31,2)="T1","T2- TOP RIGHT",IF(LEFT(T31,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T31,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1759</v>
       </c>
@@ -9555,25 +9677,25 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E32" t="s">
+        <v>419</v>
+      </c>
+      <c r="F32" t="s">
+        <v>406</v>
+      </c>
+      <c r="G32" t="s">
         <v>420</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>407</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>421</v>
-      </c>
-      <c r="H32" t="s">
-        <v>408</v>
-      </c>
-      <c r="I32" t="s">
-        <v>422</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" t="str">
@@ -9581,34 +9703,36 @@
         <v>T1- TOP LEFT</v>
       </c>
       <c r="L32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
         <v>T2- TOP RIGHT</v>
       </c>
+      <c r="O32" t="s">
+        <v>405</v>
+      </c>
       <c r="Q32" t="str">
         <f>IF(LEFT(N32,2)="T1","T2- TOP RIGHT",IF(LEFT(N32,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(N32,2)="T3","T1- TOP LEFT",)))</f>
         <v>T3- BOTTOM RIGHT</v>
       </c>
-      <c r="R32" s="2"/>
-      <c r="S32" t="str">
+      <c r="T32" t="str">
         <f t="shared" si="2"/>
         <v>T1- TOP LEFT</v>
       </c>
-      <c r="U32" t="str">
-        <f t="shared" si="2"/>
+      <c r="W32" t="str">
+        <f>IF(LEFT(T32,2)="T1","T2- TOP RIGHT",IF(LEFT(T32,2)="T2","T3- BOTTOM RIGHT",IF(LEFT(T32,2)="T3","T1- TOP LEFT",)))</f>
         <v>T2- TOP RIGHT</v>
       </c>
     </row>
     <row r="34" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="9:11" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ref="J35:J36" si="3">RIGHT(I35)</f>
@@ -9651,16 +9775,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -9681,7 +9805,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -9705,7 +9829,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -9729,7 +9853,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -9753,7 +9877,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -9777,7 +9901,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -9801,7 +9925,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -9825,7 +9949,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -9849,7 +9973,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -9873,7 +9997,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9897,7 +10021,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -9921,7 +10045,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -9945,7 +10069,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -9969,7 +10093,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -9993,7 +10117,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -10017,7 +10141,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -10041,7 +10165,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -10065,7 +10189,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -10089,7 +10213,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -10113,7 +10237,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -10137,7 +10261,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -10161,7 +10285,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -10185,7 +10309,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -10209,7 +10333,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -10233,7 +10357,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -10257,7 +10381,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -10281,7 +10405,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -10305,7 +10429,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -10329,7 +10453,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -10353,7 +10477,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -10377,7 +10501,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -10401,7 +10525,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -10425,7 +10549,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -10449,7 +10573,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -10473,7 +10597,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -10497,7 +10621,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -10521,7 +10645,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -10545,7 +10669,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -10569,7 +10693,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -10593,7 +10717,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -10617,7 +10741,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -10641,7 +10765,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -10665,7 +10789,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -10689,7 +10813,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -10713,7 +10837,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -10737,7 +10861,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -10761,7 +10885,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -10785,7 +10909,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -10803,7 +10927,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -10821,7 +10945,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -10839,7 +10963,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -10857,7 +10981,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -10875,7 +10999,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -10893,7 +11017,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -10911,7 +11035,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -10929,7 +11053,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -10947,7 +11071,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -10965,7 +11089,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -10983,7 +11107,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -11001,7 +11125,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -11019,7 +11143,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -11037,7 +11161,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -11055,7 +11179,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -11073,7 +11197,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -11091,7 +11215,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -11109,7 +11233,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -11127,7 +11251,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -11145,7 +11269,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -11163,7 +11287,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -11181,7 +11305,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -11199,7 +11323,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -11217,7 +11341,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -11235,7 +11359,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -11253,7 +11377,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -11271,7 +11395,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -11289,7 +11413,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -11307,7 +11431,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -11325,7 +11449,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -11343,7 +11467,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -11361,7 +11485,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -11379,7 +11503,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -11397,7 +11521,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -11415,7 +11539,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -11433,7 +11557,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -11451,7 +11575,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -11469,7 +11593,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -11487,7 +11611,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -11505,7 +11629,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -11523,7 +11647,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -11541,7 +11665,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -11559,7 +11683,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -11577,7 +11701,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -11595,7 +11719,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -11613,7 +11737,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -11631,7 +11755,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -11649,7 +11773,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -11667,7 +11791,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -11685,7 +11809,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -11703,7 +11827,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -11721,7 +11845,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -11739,7 +11863,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -11757,7 +11881,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -11775,7 +11899,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -11793,7 +11917,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -11811,7 +11935,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -11829,7 +11953,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -11847,7 +11971,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -11865,7 +11989,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -11883,7 +12007,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -11901,7 +12025,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -11919,7 +12043,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -11937,7 +12061,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -11955,7 +12079,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -11973,7 +12097,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -11991,7 +12115,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -12009,7 +12133,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -12027,7 +12151,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -12045,7 +12169,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -12063,7 +12187,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -12081,7 +12205,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -12099,7 +12223,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -12117,7 +12241,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -12135,7 +12259,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -12153,7 +12277,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -12171,7 +12295,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -12189,7 +12313,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -12207,7 +12331,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -12225,7 +12349,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -12243,7 +12367,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -12261,7 +12385,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -12279,7 +12403,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -12297,7 +12421,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -12315,7 +12439,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -12333,7 +12457,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -12351,7 +12475,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -12369,7 +12493,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -12387,7 +12511,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -12405,7 +12529,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -12423,7 +12547,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -12441,7 +12565,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -12459,7 +12583,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -12477,7 +12601,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -12495,7 +12619,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -12513,7 +12637,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -12531,7 +12655,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -12549,7 +12673,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -12567,7 +12691,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -12585,7 +12709,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -12603,7 +12727,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -12621,7 +12745,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -12639,7 +12763,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -12657,7 +12781,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -12675,7 +12799,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -12693,7 +12817,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -12711,7 +12835,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -12729,7 +12853,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -12747,7 +12871,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -12765,7 +12889,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -12783,7 +12907,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -12801,7 +12925,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -12819,7 +12943,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -12837,7 +12961,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -12855,7 +12979,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -12873,7 +12997,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -12891,7 +13015,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -12909,7 +13033,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -12927,7 +13051,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -12945,7 +13069,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -12963,7 +13087,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -12981,7 +13105,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -12999,7 +13123,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -13017,7 +13141,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -13035,7 +13159,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -13053,7 +13177,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -13071,7 +13195,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -13089,7 +13213,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -13107,7 +13231,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -13125,7 +13249,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -13143,7 +13267,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -13161,7 +13285,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -13179,7 +13303,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -13197,7 +13321,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -13215,7 +13339,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -13233,7 +13357,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -13251,7 +13375,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -13269,7 +13393,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -13287,7 +13411,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -13305,7 +13429,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -13323,7 +13447,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -13341,7 +13465,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -13359,7 +13483,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -13377,7 +13501,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -13395,7 +13519,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -13413,7 +13537,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -13431,7 +13555,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -13449,7 +13573,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -13467,7 +13591,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -13485,7 +13609,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -13503,7 +13627,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -13521,7 +13645,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -13539,7 +13663,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -13557,7 +13681,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -13575,7 +13699,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -13593,7 +13717,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -13611,7 +13735,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -13629,7 +13753,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -13647,7 +13771,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -13665,7 +13789,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -13683,7 +13807,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -13701,7 +13825,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -13719,7 +13843,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -13737,7 +13861,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -13755,7 +13879,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -13773,7 +13897,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -13791,7 +13915,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -13809,7 +13933,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -13827,7 +13951,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -13845,7 +13969,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -13863,7 +13987,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -13881,7 +14005,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -13899,7 +14023,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -13917,7 +14041,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -13935,7 +14059,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -13953,7 +14077,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -13971,7 +14095,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -13989,7 +14113,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -14007,7 +14131,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -14025,7 +14149,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -14043,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -14061,7 +14185,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -14079,7 +14203,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -14097,7 +14221,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -14115,7 +14239,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -14133,7 +14257,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -14151,7 +14275,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -14169,7 +14293,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -14187,7 +14311,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -14205,7 +14329,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -14223,7 +14347,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -14241,7 +14365,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -14259,7 +14383,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -14277,7 +14401,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -14295,7 +14419,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -14313,7 +14437,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -14331,7 +14455,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -14349,7 +14473,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -14367,7 +14491,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -14385,7 +14509,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -14403,7 +14527,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -14421,7 +14545,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -14439,7 +14563,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -14457,7 +14581,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -14475,7 +14599,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -14493,7 +14617,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -14511,7 +14635,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -14529,7 +14653,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -14547,7 +14671,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -14565,7 +14689,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -14583,7 +14707,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -14601,7 +14725,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -14619,7 +14743,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -14637,7 +14761,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -14655,7 +14779,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -14673,7 +14797,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -14691,7 +14815,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -14709,7 +14833,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -14727,7 +14851,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -14745,7 +14869,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -14763,7 +14887,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -14781,7 +14905,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -14799,7 +14923,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -14817,7 +14941,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -14835,7 +14959,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -14853,7 +14977,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -14871,7 +14995,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -14889,7 +15013,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -14907,7 +15031,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -14925,7 +15049,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -14943,7 +15067,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -14961,7 +15085,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -14979,7 +15103,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -14997,7 +15121,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -15015,7 +15139,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -15033,7 +15157,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -15051,7 +15175,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -15069,7 +15193,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -15087,7 +15211,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -15105,7 +15229,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -15123,7 +15247,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -15141,7 +15265,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -15159,7 +15283,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -15177,7 +15301,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -15195,7 +15319,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -15213,7 +15337,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -15231,7 +15355,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -15249,7 +15373,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -15267,7 +15391,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -15285,7 +15409,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -15303,7 +15427,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -15321,7 +15445,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -15339,7 +15463,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -15357,7 +15481,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -15375,7 +15499,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -15393,7 +15517,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -15411,7 +15535,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -15429,7 +15553,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -15447,7 +15571,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -15465,7 +15589,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -15483,7 +15607,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -15501,7 +15625,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -15519,7 +15643,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -15537,7 +15661,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -15555,7 +15679,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -15573,7 +15697,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -15591,7 +15715,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -15609,7 +15733,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -15627,7 +15751,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -15645,7 +15769,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -15663,7 +15787,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -15681,7 +15805,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -15699,7 +15823,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -15717,7 +15841,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -15735,7 +15859,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -15753,7 +15877,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -15771,7 +15895,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -15789,7 +15913,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -15807,7 +15931,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -15825,7 +15949,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -15843,7 +15967,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -15861,7 +15985,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -15879,7 +16003,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -15897,7 +16021,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -15915,7 +16039,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -15933,7 +16057,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -15951,7 +16075,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -15969,7 +16093,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -15987,7 +16111,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -16005,7 +16129,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -16023,7 +16147,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -16041,7 +16165,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -16059,7 +16183,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E341">
         <v>8</v>
@@ -16088,16 +16212,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C1" t="s">
         <v>350</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -16112,7 +16236,7 @@
         <v>1736</v>
       </c>
       <c r="D2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -16130,7 +16254,7 @@
         <v>1736</v>
       </c>
       <c r="D3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -16148,7 +16272,7 @@
         <v>1736</v>
       </c>
       <c r="D4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -16166,7 +16290,7 @@
         <v>1736</v>
       </c>
       <c r="D5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -16184,7 +16308,7 @@
         <v>1736</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -16202,7 +16326,7 @@
         <v>1736</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -16220,7 +16344,7 @@
         <v>1736</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -16238,7 +16362,7 @@
         <v>1736</v>
       </c>
       <c r="D9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -16256,7 +16380,7 @@
         <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -16274,7 +16398,7 @@
         <v>1723</v>
       </c>
       <c r="D11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -16292,7 +16416,7 @@
         <v>1723</v>
       </c>
       <c r="D12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -16310,7 +16434,7 @@
         <v>1723</v>
       </c>
       <c r="D13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -16328,7 +16452,7 @@
         <v>1723</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -16346,7 +16470,7 @@
         <v>1723</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -16364,7 +16488,7 @@
         <v>1723</v>
       </c>
       <c r="D16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -16382,7 +16506,7 @@
         <v>1723</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -16400,7 +16524,7 @@
         <v>1726</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -16418,7 +16542,7 @@
         <v>1726</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -16436,7 +16560,7 @@
         <v>1726</v>
       </c>
       <c r="D20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -16454,7 +16578,7 @@
         <v>1726</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -16472,7 +16596,7 @@
         <v>1734</v>
       </c>
       <c r="D22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -16490,7 +16614,7 @@
         <v>1726</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -16508,7 +16632,7 @@
         <v>1750</v>
       </c>
       <c r="D24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -16526,7 +16650,7 @@
         <v>1750</v>
       </c>
       <c r="D25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -16544,7 +16668,7 @@
         <v>1750</v>
       </c>
       <c r="D26" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -16562,7 +16686,7 @@
         <v>1722</v>
       </c>
       <c r="D27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -16580,7 +16704,7 @@
         <v>1722</v>
       </c>
       <c r="D28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -16598,7 +16722,7 @@
         <v>1722</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -16616,7 +16740,7 @@
         <v>1722</v>
       </c>
       <c r="D30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -16634,7 +16758,7 @@
         <v>1750</v>
       </c>
       <c r="D31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -16652,7 +16776,7 @@
         <v>1750</v>
       </c>
       <c r="D32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -16670,7 +16794,7 @@
         <v>1750</v>
       </c>
       <c r="D33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -16688,7 +16812,7 @@
         <v>1723</v>
       </c>
       <c r="D34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -16706,7 +16830,7 @@
         <v>1750</v>
       </c>
       <c r="D35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -16724,7 +16848,7 @@
         <v>1750</v>
       </c>
       <c r="D36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E36">
         <v>5</v>
@@ -16742,7 +16866,7 @@
         <v>1733</v>
       </c>
       <c r="D37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -16760,7 +16884,7 @@
         <v>1733</v>
       </c>
       <c r="D38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -16778,7 +16902,7 @@
         <v>1733</v>
       </c>
       <c r="D39" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -16796,7 +16920,7 @@
         <v>1733</v>
       </c>
       <c r="D40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -16814,7 +16938,7 @@
         <v>1733</v>
       </c>
       <c r="D41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -16832,7 +16956,7 @@
         <v>1743</v>
       </c>
       <c r="D42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E42">
         <v>6</v>
@@ -16850,7 +16974,7 @@
         <v>1743</v>
       </c>
       <c r="D43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E43">
         <v>7</v>
@@ -16868,7 +16992,7 @@
         <v>1734</v>
       </c>
       <c r="D44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -16886,7 +17010,7 @@
         <v>1734</v>
       </c>
       <c r="D45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -16904,7 +17028,7 @@
         <v>1734</v>
       </c>
       <c r="D46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -16922,7 +17046,7 @@
         <v>1734</v>
       </c>
       <c r="D47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E47">
         <v>4</v>
@@ -16940,7 +17064,7 @@
         <v>1734</v>
       </c>
       <c r="D48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E48">
         <v>5</v>
@@ -16958,7 +17082,7 @@
         <v>1734</v>
       </c>
       <c r="D49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -16976,7 +17100,7 @@
         <v>1734</v>
       </c>
       <c r="D50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E50">
         <v>7</v>
@@ -16994,7 +17118,7 @@
         <v>1734</v>
       </c>
       <c r="D51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -17012,7 +17136,7 @@
         <v>1734</v>
       </c>
       <c r="D52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -17030,7 +17154,7 @@
         <v>1734</v>
       </c>
       <c r="D53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E53">
         <v>3</v>
@@ -17048,7 +17172,7 @@
         <v>1734</v>
       </c>
       <c r="D54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E54">
         <v>4</v>
@@ -17066,7 +17190,7 @@
         <v>1734</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E55">
         <v>5</v>
@@ -17084,7 +17208,7 @@
         <v>1732</v>
       </c>
       <c r="D56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -17102,7 +17226,7 @@
         <v>1732</v>
       </c>
       <c r="D57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -17120,7 +17244,7 @@
         <v>1732</v>
       </c>
       <c r="D58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -17138,7 +17262,7 @@
         <v>1732</v>
       </c>
       <c r="D59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -17156,7 +17280,7 @@
         <v>1732</v>
       </c>
       <c r="D60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E60">
         <v>5</v>
@@ -17174,7 +17298,7 @@
         <v>1732</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E61">
         <v>6</v>
@@ -17192,7 +17316,7 @@
         <v>1732</v>
       </c>
       <c r="D62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E62">
         <v>7</v>
@@ -17210,7 +17334,7 @@
         <v>1732</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -17228,7 +17352,7 @@
         <v>1732</v>
       </c>
       <c r="D64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -17246,7 +17370,7 @@
         <v>1732</v>
       </c>
       <c r="D65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -17264,7 +17388,7 @@
         <v>1732</v>
       </c>
       <c r="D66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -17282,7 +17406,7 @@
         <v>1732</v>
       </c>
       <c r="D67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E67">
         <v>5</v>
@@ -17300,7 +17424,7 @@
         <v>1732</v>
       </c>
       <c r="D68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E68">
         <v>6</v>
@@ -17318,7 +17442,7 @@
         <v>1732</v>
       </c>
       <c r="D69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E69">
         <v>7</v>
@@ -17336,7 +17460,7 @@
         <v>1732</v>
       </c>
       <c r="D70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -17354,7 +17478,7 @@
         <v>1731</v>
       </c>
       <c r="D71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -17372,7 +17496,7 @@
         <v>1731</v>
       </c>
       <c r="D72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -17390,7 +17514,7 @@
         <v>1731</v>
       </c>
       <c r="D73" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -17408,7 +17532,7 @@
         <v>1725</v>
       </c>
       <c r="D74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -17426,7 +17550,7 @@
         <v>1725</v>
       </c>
       <c r="D75" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E75">
         <v>5</v>
@@ -17444,7 +17568,7 @@
         <v>1725</v>
       </c>
       <c r="D76" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E76">
         <v>6</v>
@@ -17462,7 +17586,7 @@
         <v>1725</v>
       </c>
       <c r="D77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E77">
         <v>7</v>
@@ -17480,7 +17604,7 @@
         <v>BACK</v>
       </c>
       <c r="D78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -17498,7 +17622,7 @@
         <v>1731</v>
       </c>
       <c r="D79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -17516,7 +17640,7 @@
         <v>1731</v>
       </c>
       <c r="D80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -17534,7 +17658,7 @@
         <v>1731</v>
       </c>
       <c r="D81" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -17552,7 +17676,7 @@
         <v>1731</v>
       </c>
       <c r="D82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E82">
         <v>4</v>
@@ -17570,7 +17694,7 @@
         <v>1731</v>
       </c>
       <c r="D83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E83">
         <v>5</v>
@@ -17588,7 +17712,7 @@
         <v>1731</v>
       </c>
       <c r="D84" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -17606,7 +17730,7 @@
         <v>1731</v>
       </c>
       <c r="D85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E85">
         <v>7</v>
@@ -17624,7 +17748,7 @@
         <v>1731</v>
       </c>
       <c r="D86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -17642,7 +17766,7 @@
         <v>1739</v>
       </c>
       <c r="D87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -17660,7 +17784,7 @@
         <v>1739</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -17678,7 +17802,7 @@
         <v>1739</v>
       </c>
       <c r="D89" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -17696,7 +17820,7 @@
         <v>1739</v>
       </c>
       <c r="D90" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -17714,7 +17838,7 @@
         <v>1739</v>
       </c>
       <c r="D91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -17732,7 +17856,7 @@
         <v>1739</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -17750,7 +17874,7 @@
         <v>1739</v>
       </c>
       <c r="D93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -17768,7 +17892,7 @@
         <v>1739</v>
       </c>
       <c r="D94" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -17786,7 +17910,7 @@
         <v>1753</v>
       </c>
       <c r="D95" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -17804,7 +17928,7 @@
         <v>1753</v>
       </c>
       <c r="D96" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E96">
         <v>2</v>
@@ -17822,7 +17946,7 @@
         <v>1753</v>
       </c>
       <c r="D97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -17840,7 +17964,7 @@
         <v>1753</v>
       </c>
       <c r="D98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -17858,7 +17982,7 @@
         <v>1753</v>
       </c>
       <c r="D99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E99">
         <v>5</v>
@@ -17876,7 +18000,7 @@
         <v>1753</v>
       </c>
       <c r="D100" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E100">
         <v>6</v>
@@ -17894,7 +18018,7 @@
         <v>1753</v>
       </c>
       <c r="D101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E101">
         <v>7</v>
@@ -17912,7 +18036,7 @@
         <v>1739</v>
       </c>
       <c r="D102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E102">
         <v>8</v>
@@ -17930,7 +18054,7 @@
         <v>1721</v>
       </c>
       <c r="D103" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -17948,7 +18072,7 @@
         <v>1721</v>
       </c>
       <c r="D104" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -17966,7 +18090,7 @@
         <v>1721</v>
       </c>
       <c r="D105" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -17984,7 +18108,7 @@
         <v>1721</v>
       </c>
       <c r="D106" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -18002,7 +18126,7 @@
         <v>1721</v>
       </c>
       <c r="D107" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -18020,7 +18144,7 @@
         <v>1721</v>
       </c>
       <c r="D108" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -18038,7 +18162,7 @@
         <v>1721</v>
       </c>
       <c r="D109" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E109">
         <v>7</v>
@@ -18056,7 +18180,7 @@
         <v>1721</v>
       </c>
       <c r="D110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E110">
         <v>8</v>
@@ -18074,7 +18198,7 @@
         <v>1721</v>
       </c>
       <c r="D111" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -18092,7 +18216,7 @@
         <v>1721</v>
       </c>
       <c r="D112" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -18110,7 +18234,7 @@
         <v>1721</v>
       </c>
       <c r="D113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -18128,7 +18252,7 @@
         <v>1721</v>
       </c>
       <c r="D114" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -18146,7 +18270,7 @@
         <v>1721</v>
       </c>
       <c r="D115" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -18164,7 +18288,7 @@
         <v>1721</v>
       </c>
       <c r="D116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E116">
         <v>6</v>
@@ -18182,7 +18306,7 @@
         <v>1753</v>
       </c>
       <c r="D117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -18200,7 +18324,7 @@
         <v>1753</v>
       </c>
       <c r="D118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -18218,7 +18342,7 @@
         <v>1753</v>
       </c>
       <c r="D119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E119">
         <v>3</v>
@@ -18236,7 +18360,7 @@
         <v>1753</v>
       </c>
       <c r="D120" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E120">
         <v>4</v>
@@ -18254,7 +18378,7 @@
         <v>1753</v>
       </c>
       <c r="D121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -18272,7 +18396,7 @@
         <v>1753</v>
       </c>
       <c r="D122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -18290,7 +18414,7 @@
         <v>1753</v>
       </c>
       <c r="D123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E123">
         <v>7</v>
@@ -18308,7 +18432,7 @@
         <v>1722</v>
       </c>
       <c r="D124" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -18326,7 +18450,7 @@
         <v>1722</v>
       </c>
       <c r="D125" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -18344,7 +18468,7 @@
         <v>1722</v>
       </c>
       <c r="D126" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E126">
         <v>3</v>
@@ -18362,7 +18486,7 @@
         <v>1722</v>
       </c>
       <c r="D127" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E127">
         <v>4</v>
@@ -18380,7 +18504,7 @@
         <v>1722</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E128">
         <v>5</v>
@@ -18398,7 +18522,7 @@
         <v>1722</v>
       </c>
       <c r="D129" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -18416,7 +18540,7 @@
         <v>1722</v>
       </c>
       <c r="D130" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E130">
         <v>7</v>
@@ -18434,7 +18558,7 @@
         <v>1722</v>
       </c>
       <c r="D131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -18452,7 +18576,7 @@
         <v>1722</v>
       </c>
       <c r="D132" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E132">
         <v>9</v>
@@ -18470,7 +18594,7 @@
         <v>1722</v>
       </c>
       <c r="D133" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -18488,7 +18612,7 @@
         <v>1733</v>
       </c>
       <c r="D134" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -18506,7 +18630,7 @@
         <v>1733</v>
       </c>
       <c r="D135" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -18524,7 +18648,7 @@
         <v>1733</v>
       </c>
       <c r="D136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -18542,7 +18666,7 @@
         <v>1743</v>
       </c>
       <c r="D137" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E137">
         <v>4</v>
@@ -18560,7 +18684,7 @@
         <v>1743</v>
       </c>
       <c r="D138" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -18578,7 +18702,7 @@
         <v>1743</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -18596,7 +18720,7 @@
         <v>1743</v>
       </c>
       <c r="D140" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E140">
         <v>7</v>
@@ -18614,7 +18738,7 @@
         <v>1743</v>
       </c>
       <c r="D141" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -18632,7 +18756,7 @@
         <v>1743</v>
       </c>
       <c r="D142" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -18650,7 +18774,7 @@
         <v>1755</v>
       </c>
       <c r="D143" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -18668,7 +18792,7 @@
         <v>1755</v>
       </c>
       <c r="D144" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -18686,7 +18810,7 @@
         <v>1755</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -18704,7 +18828,7 @@
         <v>1755</v>
       </c>
       <c r="D146" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E146">
         <v>4</v>
@@ -18722,7 +18846,7 @@
         <v>1755</v>
       </c>
       <c r="D147" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E147">
         <v>5</v>
@@ -18740,7 +18864,7 @@
         <v>1755</v>
       </c>
       <c r="D148" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E148">
         <v>6</v>
@@ -18758,7 +18882,7 @@
         <v>1755</v>
       </c>
       <c r="D149" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -18776,7 +18900,7 @@
         <v>1727</v>
       </c>
       <c r="D150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -18794,7 +18918,7 @@
         <v>1727</v>
       </c>
       <c r="D151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E151">
         <v>2</v>
@@ -18812,7 +18936,7 @@
         <v>1727</v>
       </c>
       <c r="D152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -18830,7 +18954,7 @@
         <v>1727</v>
       </c>
       <c r="D153" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E153">
         <v>4</v>
@@ -18848,7 +18972,7 @@
         <v>1751</v>
       </c>
       <c r="D154" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E154">
         <v>5</v>
@@ -18866,7 +18990,7 @@
         <v>1727</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -18884,7 +19008,7 @@
         <v>1727</v>
       </c>
       <c r="D156" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -18902,7 +19026,7 @@
         <v>1727</v>
       </c>
       <c r="D157" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -18920,7 +19044,7 @@
         <v>1755</v>
       </c>
       <c r="D158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E158">
         <v>9</v>
@@ -18938,7 +19062,7 @@
         <v>1755</v>
       </c>
       <c r="D159" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E159">
         <v>10</v>
@@ -18956,7 +19080,7 @@
         <v>1727</v>
       </c>
       <c r="D160" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E160">
         <v>11</v>
@@ -18974,7 +19098,7 @@
         <v>1727</v>
       </c>
       <c r="D161" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E161">
         <v>12</v>
@@ -18992,7 +19116,7 @@
         <v>1727</v>
       </c>
       <c r="D162" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -19010,7 +19134,7 @@
         <v>1727</v>
       </c>
       <c r="D163" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -19028,7 +19152,7 @@
         <v>1727</v>
       </c>
       <c r="D164" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -19046,7 +19170,7 @@
         <v>1735</v>
       </c>
       <c r="D165" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -19064,7 +19188,7 @@
         <v>1735</v>
       </c>
       <c r="D166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -19082,7 +19206,7 @@
         <v>1735</v>
       </c>
       <c r="D167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -19100,7 +19224,7 @@
         <v>1727</v>
       </c>
       <c r="D168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E168">
         <v>7</v>
@@ -19118,7 +19242,7 @@
         <v>1727</v>
       </c>
       <c r="D169" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -19136,7 +19260,7 @@
         <v>1745</v>
       </c>
       <c r="D170" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -19154,7 +19278,7 @@
         <v>1745</v>
       </c>
       <c r="D171" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -19172,7 +19296,7 @@
         <v>1745</v>
       </c>
       <c r="D172" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E172">
         <v>3</v>
@@ -19190,7 +19314,7 @@
         <v>1745</v>
       </c>
       <c r="D173" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -19208,7 +19332,7 @@
         <v>1745</v>
       </c>
       <c r="D174" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -19226,7 +19350,7 @@
         <v>1745</v>
       </c>
       <c r="D175" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E175">
         <v>6</v>
@@ -19244,7 +19368,7 @@
         <v>1745</v>
       </c>
       <c r="D176" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -19262,7 +19386,7 @@
         <v>1745</v>
       </c>
       <c r="D177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -19280,7 +19404,7 @@
         <v>1735</v>
       </c>
       <c r="D178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -19298,7 +19422,7 @@
         <v>1735</v>
       </c>
       <c r="D179" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -19316,7 +19440,7 @@
         <v>1735</v>
       </c>
       <c r="D180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -19334,7 +19458,7 @@
         <v>1735</v>
       </c>
       <c r="D181" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E181">
         <v>4</v>
@@ -19352,7 +19476,7 @@
         <v>1735</v>
       </c>
       <c r="D182" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E182">
         <v>5</v>
@@ -19370,7 +19494,7 @@
         <v>1735</v>
       </c>
       <c r="D183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -19388,7 +19512,7 @@
         <v>1735</v>
       </c>
       <c r="D184" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E184">
         <v>7</v>
@@ -19406,7 +19530,7 @@
         <v>1735</v>
       </c>
       <c r="D185" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -19424,7 +19548,7 @@
         <v>1735</v>
       </c>
       <c r="D186" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -19442,7 +19566,7 @@
         <v>1735</v>
       </c>
       <c r="D187" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -19460,7 +19584,7 @@
         <v>1752</v>
       </c>
       <c r="D188" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -19478,7 +19602,7 @@
         <v>1752</v>
       </c>
       <c r="D189" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E189">
         <v>4</v>
@@ -19496,7 +19620,7 @@
         <v>1752</v>
       </c>
       <c r="D190" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E190">
         <v>5</v>
@@ -19514,7 +19638,7 @@
         <v>1735</v>
       </c>
       <c r="D191" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E191">
         <v>6</v>
@@ -19532,7 +19656,7 @@
         <v>1752</v>
       </c>
       <c r="D192" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -19550,7 +19674,7 @@
         <v>1745</v>
       </c>
       <c r="D193" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E193">
         <v>8</v>
@@ -19568,7 +19692,7 @@
         <v>1745</v>
       </c>
       <c r="D194" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -19586,7 +19710,7 @@
         <v>1748</v>
       </c>
       <c r="D195" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -19604,7 +19728,7 @@
         <v>1748</v>
       </c>
       <c r="D196" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -19622,7 +19746,7 @@
         <v>1748</v>
       </c>
       <c r="D197" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E197">
         <v>3</v>
@@ -19640,7 +19764,7 @@
         <v>1748</v>
       </c>
       <c r="D198" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -19658,7 +19782,7 @@
         <v>1748</v>
       </c>
       <c r="D199" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E199">
         <v>5</v>
@@ -19676,7 +19800,7 @@
         <v>1748</v>
       </c>
       <c r="D200" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E200">
         <v>6</v>
@@ -19694,7 +19818,7 @@
         <v>Blan</v>
       </c>
       <c r="D201" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E201">
         <v>7</v>
@@ -19712,7 +19836,7 @@
         <v>1748</v>
       </c>
       <c r="D202" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -19730,7 +19854,7 @@
         <v>1728</v>
       </c>
       <c r="D203" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -19748,7 +19872,7 @@
         <v>1748</v>
       </c>
       <c r="D204" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E204">
         <v>3</v>
@@ -19766,7 +19890,7 @@
         <v>1748</v>
       </c>
       <c r="D205" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E205">
         <v>4</v>
@@ -19784,7 +19908,7 @@
         <v>1748</v>
       </c>
       <c r="D206" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E206">
         <v>5</v>
@@ -19802,7 +19926,7 @@
         <v>Blan</v>
       </c>
       <c r="D207" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E207">
         <v>6</v>
@@ -19820,7 +19944,7 @@
         <v>1751</v>
       </c>
       <c r="D208" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -19838,7 +19962,7 @@
         <v>1751</v>
       </c>
       <c r="D209" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -19856,7 +19980,7 @@
         <v>1728</v>
       </c>
       <c r="D210" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -19874,7 +19998,7 @@
         <v>1751</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E211">
         <v>4</v>
@@ -19892,7 +20016,7 @@
         <v>1751</v>
       </c>
       <c r="D212" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E212">
         <v>5</v>
@@ -19910,7 +20034,7 @@
         <v>1751</v>
       </c>
       <c r="D213" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E213">
         <v>6</v>
@@ -19928,7 +20052,7 @@
         <v>1751</v>
       </c>
       <c r="D214" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -19946,7 +20070,7 @@
         <v>1757</v>
       </c>
       <c r="D215" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -19964,7 +20088,7 @@
         <v>1757</v>
       </c>
       <c r="D216" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -19982,7 +20106,7 @@
         <v>1757</v>
       </c>
       <c r="D217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -20000,7 +20124,7 @@
         <v>1757</v>
       </c>
       <c r="D218" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E218">
         <v>4</v>
@@ -20018,7 +20142,7 @@
         <v>1741</v>
       </c>
       <c r="D219" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E219">
         <v>5</v>
@@ -20036,7 +20160,7 @@
         <v>1728</v>
       </c>
       <c r="D220" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E220">
         <v>6</v>
@@ -20054,7 +20178,7 @@
         <v>1728</v>
       </c>
       <c r="D221" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E221">
         <v>7</v>
@@ -20072,7 +20196,7 @@
         <v>1728</v>
       </c>
       <c r="D222" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E222">
         <v>8</v>
@@ -20090,7 +20214,7 @@
         <v>1728</v>
       </c>
       <c r="D223" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E223">
         <v>9</v>
@@ -20108,7 +20232,7 @@
         <v>1728</v>
       </c>
       <c r="D224" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -20126,7 +20250,7 @@
         <v>1728</v>
       </c>
       <c r="D225" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E225">
         <v>2</v>
@@ -20144,7 +20268,7 @@
         <v>1728</v>
       </c>
       <c r="D226" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E226">
         <v>3</v>
@@ -20162,7 +20286,7 @@
         <v>1728</v>
       </c>
       <c r="D227" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E227">
         <v>4</v>
@@ -20180,7 +20304,7 @@
         <v>1728</v>
       </c>
       <c r="D228" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -20198,7 +20322,7 @@
         <v>1728</v>
       </c>
       <c r="D229" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -20216,7 +20340,7 @@
         <v>1723</v>
       </c>
       <c r="D230" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -20234,7 +20358,7 @@
         <v>1729</v>
       </c>
       <c r="D231" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -20252,7 +20376,7 @@
         <v>1757</v>
       </c>
       <c r="D232" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -20270,7 +20394,7 @@
         <v>1725</v>
       </c>
       <c r="D233" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E233">
         <v>4</v>
@@ -20288,7 +20412,7 @@
         <v>1752</v>
       </c>
       <c r="D234" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -20306,7 +20430,7 @@
         <v>1757</v>
       </c>
       <c r="D235" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -20324,7 +20448,7 @@
         <v>1757</v>
       </c>
       <c r="D236" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -20342,7 +20466,7 @@
         <v>1757</v>
       </c>
       <c r="D237" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E237">
         <v>3</v>
@@ -20360,7 +20484,7 @@
         <v>1751</v>
       </c>
       <c r="D238" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E238">
         <v>4</v>
@@ -20378,7 +20502,7 @@
         <v>1732</v>
       </c>
       <c r="D239" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E239">
         <v>5</v>
@@ -20396,7 +20520,7 @@
         <v>1758</v>
       </c>
       <c r="D240" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E240">
         <v>6</v>
@@ -20414,7 +20538,7 @@
         <v>1727</v>
       </c>
       <c r="D241" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E241">
         <v>7</v>
@@ -20432,7 +20556,7 @@
         <v>1757</v>
       </c>
       <c r="D242" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E242">
         <v>8</v>
@@ -20450,7 +20574,7 @@
         <v>1757</v>
       </c>
       <c r="D243" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E243">
         <v>9</v>
@@ -20468,7 +20592,7 @@
         <v>1737</v>
       </c>
       <c r="D244" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -20486,7 +20610,7 @@
         <v>1737</v>
       </c>
       <c r="D245" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E245">
         <v>2</v>
@@ -20504,7 +20628,7 @@
         <v>1737</v>
       </c>
       <c r="D246" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E246">
         <v>3</v>
@@ -20522,7 +20646,7 @@
         <v>1737</v>
       </c>
       <c r="D247" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E247">
         <v>4</v>
@@ -20540,7 +20664,7 @@
         <v>1737</v>
       </c>
       <c r="D248" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -20558,7 +20682,7 @@
         <v>1737</v>
       </c>
       <c r="D249" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E249">
         <v>6</v>
@@ -20576,7 +20700,7 @@
         <v>1737</v>
       </c>
       <c r="D250" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E250">
         <v>7</v>
@@ -20594,7 +20718,7 @@
         <v>1737</v>
       </c>
       <c r="D251" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -20612,7 +20736,7 @@
         <v>1737</v>
       </c>
       <c r="D252" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E252">
         <v>9</v>
@@ -20630,7 +20754,7 @@
         <v>1737</v>
       </c>
       <c r="D253" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -20648,7 +20772,7 @@
         <v>1738</v>
       </c>
       <c r="D254" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -20666,7 +20790,7 @@
         <v>1738</v>
       </c>
       <c r="D255" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E255">
         <v>2</v>
@@ -20684,7 +20808,7 @@
         <v>1738</v>
       </c>
       <c r="D256" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -20702,7 +20826,7 @@
         <v>1738</v>
       </c>
       <c r="D257" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E257">
         <v>4</v>
@@ -20720,7 +20844,7 @@
         <v>1738</v>
       </c>
       <c r="D258" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E258">
         <v>4</v>
@@ -20738,7 +20862,7 @@
         <v>1738</v>
       </c>
       <c r="D259" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -20756,7 +20880,7 @@
         <v>1738</v>
       </c>
       <c r="D260" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E260">
         <v>2</v>
@@ -20774,7 +20898,7 @@
         <v>1738</v>
       </c>
       <c r="D261" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -20792,7 +20916,7 @@
         <v>1738</v>
       </c>
       <c r="D262" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E262">
         <v>4</v>
@@ -20810,7 +20934,7 @@
         <v>1738</v>
       </c>
       <c r="D263" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -20828,7 +20952,7 @@
         <v>1738</v>
       </c>
       <c r="D264" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -20846,7 +20970,7 @@
         <v>1738</v>
       </c>
       <c r="D265" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -20864,7 +20988,7 @@
         <v>1738</v>
       </c>
       <c r="D266" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E266">
         <v>8</v>
@@ -20882,7 +21006,7 @@
         <v>1759</v>
       </c>
       <c r="D267" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -20900,7 +21024,7 @@
         <v>1759</v>
       </c>
       <c r="D268" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -20918,7 +21042,7 @@
         <v>1759</v>
       </c>
       <c r="D269" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -20936,7 +21060,7 @@
         <v>1759</v>
       </c>
       <c r="D270" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E270">
         <v>4</v>
@@ -20954,7 +21078,7 @@
         <v>1759</v>
       </c>
       <c r="D271" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E271">
         <v>5</v>
@@ -20972,7 +21096,7 @@
         <v>1759</v>
       </c>
       <c r="D272" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E272">
         <v>6</v>
@@ -20990,7 +21114,7 @@
         <v>1759</v>
       </c>
       <c r="D273" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -21008,7 +21132,7 @@
         <v>1759</v>
       </c>
       <c r="D274" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E274">
         <v>8</v>
@@ -21026,7 +21150,7 @@
         <v>1759</v>
       </c>
       <c r="D275" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E275">
         <v>9</v>
@@ -21044,7 +21168,7 @@
         <v>Blan</v>
       </c>
       <c r="D276" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -21062,7 +21186,7 @@
         <v>1759</v>
       </c>
       <c r="D277" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E277">
         <v>2</v>
@@ -21080,7 +21204,7 @@
         <v>1759</v>
       </c>
       <c r="D278" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E278">
         <v>3</v>
@@ -21098,7 +21222,7 @@
         <v>1759</v>
       </c>
       <c r="D279" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E279">
         <v>4</v>
@@ -21116,7 +21240,7 @@
         <v>1737</v>
       </c>
       <c r="D280" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E280">
         <v>5</v>
@@ -21134,7 +21258,7 @@
         <v>1737</v>
       </c>
       <c r="D281" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E281">
         <v>6</v>
@@ -21152,7 +21276,7 @@
         <v>1737</v>
       </c>
       <c r="D282" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E282">
         <v>7</v>
@@ -21170,7 +21294,7 @@
         <v>1747</v>
       </c>
       <c r="D283" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E283">
         <v>8</v>
@@ -21188,7 +21312,7 @@
         <v>1759</v>
       </c>
       <c r="D284" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E284">
         <v>1</v>
@@ -21206,7 +21330,7 @@
         <v>1747</v>
       </c>
       <c r="D285" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E285">
         <v>2</v>
@@ -21224,7 +21348,7 @@
         <v>1747</v>
       </c>
       <c r="D286" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E286">
         <v>3</v>
@@ -21242,7 +21366,7 @@
         <v>1747</v>
       </c>
       <c r="D287" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -21260,7 +21384,7 @@
         <v>1747</v>
       </c>
       <c r="D288" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E288">
         <v>5</v>
@@ -21278,7 +21402,7 @@
         <v>1747</v>
       </c>
       <c r="D289" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -21296,7 +21420,7 @@
         <v>1747</v>
       </c>
       <c r="D290" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E290">
         <v>7</v>
@@ -21314,7 +21438,7 @@
         <v>1747</v>
       </c>
       <c r="D291" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E291">
         <v>8</v>
@@ -21332,7 +21456,7 @@
         <v>1737</v>
       </c>
       <c r="D292" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E292">
         <v>1</v>
@@ -21350,7 +21474,7 @@
         <v>1737</v>
       </c>
       <c r="D293" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E293">
         <v>2</v>
@@ -21368,7 +21492,7 @@
         <v>1729</v>
       </c>
       <c r="D294" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E294">
         <v>3</v>
@@ -21386,7 +21510,7 @@
         <v>1729</v>
       </c>
       <c r="D295" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E295">
         <v>4</v>
@@ -21404,7 +21528,7 @@
         <v>1729</v>
       </c>
       <c r="D296" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -21422,7 +21546,7 @@
         <v>1729</v>
       </c>
       <c r="D297" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E297">
         <v>6</v>
@@ -21440,7 +21564,7 @@
         <v>1729</v>
       </c>
       <c r="D298" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E298">
         <v>7</v>
@@ -21458,7 +21582,7 @@
         <v>1729</v>
       </c>
       <c r="D299" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -21476,7 +21600,7 @@
         <v>1729</v>
       </c>
       <c r="D300" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E300">
         <v>2</v>
@@ -21494,7 +21618,7 @@
         <v>1747</v>
       </c>
       <c r="D301" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E301">
         <v>3</v>
@@ -21512,7 +21636,7 @@
         <v>1747</v>
       </c>
       <c r="D302" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E302">
         <v>4</v>
@@ -21530,7 +21654,7 @@
         <v>1747</v>
       </c>
       <c r="D303" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E303">
         <v>5</v>
@@ -21548,7 +21672,7 @@
         <v>1729</v>
       </c>
       <c r="D304" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E304">
         <v>6</v>
@@ -21566,7 +21690,7 @@
         <v>1747</v>
       </c>
       <c r="D305" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E305">
         <v>7</v>
@@ -21584,7 +21708,7 @@
         <v>1758</v>
       </c>
       <c r="D306" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E306">
         <v>1</v>
@@ -21602,7 +21726,7 @@
         <v>1758</v>
       </c>
       <c r="D307" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E307">
         <v>2</v>
@@ -21620,7 +21744,7 @@
         <v>1758</v>
       </c>
       <c r="D308" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E308">
         <v>3</v>
@@ -21638,7 +21762,7 @@
         <v>1758</v>
       </c>
       <c r="D309" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E309">
         <v>4</v>
@@ -21656,7 +21780,7 @@
         <v>1758</v>
       </c>
       <c r="D310" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E310">
         <v>5</v>
@@ -21674,7 +21798,7 @@
         <v>1758</v>
       </c>
       <c r="D311" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E311">
         <v>6</v>
@@ -21692,7 +21816,7 @@
         <v>1758</v>
       </c>
       <c r="D312" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E312">
         <v>7</v>
@@ -21710,7 +21834,7 @@
         <v>Blan</v>
       </c>
       <c r="D313" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E313">
         <v>8</v>
@@ -21728,7 +21852,7 @@
         <v>1741</v>
       </c>
       <c r="D314" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E314">
         <v>1</v>
@@ -21746,7 +21870,7 @@
         <v>1741</v>
       </c>
       <c r="D315" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E315">
         <v>2</v>
@@ -21764,7 +21888,7 @@
         <v>1741</v>
       </c>
       <c r="D316" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -21782,7 +21906,7 @@
         <v>1741</v>
       </c>
       <c r="D317" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E317">
         <v>4</v>
@@ -21800,7 +21924,7 @@
         <v>1741</v>
       </c>
       <c r="D318" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E318">
         <v>5</v>
@@ -21818,7 +21942,7 @@
         <v>1741</v>
       </c>
       <c r="D319" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E319">
         <v>6</v>
@@ -21836,7 +21960,7 @@
         <v>1741</v>
       </c>
       <c r="D320" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E320">
         <v>7</v>
@@ -21854,7 +21978,7 @@
         <v>1752</v>
       </c>
       <c r="D321" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E321">
         <v>1</v>
@@ -21872,7 +21996,7 @@
         <v>1752</v>
       </c>
       <c r="D322" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -21890,7 +22014,7 @@
         <v>1752</v>
       </c>
       <c r="D323" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -21908,7 +22032,7 @@
         <v>1758</v>
       </c>
       <c r="D324" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E324">
         <v>4</v>
@@ -21926,7 +22050,7 @@
         <v>1730</v>
       </c>
       <c r="D325" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E325">
         <v>5</v>
@@ -21944,7 +22068,7 @@
         <v>1743</v>
       </c>
       <c r="D326" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -21962,7 +22086,7 @@
         <v>1725</v>
       </c>
       <c r="D327" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E327">
         <v>2</v>
@@ -21980,7 +22104,7 @@
         <v>1736</v>
       </c>
       <c r="D328" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E328">
         <v>3</v>
@@ -21998,7 +22122,7 @@
         <v>1739</v>
       </c>
       <c r="D329" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E329">
         <v>4</v>
@@ -22016,7 +22140,7 @@
         <v>1748</v>
       </c>
       <c r="D330" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E330">
         <v>5</v>
@@ -22034,7 +22158,7 @@
         <v>1745</v>
       </c>
       <c r="D331" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E331">
         <v>6</v>
@@ -22052,7 +22176,7 @@
         <v>1743</v>
       </c>
       <c r="D332" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E332">
         <v>7</v>
@@ -22070,7 +22194,7 @@
         <v>1752</v>
       </c>
       <c r="D333" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E333">
         <v>8</v>
@@ -22088,7 +22212,7 @@
         <v>1757</v>
       </c>
       <c r="D334" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -22106,7 +22230,7 @@
         <v>1745</v>
       </c>
       <c r="D335" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E335">
         <v>2</v>
@@ -22124,7 +22248,7 @@
         <v>1733</v>
       </c>
       <c r="D336" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -22142,7 +22266,7 @@
         <v>1728</v>
       </c>
       <c r="D337" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E337">
         <v>4</v>
@@ -22160,7 +22284,7 @@
         <v>1726</v>
       </c>
       <c r="D338" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E338">
         <v>5</v>
@@ -22178,7 +22302,7 @@
         <v>1758</v>
       </c>
       <c r="D339" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E339">
         <v>6</v>
@@ -22196,7 +22320,7 @@
         <v>1748</v>
       </c>
       <c r="D340" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E340">
         <v>7</v>
@@ -22214,7 +22338,7 @@
         <v>1721</v>
       </c>
       <c r="D341" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E341">
         <v>8</v>
